--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\VScode\Python\water_rate_calculate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\GitHub\Repositories\Projects\vscode\water_cost_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EE419-B7F9-47B9-9CC4-2246EEEEE48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A770-C032-4DC2-B5B7-9EF1F4055F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
   </bookViews>
   <sheets>
     <sheet name="H30年度" sheetId="2" r:id="rId1"/>
     <sheet name="水道料金マスタ" sheetId="1" r:id="rId2"/>
-    <sheet name="印刷テンプレート" sheetId="3" r:id="rId3"/>
+    <sheet name="印刷テンプレート" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">印刷テンプレート!$A$1:$G$28</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>水道料金・下水道使用料早見表（２か月分）</t>
   </si>
@@ -54,19 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水道料金明細書</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>メイサイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>号</t>
     <rPh sb="0" eb="1">
       <t>ゴウ</t>
@@ -74,81 +58,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H30年度</t>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4~5月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6~7月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8~9月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10~11月</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12~1月</t>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2~3月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用水量(㎥)</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水道料金(円)</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,25 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年間使用水道料金額</t>
-    <rPh sb="0" eb="2">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>差額</t>
     <rPh sb="0" eb="2">
       <t>サガク</t>
@@ -211,16 +104,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>クミアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返金額</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,12 +138,139 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　　　　水道使用量・水道料金明細</t>
+    <rPh sb="4" eb="6">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R元年度</t>
+    <rPh sb="1" eb="2">
+      <t>ガン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用水量（㎥）</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道料金（円）</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4～5月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6～7月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8～9月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10～11月</t>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12～1月</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2～3月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間使用水道料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイドウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +286,68 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -308,13 +380,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,26 +583,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -660,13 +984,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
@@ -709,12 +1033,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>143</v>
@@ -756,12 +1080,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>726</v>
@@ -803,12 +1127,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>565</v>
@@ -850,12 +1174,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>626</v>
@@ -912,23 +1236,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -956,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -970,7 +1294,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -984,7 +1308,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -998,7 +1322,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1012,7 +1336,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1350,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1040,7 +1364,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1054,7 +1378,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1068,7 +1392,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1082,7 +1406,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1096,7 +1420,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1110,7 +1434,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1124,7 +1448,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1138,7 +1462,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1152,7 +1476,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1166,7 +1490,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1180,7 +1504,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1194,7 +1518,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1208,7 +1532,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1222,7 +1546,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1236,7 +1560,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1250,7 +1574,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1264,7 +1588,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1278,7 +1602,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -1292,7 +1616,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -1306,7 +1630,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -1320,7 +1644,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1334,7 +1658,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -1348,7 +1672,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -1362,7 +1686,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -1376,7 +1700,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -1390,7 +1714,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -1404,7 +1728,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -1418,7 +1742,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -1432,7 +1756,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -1446,7 +1770,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -1460,7 +1784,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -1474,7 +1798,7 @@
         <v>7786</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -1488,7 +1812,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -1502,7 +1826,7 @@
         <v>8234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -1516,7 +1840,7 @@
         <v>8458</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -1530,7 +1854,7 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -1544,7 +1868,7 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -1558,7 +1882,7 @@
         <v>9322</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -1572,7 +1896,7 @@
         <v>9644</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -1586,7 +1910,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -1600,7 +1924,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -1614,7 +1938,7 @@
         <v>10606</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -1628,7 +1952,7 @@
         <v>10926</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -1642,7 +1966,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -1656,7 +1980,7 @@
         <v>11568</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -1670,7 +1994,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -1684,7 +2008,7 @@
         <v>12210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -1698,7 +2022,7 @@
         <v>12530</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -1712,7 +2036,7 @@
         <v>12852</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -1726,7 +2050,7 @@
         <v>13172</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -1740,7 +2064,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -1754,7 +2078,7 @@
         <v>13814</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -1768,7 +2092,7 @@
         <v>14134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -1782,7 +2106,7 @@
         <v>14456</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -1796,7 +2120,7 @@
         <v>14776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -1810,7 +2134,7 @@
         <v>15098</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -1824,7 +2148,7 @@
         <v>15532</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -1838,7 +2162,7 @@
         <v>15968</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -1852,7 +2176,7 @@
         <v>16402</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -1866,7 +2190,7 @@
         <v>16838</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -1880,7 +2204,7 @@
         <v>17272</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -1894,7 +2218,7 @@
         <v>17708</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -1908,7 +2232,7 @@
         <v>18144</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -1922,7 +2246,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -1936,7 +2260,7 @@
         <v>19014</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -1950,7 +2274,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -1964,7 +2288,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -1978,7 +2302,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -1992,7 +2316,7 @@
         <v>20754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -2006,7 +2330,7 @@
         <v>21190</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -2020,7 +2344,7 @@
         <v>21626</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -2034,7 +2358,7 @@
         <v>22062</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -2048,7 +2372,7 @@
         <v>22496</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -2062,7 +2386,7 @@
         <v>22932</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -2076,7 +2400,7 @@
         <v>23366</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -2090,7 +2414,7 @@
         <v>23802</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -2104,7 +2428,7 @@
         <v>24236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -2118,7 +2442,7 @@
         <v>24672</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -2132,7 +2456,7 @@
         <v>25106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -2146,7 +2470,7 @@
         <v>25544</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -2160,7 +2484,7 @@
         <v>25978</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -2174,7 +2498,7 @@
         <v>26414</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -2188,7 +2512,7 @@
         <v>26848</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -2202,7 +2526,7 @@
         <v>27284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -2216,7 +2540,7 @@
         <v>27718</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -2230,7 +2554,7 @@
         <v>28154</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -2244,7 +2568,7 @@
         <v>28588</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -2258,7 +2582,7 @@
         <v>29026</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -2272,7 +2596,7 @@
         <v>29460</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -2286,7 +2610,7 @@
         <v>29896</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -2300,7 +2624,7 @@
         <v>30330</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -2314,7 +2638,7 @@
         <v>30766</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -2328,7 +2652,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -2342,7 +2666,7 @@
         <v>31636</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -2356,7 +2680,7 @@
         <v>32070</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -2370,7 +2694,7 @@
         <v>32508</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -2384,7 +2708,7 @@
         <v>32948</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -2398,7 +2722,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -2412,7 +2736,7 @@
         <v>33832</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -2426,7 +2750,7 @@
         <v>34274</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -2440,7 +2764,7 @@
         <v>34714</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -2454,7 +2778,7 @@
         <v>35158</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -2468,7 +2792,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -2482,7 +2806,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -2496,7 +2820,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -2510,7 +2834,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -2524,7 +2848,7 @@
         <v>37364</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -2538,7 +2862,7 @@
         <v>37808</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -2552,7 +2876,7 @@
         <v>38248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -2566,7 +2890,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -2580,7 +2904,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -2594,7 +2918,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -2608,7 +2932,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -2622,7 +2946,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -2636,7 +2960,7 @@
         <v>40898</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -2650,7 +2974,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -2664,7 +2988,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -2678,7 +3002,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -2692,7 +3016,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -2706,7 +3030,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -2720,7 +3044,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -2734,7 +3058,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -2748,7 +3072,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -2762,7 +3086,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -2776,7 +3100,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -2790,7 +3114,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>131</v>
       </c>
@@ -2804,7 +3128,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -2818,7 +3142,7 @@
         <v>46642</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -2832,7 +3156,7 @@
         <v>47082</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -2846,7 +3170,7 @@
         <v>47526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -2860,7 +3184,7 @@
         <v>47966</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -2874,7 +3198,7 @@
         <v>48408</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -2888,7 +3212,7 @@
         <v>48850</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -2902,7 +3226,7 @@
         <v>49292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -2916,7 +3240,7 @@
         <v>49734</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -2930,7 +3254,7 @@
         <v>50176</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -2944,7 +3268,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -2958,7 +3282,7 @@
         <v>51060</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -2972,7 +3296,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -2986,7 +3310,7 @@
         <v>51942</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -3000,7 +3324,7 @@
         <v>52384</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -3014,7 +3338,7 @@
         <v>52826</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -3028,7 +3352,7 @@
         <v>53266</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -3042,7 +3366,7 @@
         <v>53710</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -3056,7 +3380,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -3070,7 +3394,7 @@
         <v>54594</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>151</v>
       </c>
@@ -3084,7 +3408,7 @@
         <v>55034</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>152</v>
       </c>
@@ -3098,7 +3422,7 @@
         <v>55476</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -3112,7 +3436,7 @@
         <v>55918</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>154</v>
       </c>
@@ -3126,7 +3450,7 @@
         <v>56360</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>155</v>
       </c>
@@ -3140,7 +3464,7 @@
         <v>56800</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>156</v>
       </c>
@@ -3154,7 +3478,7 @@
         <v>57244</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -3168,7 +3492,7 @@
         <v>57684</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>158</v>
       </c>
@@ -3182,7 +3506,7 @@
         <v>58126</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>159</v>
       </c>
@@ -3196,7 +3520,7 @@
         <v>58568</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>160</v>
       </c>
@@ -3210,7 +3534,7 @@
         <v>59010</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>161</v>
       </c>
@@ -3224,7 +3548,7 @@
         <v>59450</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>162</v>
       </c>
@@ -3238,7 +3562,7 @@
         <v>59894</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>163</v>
       </c>
@@ -3252,7 +3576,7 @@
         <v>60334</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>164</v>
       </c>
@@ -3266,7 +3590,7 @@
         <v>60778</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>165</v>
       </c>
@@ -3280,7 +3604,7 @@
         <v>61218</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>166</v>
       </c>
@@ -3294,7 +3618,7 @@
         <v>61660</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>167</v>
       </c>
@@ -3308,7 +3632,7 @@
         <v>62102</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>168</v>
       </c>
@@ -3322,7 +3646,7 @@
         <v>62544</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>169</v>
       </c>
@@ -3336,7 +3660,7 @@
         <v>62984</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>170</v>
       </c>
@@ -3350,7 +3674,7 @@
         <v>63428</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>171</v>
       </c>
@@ -3364,7 +3688,7 @@
         <v>63868</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>172</v>
       </c>
@@ -3378,7 +3702,7 @@
         <v>64310</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>173</v>
       </c>
@@ -3392,7 +3716,7 @@
         <v>64752</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>174</v>
       </c>
@@ -3406,7 +3730,7 @@
         <v>65194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>175</v>
       </c>
@@ -3420,7 +3744,7 @@
         <v>65636</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>176</v>
       </c>
@@ -3434,7 +3758,7 @@
         <v>66078</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>177</v>
       </c>
@@ -3448,7 +3772,7 @@
         <v>66518</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>178</v>
       </c>
@@ -3462,7 +3786,7 @@
         <v>66962</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>179</v>
       </c>
@@ -3476,7 +3800,7 @@
         <v>67402</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>180</v>
       </c>
@@ -3490,7 +3814,7 @@
         <v>67844</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>181</v>
       </c>
@@ -3504,7 +3828,7 @@
         <v>68286</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>182</v>
       </c>
@@ -3518,7 +3842,7 @@
         <v>68728</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>183</v>
       </c>
@@ -3532,7 +3856,7 @@
         <v>69168</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>184</v>
       </c>
@@ -3546,7 +3870,7 @@
         <v>69612</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>185</v>
       </c>
@@ -3560,7 +3884,7 @@
         <v>70052</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>186</v>
       </c>
@@ -3574,7 +3898,7 @@
         <v>70494</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>187</v>
       </c>
@@ -3588,7 +3912,7 @@
         <v>70936</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>188</v>
       </c>
@@ -3602,7 +3926,7 @@
         <v>71378</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>189</v>
       </c>
@@ -3616,7 +3940,7 @@
         <v>71820</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>190</v>
       </c>
@@ -3630,7 +3954,7 @@
         <v>72262</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>191</v>
       </c>
@@ -3644,7 +3968,7 @@
         <v>72702</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>192</v>
       </c>
@@ -3658,7 +3982,7 @@
         <v>73146</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>193</v>
       </c>
@@ -3672,7 +3996,7 @@
         <v>73586</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>194</v>
       </c>
@@ -3686,7 +4010,7 @@
         <v>74028</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>195</v>
       </c>
@@ -3700,7 +4024,7 @@
         <v>74470</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>196</v>
       </c>
@@ -3714,7 +4038,7 @@
         <v>74912</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>197</v>
       </c>
@@ -3728,7 +4052,7 @@
         <v>75352</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>198</v>
       </c>
@@ -3742,7 +4066,7 @@
         <v>75796</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>199</v>
       </c>
@@ -3756,7 +4080,7 @@
         <v>76236</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>200</v>
       </c>
@@ -3770,7 +4094,7 @@
         <v>76680</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>201</v>
       </c>
@@ -3784,7 +4108,7 @@
         <v>77164</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>202</v>
       </c>
@@ -3798,7 +4122,7 @@
         <v>77652</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>203</v>
       </c>
@@ -3812,7 +4136,7 @@
         <v>78136</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>204</v>
       </c>
@@ -3826,7 +4150,7 @@
         <v>78624</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>205</v>
       </c>
@@ -3840,7 +4164,7 @@
         <v>79108</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>206</v>
       </c>
@@ -3854,7 +4178,7 @@
         <v>79596</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>207</v>
       </c>
@@ -3868,7 +4192,7 @@
         <v>80080</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>208</v>
       </c>
@@ -3882,7 +4206,7 @@
         <v>80568</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>209</v>
       </c>
@@ -3896,7 +4220,7 @@
         <v>81052</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>210</v>
       </c>
@@ -3910,7 +4234,7 @@
         <v>81540</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>211</v>
       </c>
@@ -3924,7 +4248,7 @@
         <v>82024</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>212</v>
       </c>
@@ -3938,7 +4262,7 @@
         <v>82512</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>213</v>
       </c>
@@ -3952,7 +4276,7 @@
         <v>82996</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>214</v>
       </c>
@@ -3966,7 +4290,7 @@
         <v>83484</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>215</v>
       </c>
@@ -3980,7 +4304,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>216</v>
       </c>
@@ -3994,7 +4318,7 @@
         <v>84456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>217</v>
       </c>
@@ -4008,7 +4332,7 @@
         <v>84940</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>218</v>
       </c>
@@ -4022,7 +4346,7 @@
         <v>85428</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>219</v>
       </c>
@@ -4036,7 +4360,7 @@
         <v>85912</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>220</v>
       </c>
@@ -4050,7 +4374,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>230</v>
       </c>
@@ -4064,7 +4388,7 @@
         <v>91260</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -4078,7 +4402,7 @@
         <v>96120</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>250</v>
       </c>
@@ -4092,7 +4416,7 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>260</v>
       </c>
@@ -4106,7 +4430,7 @@
         <v>105840</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>270</v>
       </c>
@@ -4120,7 +4444,7 @@
         <v>110700</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>280</v>
       </c>
@@ -4134,7 +4458,7 @@
         <v>115560</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>290</v>
       </c>
@@ -4148,7 +4472,7 @@
         <v>120420</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>300</v>
       </c>
@@ -4162,7 +4486,7 @@
         <v>125280</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>350</v>
       </c>
@@ -4176,7 +4500,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>400</v>
       </c>
@@ -4190,7 +4514,7 @@
         <v>173880</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>450</v>
       </c>
@@ -4204,7 +4528,7 @@
         <v>199098</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>500</v>
       </c>
@@ -4218,7 +4542,7 @@
         <v>224316</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>1000</v>
       </c>
@@ -4232,7 +4556,7 @@
         <v>476496</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>2000</v>
       </c>
@@ -4246,7 +4570,7 @@
         <v>993816</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>5000</v>
       </c>
@@ -4260,7 +4584,7 @@
         <v>2581416</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>10000</v>
       </c>
@@ -4285,420 +4609,168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06F2E52-62BF-445C-A5B1-632787129361}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05843B7C-FD95-4073-A4A2-C0533A1CF6C9}">
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <f>SUM(D10:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E16" s="17">
         <f>SUM(E10:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2">
+      <c r="F16" s="18">
+        <f>SUM(F10:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="23">
         <v>42000</v>
       </c>
-      <c r="D20" s="1">
-        <f>E16</f>
+      <c r="E22" s="24">
+        <f>F16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <f>C20-D20</f>
+      <c r="F22" s="18">
+        <f>D22-E22</f>
         <v>42000</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="6">
-        <f>E20</f>
-        <v>42000</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F$22&gt;=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$F$22&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\GitHub\Repositories\Projects\vscode\water_cost_calculate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\VScode\Python\water_rate_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5609A770-C032-4DC2-B5B7-9EF1F4055F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EE419-B7F9-47B9-9CC4-2246EEEEE48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
   </bookViews>
   <sheets>
     <sheet name="H30年度" sheetId="2" r:id="rId1"/>
     <sheet name="水道料金マスタ" sheetId="1" r:id="rId2"/>
-    <sheet name="印刷テンプレート" sheetId="4" r:id="rId3"/>
+    <sheet name="印刷テンプレート" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">印刷テンプレート!$A$1:$G$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>水道料金・下水道使用料早見表（２か月分）</t>
   </si>
@@ -51,6 +54,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>水道料金明細書</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>メイサイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>号</t>
     <rPh sb="0" eb="1">
       <t>ゴウ</t>
@@ -58,9 +74,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>H30年度</t>
+    <rPh sb="3" eb="5">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4~5月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6~7月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8~9月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10~11月</t>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12~1月</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2~3月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用水量(㎥)</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道料金(円)</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -88,6 +176,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>年間使用水道料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>差額</t>
     <rPh sb="0" eb="2">
       <t>サガク</t>
@@ -104,6 +211,16 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>クミアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,139 +255,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>　　　　水道使用量・水道料金明細</t>
-    <rPh sb="4" eb="6">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>メイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R元年度</t>
-    <rPh sb="1" eb="2">
-      <t>ガン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用水量（㎥）</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水道料金（円）</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4～5月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6～7月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8～9月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10～11月</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12～1月</t>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2～3月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年間使用水道料金額</t>
-    <rPh sb="0" eb="2">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>スイドウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>請求額</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,68 +276,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,7 +285,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -380,197 +308,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,94 +327,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -984,13 +660,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
@@ -1033,12 +709,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>143</v>
@@ -1080,12 +756,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>726</v>
@@ -1127,12 +803,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>565</v>
@@ -1174,12 +850,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>626</v>
@@ -1236,23 +912,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1294,7 +970,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1308,7 +984,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1322,7 +998,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1336,7 +1012,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1350,7 +1026,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1364,7 +1040,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1378,7 +1054,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1392,7 +1068,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1406,7 +1082,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1420,7 +1096,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1434,7 +1110,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1448,7 +1124,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1462,7 +1138,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1476,7 +1152,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1490,7 +1166,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1504,7 +1180,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1518,7 +1194,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1532,7 +1208,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1546,7 +1222,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1560,7 +1236,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1574,7 +1250,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1588,7 +1264,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1602,7 +1278,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -1616,7 +1292,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -1630,7 +1306,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -1644,7 +1320,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1658,7 +1334,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -1672,7 +1348,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -1686,7 +1362,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -1700,7 +1376,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -1714,7 +1390,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -1728,7 +1404,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -1742,7 +1418,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -1756,7 +1432,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -1770,7 +1446,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -1784,7 +1460,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -1798,7 +1474,7 @@
         <v>7786</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -1812,7 +1488,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -1826,7 +1502,7 @@
         <v>8234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -1840,7 +1516,7 @@
         <v>8458</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -1854,7 +1530,7 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -1868,7 +1544,7 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -1882,7 +1558,7 @@
         <v>9322</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -1896,7 +1572,7 @@
         <v>9644</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -1910,7 +1586,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -1924,7 +1600,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -1938,7 +1614,7 @@
         <v>10606</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -1952,7 +1628,7 @@
         <v>10926</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -1966,7 +1642,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -1980,7 +1656,7 @@
         <v>11568</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -1994,7 +1670,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -2008,7 +1684,7 @@
         <v>12210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -2022,7 +1698,7 @@
         <v>12530</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -2036,7 +1712,7 @@
         <v>12852</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -2050,7 +1726,7 @@
         <v>13172</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -2064,7 +1740,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -2078,7 +1754,7 @@
         <v>13814</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -2092,7 +1768,7 @@
         <v>14134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -2106,7 +1782,7 @@
         <v>14456</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -2120,7 +1796,7 @@
         <v>14776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -2134,7 +1810,7 @@
         <v>15098</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -2148,7 +1824,7 @@
         <v>15532</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -2162,7 +1838,7 @@
         <v>15968</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -2176,7 +1852,7 @@
         <v>16402</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -2190,7 +1866,7 @@
         <v>16838</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -2204,7 +1880,7 @@
         <v>17272</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -2218,7 +1894,7 @@
         <v>17708</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -2232,7 +1908,7 @@
         <v>18144</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -2246,7 +1922,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -2260,7 +1936,7 @@
         <v>19014</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -2274,7 +1950,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -2288,7 +1964,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -2302,7 +1978,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -2316,7 +1992,7 @@
         <v>20754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -2330,7 +2006,7 @@
         <v>21190</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -2344,7 +2020,7 @@
         <v>21626</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -2358,7 +2034,7 @@
         <v>22062</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -2372,7 +2048,7 @@
         <v>22496</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -2386,7 +2062,7 @@
         <v>22932</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -2400,7 +2076,7 @@
         <v>23366</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -2414,7 +2090,7 @@
         <v>23802</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -2428,7 +2104,7 @@
         <v>24236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -2442,7 +2118,7 @@
         <v>24672</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -2456,7 +2132,7 @@
         <v>25106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -2470,7 +2146,7 @@
         <v>25544</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -2484,7 +2160,7 @@
         <v>25978</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -2498,7 +2174,7 @@
         <v>26414</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -2512,7 +2188,7 @@
         <v>26848</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -2526,7 +2202,7 @@
         <v>27284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -2540,7 +2216,7 @@
         <v>27718</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -2554,7 +2230,7 @@
         <v>28154</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -2568,7 +2244,7 @@
         <v>28588</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -2582,7 +2258,7 @@
         <v>29026</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -2596,7 +2272,7 @@
         <v>29460</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -2610,7 +2286,7 @@
         <v>29896</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -2624,7 +2300,7 @@
         <v>30330</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -2638,7 +2314,7 @@
         <v>30766</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -2652,7 +2328,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -2666,7 +2342,7 @@
         <v>31636</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -2680,7 +2356,7 @@
         <v>32070</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -2694,7 +2370,7 @@
         <v>32508</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -2708,7 +2384,7 @@
         <v>32948</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -2722,7 +2398,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -2736,7 +2412,7 @@
         <v>33832</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -2750,7 +2426,7 @@
         <v>34274</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -2764,7 +2440,7 @@
         <v>34714</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -2778,7 +2454,7 @@
         <v>35158</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -2792,7 +2468,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -2806,7 +2482,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -2820,7 +2496,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -2834,7 +2510,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -2848,7 +2524,7 @@
         <v>37364</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -2862,7 +2538,7 @@
         <v>37808</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -2876,7 +2552,7 @@
         <v>38248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -2890,7 +2566,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -2904,7 +2580,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -2918,7 +2594,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -2932,7 +2608,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -2946,7 +2622,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -2960,7 +2636,7 @@
         <v>40898</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -2974,7 +2650,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -2988,7 +2664,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -3002,7 +2678,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -3016,7 +2692,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -3030,7 +2706,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -3044,7 +2720,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -3058,7 +2734,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -3072,7 +2748,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -3086,7 +2762,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -3100,7 +2776,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -3114,7 +2790,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>131</v>
       </c>
@@ -3128,7 +2804,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -3142,7 +2818,7 @@
         <v>46642</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -3156,7 +2832,7 @@
         <v>47082</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -3170,7 +2846,7 @@
         <v>47526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -3184,7 +2860,7 @@
         <v>47966</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -3198,7 +2874,7 @@
         <v>48408</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -3212,7 +2888,7 @@
         <v>48850</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -3226,7 +2902,7 @@
         <v>49292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -3240,7 +2916,7 @@
         <v>49734</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -3254,7 +2930,7 @@
         <v>50176</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -3268,7 +2944,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -3282,7 +2958,7 @@
         <v>51060</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -3296,7 +2972,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -3310,7 +2986,7 @@
         <v>51942</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -3324,7 +3000,7 @@
         <v>52384</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -3338,7 +3014,7 @@
         <v>52826</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -3352,7 +3028,7 @@
         <v>53266</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -3366,7 +3042,7 @@
         <v>53710</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -3380,7 +3056,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -3394,7 +3070,7 @@
         <v>54594</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>151</v>
       </c>
@@ -3408,7 +3084,7 @@
         <v>55034</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>152</v>
       </c>
@@ -3422,7 +3098,7 @@
         <v>55476</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -3436,7 +3112,7 @@
         <v>55918</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>154</v>
       </c>
@@ -3450,7 +3126,7 @@
         <v>56360</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>155</v>
       </c>
@@ -3464,7 +3140,7 @@
         <v>56800</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>156</v>
       </c>
@@ -3478,7 +3154,7 @@
         <v>57244</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -3492,7 +3168,7 @@
         <v>57684</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>158</v>
       </c>
@@ -3506,7 +3182,7 @@
         <v>58126</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>159</v>
       </c>
@@ -3520,7 +3196,7 @@
         <v>58568</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>160</v>
       </c>
@@ -3534,7 +3210,7 @@
         <v>59010</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>161</v>
       </c>
@@ -3548,7 +3224,7 @@
         <v>59450</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>162</v>
       </c>
@@ -3562,7 +3238,7 @@
         <v>59894</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>163</v>
       </c>
@@ -3576,7 +3252,7 @@
         <v>60334</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>164</v>
       </c>
@@ -3590,7 +3266,7 @@
         <v>60778</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>165</v>
       </c>
@@ -3604,7 +3280,7 @@
         <v>61218</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>166</v>
       </c>
@@ -3618,7 +3294,7 @@
         <v>61660</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>167</v>
       </c>
@@ -3632,7 +3308,7 @@
         <v>62102</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>168</v>
       </c>
@@ -3646,7 +3322,7 @@
         <v>62544</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>169</v>
       </c>
@@ -3660,7 +3336,7 @@
         <v>62984</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>170</v>
       </c>
@@ -3674,7 +3350,7 @@
         <v>63428</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>171</v>
       </c>
@@ -3688,7 +3364,7 @@
         <v>63868</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>172</v>
       </c>
@@ -3702,7 +3378,7 @@
         <v>64310</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>173</v>
       </c>
@@ -3716,7 +3392,7 @@
         <v>64752</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>174</v>
       </c>
@@ -3730,7 +3406,7 @@
         <v>65194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>175</v>
       </c>
@@ -3744,7 +3420,7 @@
         <v>65636</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>176</v>
       </c>
@@ -3758,7 +3434,7 @@
         <v>66078</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>177</v>
       </c>
@@ -3772,7 +3448,7 @@
         <v>66518</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>178</v>
       </c>
@@ -3786,7 +3462,7 @@
         <v>66962</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>179</v>
       </c>
@@ -3800,7 +3476,7 @@
         <v>67402</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>180</v>
       </c>
@@ -3814,7 +3490,7 @@
         <v>67844</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>181</v>
       </c>
@@ -3828,7 +3504,7 @@
         <v>68286</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>182</v>
       </c>
@@ -3842,7 +3518,7 @@
         <v>68728</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>183</v>
       </c>
@@ -3856,7 +3532,7 @@
         <v>69168</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>184</v>
       </c>
@@ -3870,7 +3546,7 @@
         <v>69612</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>185</v>
       </c>
@@ -3884,7 +3560,7 @@
         <v>70052</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>186</v>
       </c>
@@ -3898,7 +3574,7 @@
         <v>70494</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>187</v>
       </c>
@@ -3912,7 +3588,7 @@
         <v>70936</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>188</v>
       </c>
@@ -3926,7 +3602,7 @@
         <v>71378</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>189</v>
       </c>
@@ -3940,7 +3616,7 @@
         <v>71820</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>190</v>
       </c>
@@ -3954,7 +3630,7 @@
         <v>72262</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>191</v>
       </c>
@@ -3968,7 +3644,7 @@
         <v>72702</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>192</v>
       </c>
@@ -3982,7 +3658,7 @@
         <v>73146</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>193</v>
       </c>
@@ -3996,7 +3672,7 @@
         <v>73586</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>194</v>
       </c>
@@ -4010,7 +3686,7 @@
         <v>74028</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>195</v>
       </c>
@@ -4024,7 +3700,7 @@
         <v>74470</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>196</v>
       </c>
@@ -4038,7 +3714,7 @@
         <v>74912</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>197</v>
       </c>
@@ -4052,7 +3728,7 @@
         <v>75352</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>198</v>
       </c>
@@ -4066,7 +3742,7 @@
         <v>75796</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>199</v>
       </c>
@@ -4080,7 +3756,7 @@
         <v>76236</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>200</v>
       </c>
@@ -4094,7 +3770,7 @@
         <v>76680</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>201</v>
       </c>
@@ -4108,7 +3784,7 @@
         <v>77164</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>202</v>
       </c>
@@ -4122,7 +3798,7 @@
         <v>77652</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>203</v>
       </c>
@@ -4136,7 +3812,7 @@
         <v>78136</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>204</v>
       </c>
@@ -4150,7 +3826,7 @@
         <v>78624</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>205</v>
       </c>
@@ -4164,7 +3840,7 @@
         <v>79108</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>206</v>
       </c>
@@ -4178,7 +3854,7 @@
         <v>79596</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>207</v>
       </c>
@@ -4192,7 +3868,7 @@
         <v>80080</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>208</v>
       </c>
@@ -4206,7 +3882,7 @@
         <v>80568</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>209</v>
       </c>
@@ -4220,7 +3896,7 @@
         <v>81052</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>210</v>
       </c>
@@ -4234,7 +3910,7 @@
         <v>81540</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>211</v>
       </c>
@@ -4248,7 +3924,7 @@
         <v>82024</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>212</v>
       </c>
@@ -4262,7 +3938,7 @@
         <v>82512</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>213</v>
       </c>
@@ -4276,7 +3952,7 @@
         <v>82996</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>214</v>
       </c>
@@ -4290,7 +3966,7 @@
         <v>83484</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>215</v>
       </c>
@@ -4304,7 +3980,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>216</v>
       </c>
@@ -4318,7 +3994,7 @@
         <v>84456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>217</v>
       </c>
@@ -4332,7 +4008,7 @@
         <v>84940</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>218</v>
       </c>
@@ -4346,7 +4022,7 @@
         <v>85428</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>219</v>
       </c>
@@ -4360,7 +4036,7 @@
         <v>85912</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>220</v>
       </c>
@@ -4374,7 +4050,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>230</v>
       </c>
@@ -4388,7 +4064,7 @@
         <v>91260</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -4402,7 +4078,7 @@
         <v>96120</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>250</v>
       </c>
@@ -4416,7 +4092,7 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>260</v>
       </c>
@@ -4430,7 +4106,7 @@
         <v>105840</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>270</v>
       </c>
@@ -4444,7 +4120,7 @@
         <v>110700</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>280</v>
       </c>
@@ -4458,7 +4134,7 @@
         <v>115560</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>290</v>
       </c>
@@ -4472,7 +4148,7 @@
         <v>120420</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>300</v>
       </c>
@@ -4486,7 +4162,7 @@
         <v>125280</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>350</v>
       </c>
@@ -4500,7 +4176,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>400</v>
       </c>
@@ -4514,7 +4190,7 @@
         <v>173880</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>450</v>
       </c>
@@ -4528,7 +4204,7 @@
         <v>199098</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>500</v>
       </c>
@@ -4542,7 +4218,7 @@
         <v>224316</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="2">
         <v>1000</v>
       </c>
@@ -4556,7 +4232,7 @@
         <v>476496</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="2">
         <v>2000</v>
       </c>
@@ -4570,7 +4246,7 @@
         <v>993816</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="2">
         <v>5000</v>
       </c>
@@ -4584,7 +4260,7 @@
         <v>2581416</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="2">
         <v>10000</v>
       </c>
@@ -4609,168 +4285,420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05843B7C-FD95-4073-A4A2-C0533A1CF6C9}">
-  <dimension ref="A2:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06F2E52-62BF-445C-A5B1-632787129361}">
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="6" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D10:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <f>SUM(E10:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="18">
-        <f>SUM(F10:F15)</f>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2">
+        <v>42000</v>
+      </c>
+      <c r="D20" s="1">
+        <f>E16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="23">
+      <c r="E20" s="2">
+        <f>C20-D20</f>
         <v>42000</v>
       </c>
-      <c r="E22" s="24">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <f>D22-E22</f>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="6">
+        <f>E20</f>
         <v>42000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F$22&gt;=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F$22&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\VScode\Python\water_rate_calculate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\GitHub\Repositories\Projects\vscode\water_cost_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446EE419-B7F9-47B9-9CC4-2246EEEEE48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF81EA2-349A-482B-8E93-E85F89C4F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
   </bookViews>
   <sheets>
     <sheet name="H30年度" sheetId="2" r:id="rId1"/>
     <sheet name="水道料金マスタ" sheetId="1" r:id="rId2"/>
-    <sheet name="印刷テンプレート" sheetId="3" r:id="rId3"/>
+    <sheet name="印刷テンプレート" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">印刷テンプレート!$A$1:$G$28</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>水道料金・下水道使用料早見表（２か月分）</t>
   </si>
@@ -54,19 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>水道料金明細書</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>メイサイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>号</t>
     <rPh sb="0" eb="1">
       <t>ゴウ</t>
@@ -74,81 +58,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>H30年度</t>
-    <rPh sb="3" eb="5">
-      <t>ネンド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4~5月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6~7月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8~9月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10~11月</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12~1月</t>
-    <rPh sb="4" eb="5">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2~3月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用水量(㎥)</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水道料金(円)</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -176,51 +88,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年間使用水道料金額</t>
-    <rPh sb="0" eb="2">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>差額</t>
     <rPh sb="0" eb="2">
       <t>サガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成和ビル管理組合</t>
-    <rPh sb="0" eb="2">
-      <t>セイワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>クミアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返金額</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -255,12 +125,149 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　　　　水道使用量・水道料金明細</t>
+    <rPh sb="4" eb="6">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R元年度</t>
+    <rPh sb="1" eb="2">
+      <t>ガン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用水量（㎥）</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道料金（円）</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4～5月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6～7月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8～9月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10～11月</t>
+    <rPh sb="5" eb="6">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12～1月</t>
+    <rPh sb="4" eb="5">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2～3月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間使用水道料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイドウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求額</t>
+    <rPh sb="0" eb="2">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○管理組合</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クミアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +283,68 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -308,13 +377,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,26 +580,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -660,13 +981,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
@@ -709,12 +1030,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>143</v>
@@ -756,12 +1077,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>726</v>
@@ -803,12 +1124,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>565</v>
@@ -850,12 +1171,12 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>626</v>
@@ -912,23 +1233,23 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -942,7 +1263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -956,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -970,7 +1291,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -984,7 +1305,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -998,7 +1319,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1012,7 +1333,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1026,7 +1347,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1040,7 +1361,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1054,7 +1375,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -1068,7 +1389,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1082,7 +1403,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1096,7 +1417,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -1110,7 +1431,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1124,7 +1445,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1138,7 +1459,7 @@
         <v>3466</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -1152,7 +1473,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -1166,7 +1487,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -1180,7 +1501,7 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -1194,7 +1515,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -1208,7 +1529,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -1222,7 +1543,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -1236,7 +1557,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -1250,7 +1571,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -1264,7 +1585,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -1278,7 +1599,7 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -1292,7 +1613,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -1306,7 +1627,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -1320,7 +1641,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -1334,7 +1655,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -1348,7 +1669,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -1362,7 +1683,7 @@
         <v>5998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -1376,7 +1697,7 @@
         <v>6222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -1390,7 +1711,7 @@
         <v>6446</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -1404,7 +1725,7 @@
         <v>6668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -1418,7 +1739,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -1432,7 +1753,7 @@
         <v>7116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -1446,7 +1767,7 @@
         <v>7340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -1460,7 +1781,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -1474,7 +1795,7 @@
         <v>7786</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -1488,7 +1809,7 @@
         <v>8010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -1502,7 +1823,7 @@
         <v>8234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -1516,7 +1837,7 @@
         <v>8458</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -1530,7 +1851,7 @@
         <v>8682</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -1544,7 +1865,7 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -1558,7 +1879,7 @@
         <v>9322</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -1572,7 +1893,7 @@
         <v>9644</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -1586,7 +1907,7 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -1600,7 +1921,7 @@
         <v>10286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -1614,7 +1935,7 @@
         <v>10606</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -1628,7 +1949,7 @@
         <v>10926</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -1642,7 +1963,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -1656,7 +1977,7 @@
         <v>11568</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -1670,7 +1991,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -1684,7 +2005,7 @@
         <v>12210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -1698,7 +2019,7 @@
         <v>12530</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -1712,7 +2033,7 @@
         <v>12852</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -1726,7 +2047,7 @@
         <v>13172</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -1740,7 +2061,7 @@
         <v>13494</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -1754,7 +2075,7 @@
         <v>13814</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -1768,7 +2089,7 @@
         <v>14134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -1782,7 +2103,7 @@
         <v>14456</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -1796,7 +2117,7 @@
         <v>14776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -1810,7 +2131,7 @@
         <v>15098</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -1824,7 +2145,7 @@
         <v>15532</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -1838,7 +2159,7 @@
         <v>15968</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -1852,7 +2173,7 @@
         <v>16402</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -1866,7 +2187,7 @@
         <v>16838</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -1880,7 +2201,7 @@
         <v>17272</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -1894,7 +2215,7 @@
         <v>17708</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -1908,7 +2229,7 @@
         <v>18144</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -1922,7 +2243,7 @@
         <v>18580</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -1936,7 +2257,7 @@
         <v>19014</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -1950,7 +2271,7 @@
         <v>19450</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -1964,7 +2285,7 @@
         <v>19884</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -1978,7 +2299,7 @@
         <v>20320</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -1992,7 +2313,7 @@
         <v>20754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -2006,7 +2327,7 @@
         <v>21190</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -2020,7 +2341,7 @@
         <v>21626</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -2034,7 +2355,7 @@
         <v>22062</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -2048,7 +2369,7 @@
         <v>22496</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -2062,7 +2383,7 @@
         <v>22932</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -2076,7 +2397,7 @@
         <v>23366</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -2090,7 +2411,7 @@
         <v>23802</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -2104,7 +2425,7 @@
         <v>24236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -2118,7 +2439,7 @@
         <v>24672</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -2132,7 +2453,7 @@
         <v>25106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -2146,7 +2467,7 @@
         <v>25544</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -2160,7 +2481,7 @@
         <v>25978</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -2174,7 +2495,7 @@
         <v>26414</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -2188,7 +2509,7 @@
         <v>26848</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -2202,7 +2523,7 @@
         <v>27284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -2216,7 +2537,7 @@
         <v>27718</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -2230,7 +2551,7 @@
         <v>28154</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -2244,7 +2565,7 @@
         <v>28588</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -2258,7 +2579,7 @@
         <v>29026</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -2272,7 +2593,7 @@
         <v>29460</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -2286,7 +2607,7 @@
         <v>29896</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -2300,7 +2621,7 @@
         <v>30330</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -2314,7 +2635,7 @@
         <v>30766</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -2328,7 +2649,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -2342,7 +2663,7 @@
         <v>31636</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -2356,7 +2677,7 @@
         <v>32070</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -2370,7 +2691,7 @@
         <v>32508</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -2384,7 +2705,7 @@
         <v>32948</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -2398,7 +2719,7 @@
         <v>33390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -2412,7 +2733,7 @@
         <v>33832</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -2426,7 +2747,7 @@
         <v>34274</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -2440,7 +2761,7 @@
         <v>34714</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -2454,7 +2775,7 @@
         <v>35158</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -2468,7 +2789,7 @@
         <v>35598</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -2482,7 +2803,7 @@
         <v>36040</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -2496,7 +2817,7 @@
         <v>36482</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -2510,7 +2831,7 @@
         <v>36924</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -2524,7 +2845,7 @@
         <v>37364</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -2538,7 +2859,7 @@
         <v>37808</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -2552,7 +2873,7 @@
         <v>38248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -2566,7 +2887,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -2580,7 +2901,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -2594,7 +2915,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -2608,7 +2929,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -2622,7 +2943,7 @@
         <v>40458</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -2636,7 +2957,7 @@
         <v>40898</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -2650,7 +2971,7 @@
         <v>41342</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -2664,7 +2985,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -2678,7 +2999,7 @@
         <v>42224</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -2692,7 +3013,7 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -2706,7 +3027,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -2720,7 +3041,7 @@
         <v>43550</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -2734,7 +3055,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -2748,7 +3069,7 @@
         <v>44432</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -2762,7 +3083,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -2776,7 +3097,7 @@
         <v>45316</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -2790,7 +3111,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>131</v>
       </c>
@@ -2804,7 +3125,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -2818,7 +3139,7 @@
         <v>46642</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -2832,7 +3153,7 @@
         <v>47082</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -2846,7 +3167,7 @@
         <v>47526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -2860,7 +3181,7 @@
         <v>47966</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -2874,7 +3195,7 @@
         <v>48408</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -2888,7 +3209,7 @@
         <v>48850</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -2902,7 +3223,7 @@
         <v>49292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -2916,7 +3237,7 @@
         <v>49734</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -2930,7 +3251,7 @@
         <v>50176</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -2944,7 +3265,7 @@
         <v>50616</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -2958,7 +3279,7 @@
         <v>51060</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -2972,7 +3293,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -2986,7 +3307,7 @@
         <v>51942</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -3000,7 +3321,7 @@
         <v>52384</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -3014,7 +3335,7 @@
         <v>52826</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -3028,7 +3349,7 @@
         <v>53266</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -3042,7 +3363,7 @@
         <v>53710</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -3056,7 +3377,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -3070,7 +3391,7 @@
         <v>54594</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>151</v>
       </c>
@@ -3084,7 +3405,7 @@
         <v>55034</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>152</v>
       </c>
@@ -3098,7 +3419,7 @@
         <v>55476</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -3112,7 +3433,7 @@
         <v>55918</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>154</v>
       </c>
@@ -3126,7 +3447,7 @@
         <v>56360</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>155</v>
       </c>
@@ -3140,7 +3461,7 @@
         <v>56800</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>156</v>
       </c>
@@ -3154,7 +3475,7 @@
         <v>57244</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -3168,7 +3489,7 @@
         <v>57684</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>158</v>
       </c>
@@ -3182,7 +3503,7 @@
         <v>58126</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>159</v>
       </c>
@@ -3196,7 +3517,7 @@
         <v>58568</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>160</v>
       </c>
@@ -3210,7 +3531,7 @@
         <v>59010</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>161</v>
       </c>
@@ -3224,7 +3545,7 @@
         <v>59450</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>162</v>
       </c>
@@ -3238,7 +3559,7 @@
         <v>59894</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>163</v>
       </c>
@@ -3252,7 +3573,7 @@
         <v>60334</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>164</v>
       </c>
@@ -3266,7 +3587,7 @@
         <v>60778</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>165</v>
       </c>
@@ -3280,7 +3601,7 @@
         <v>61218</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>166</v>
       </c>
@@ -3294,7 +3615,7 @@
         <v>61660</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>167</v>
       </c>
@@ -3308,7 +3629,7 @@
         <v>62102</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>168</v>
       </c>
@@ -3322,7 +3643,7 @@
         <v>62544</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>169</v>
       </c>
@@ -3336,7 +3657,7 @@
         <v>62984</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>170</v>
       </c>
@@ -3350,7 +3671,7 @@
         <v>63428</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>171</v>
       </c>
@@ -3364,7 +3685,7 @@
         <v>63868</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>172</v>
       </c>
@@ -3378,7 +3699,7 @@
         <v>64310</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>173</v>
       </c>
@@ -3392,7 +3713,7 @@
         <v>64752</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>174</v>
       </c>
@@ -3406,7 +3727,7 @@
         <v>65194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>175</v>
       </c>
@@ -3420,7 +3741,7 @@
         <v>65636</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>176</v>
       </c>
@@ -3434,7 +3755,7 @@
         <v>66078</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>177</v>
       </c>
@@ -3448,7 +3769,7 @@
         <v>66518</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>178</v>
       </c>
@@ -3462,7 +3783,7 @@
         <v>66962</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>179</v>
       </c>
@@ -3476,7 +3797,7 @@
         <v>67402</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>180</v>
       </c>
@@ -3490,7 +3811,7 @@
         <v>67844</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>181</v>
       </c>
@@ -3504,7 +3825,7 @@
         <v>68286</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>182</v>
       </c>
@@ -3518,7 +3839,7 @@
         <v>68728</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>183</v>
       </c>
@@ -3532,7 +3853,7 @@
         <v>69168</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>184</v>
       </c>
@@ -3546,7 +3867,7 @@
         <v>69612</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>185</v>
       </c>
@@ -3560,7 +3881,7 @@
         <v>70052</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>186</v>
       </c>
@@ -3574,7 +3895,7 @@
         <v>70494</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>187</v>
       </c>
@@ -3588,7 +3909,7 @@
         <v>70936</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>188</v>
       </c>
@@ -3602,7 +3923,7 @@
         <v>71378</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>189</v>
       </c>
@@ -3616,7 +3937,7 @@
         <v>71820</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>190</v>
       </c>
@@ -3630,7 +3951,7 @@
         <v>72262</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>191</v>
       </c>
@@ -3644,7 +3965,7 @@
         <v>72702</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>192</v>
       </c>
@@ -3658,7 +3979,7 @@
         <v>73146</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>193</v>
       </c>
@@ -3672,7 +3993,7 @@
         <v>73586</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>194</v>
       </c>
@@ -3686,7 +4007,7 @@
         <v>74028</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>195</v>
       </c>
@@ -3700,7 +4021,7 @@
         <v>74470</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>196</v>
       </c>
@@ -3714,7 +4035,7 @@
         <v>74912</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>197</v>
       </c>
@@ -3728,7 +4049,7 @@
         <v>75352</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>198</v>
       </c>
@@ -3742,7 +4063,7 @@
         <v>75796</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>199</v>
       </c>
@@ -3756,7 +4077,7 @@
         <v>76236</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>200</v>
       </c>
@@ -3770,7 +4091,7 @@
         <v>76680</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>201</v>
       </c>
@@ -3784,7 +4105,7 @@
         <v>77164</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>202</v>
       </c>
@@ -3798,7 +4119,7 @@
         <v>77652</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>203</v>
       </c>
@@ -3812,7 +4133,7 @@
         <v>78136</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>204</v>
       </c>
@@ -3826,7 +4147,7 @@
         <v>78624</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>205</v>
       </c>
@@ -3840,7 +4161,7 @@
         <v>79108</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>206</v>
       </c>
@@ -3854,7 +4175,7 @@
         <v>79596</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>207</v>
       </c>
@@ -3868,7 +4189,7 @@
         <v>80080</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>208</v>
       </c>
@@ -3882,7 +4203,7 @@
         <v>80568</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>209</v>
       </c>
@@ -3896,7 +4217,7 @@
         <v>81052</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>210</v>
       </c>
@@ -3910,7 +4231,7 @@
         <v>81540</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>211</v>
       </c>
@@ -3924,7 +4245,7 @@
         <v>82024</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>212</v>
       </c>
@@ -3938,7 +4259,7 @@
         <v>82512</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>213</v>
       </c>
@@ -3952,7 +4273,7 @@
         <v>82996</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>214</v>
       </c>
@@ -3966,7 +4287,7 @@
         <v>83484</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>215</v>
       </c>
@@ -3980,7 +4301,7 @@
         <v>83968</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>216</v>
       </c>
@@ -3994,7 +4315,7 @@
         <v>84456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>217</v>
       </c>
@@ -4008,7 +4329,7 @@
         <v>84940</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>218</v>
       </c>
@@ -4022,7 +4343,7 @@
         <v>85428</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>219</v>
       </c>
@@ -4036,7 +4357,7 @@
         <v>85912</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>220</v>
       </c>
@@ -4050,7 +4371,7 @@
         <v>86400</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>230</v>
       </c>
@@ -4064,7 +4385,7 @@
         <v>91260</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -4078,7 +4399,7 @@
         <v>96120</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>250</v>
       </c>
@@ -4092,7 +4413,7 @@
         <v>100980</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>260</v>
       </c>
@@ -4106,7 +4427,7 @@
         <v>105840</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>270</v>
       </c>
@@ -4120,7 +4441,7 @@
         <v>110700</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>280</v>
       </c>
@@ -4134,7 +4455,7 @@
         <v>115560</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>290</v>
       </c>
@@ -4148,7 +4469,7 @@
         <v>120420</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>300</v>
       </c>
@@ -4162,7 +4483,7 @@
         <v>125280</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>350</v>
       </c>
@@ -4176,7 +4497,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>400</v>
       </c>
@@ -4190,7 +4511,7 @@
         <v>173880</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>450</v>
       </c>
@@ -4204,7 +4525,7 @@
         <v>199098</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>500</v>
       </c>
@@ -4218,7 +4539,7 @@
         <v>224316</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <v>1000</v>
       </c>
@@ -4232,7 +4553,7 @@
         <v>476496</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <v>2000</v>
       </c>
@@ -4246,7 +4567,7 @@
         <v>993816</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <v>5000</v>
       </c>
@@ -4260,7 +4581,7 @@
         <v>2581416</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <v>10000</v>
       </c>
@@ -4285,420 +4606,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06F2E52-62BF-445C-A5B1-632787129361}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05843B7C-FD95-4073-A4A2-C0533A1CF6C9}">
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <f>SUM(D10:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="E16" s="16">
         <f>SUM(E10:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2">
+      <c r="F16" s="17">
+        <f>SUM(F10:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D22" s="22">
         <v>42000</v>
       </c>
-      <c r="D20" s="1">
-        <f>E16</f>
+      <c r="E22" s="23">
+        <f>F16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <f>C20-D20</f>
+      <c r="F22" s="17">
+        <f>D22-E22</f>
         <v>42000</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="6">
-        <f>E20</f>
-        <v>42000</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="F29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E26:F26">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F$22&gt;=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F$22&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -1,156 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\GitHub\Repositories\Projects\vscode\water_cost_calculate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\water_cost_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF81EA2-349A-482B-8E93-E85F89C4F60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C07EC8-8F05-4816-9505-0C60399851E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A16AE2F-7337-4D00-8AF2-55D930D81D22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H30年度" sheetId="2" r:id="rId1"/>
-    <sheet name="水道料金マスタ" sheetId="1" r:id="rId2"/>
-    <sheet name="印刷テンプレート" sheetId="4" r:id="rId3"/>
+    <sheet name="H30年度" sheetId="6" r:id="rId1"/>
+    <sheet name="水道料金マスタ" sheetId="5" r:id="rId2"/>
+    <sheet name="印刷テンプレート" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
-    <t>水道料金・下水道使用料早見表（２か月分）</t>
-  </si>
-  <si>
-    <t>使用水量</t>
-  </si>
-  <si>
-    <t>水道料金</t>
-  </si>
-  <si>
-    <t>下水道使用料</t>
-  </si>
-  <si>
-    <t>合計(税込)</t>
-  </si>
-  <si>
-    <t>(円)</t>
-  </si>
-  <si>
-    <t>(㎥)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>号</t>
     <rPh sb="0" eb="1">
       <t>ゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計</t>
-    <rPh sb="0" eb="1">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>様</t>
-    <rPh sb="0" eb="1">
-      <t>サマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年間水道料入金額</t>
-    <rPh sb="0" eb="2">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>スイドウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウキン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差額</t>
-    <rPh sb="0" eb="2">
-      <t>サガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山田太郎</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中村花子</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハナコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パイソン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　水道使用量・水道料金明細</t>
-    <rPh sb="4" eb="6">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シヨウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>スイドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>メイサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R元年度</t>
-    <rPh sb="1" eb="2">
-      <t>ガン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,9 +54,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4～5月</t>
-    <rPh sb="3" eb="4">
-      <t>ガツ</t>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間水道料入金額</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>スイドウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間使用水道料金額</t>
+    <rPh sb="0" eb="2">
+      <t>ネンカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>スイドウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差額</t>
+    <rPh sb="0" eb="2">
+      <t>サガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様</t>
+    <rPh sb="0" eb="1">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　水道使用量・水道料金明細</t>
+    <rPh sb="4" eb="6">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,35 +168,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年間使用水道料金額</t>
-    <rPh sb="0" eb="2">
-      <t>ネンカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>スイドウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンガク</t>
+    <t>4～5月</t>
+    <rPh sb="3" eb="4">
+      <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>請求額</t>
-    <rPh sb="0" eb="2">
-      <t>セイキュウ</t>
+    <t>R元年度</t>
+    <rPh sb="1" eb="2">
+      <t>ガン</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガク</t>
+    <rPh sb="2" eb="4">
+      <t>ネンド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
+    <t>水道料金・下水道使用料早見表（２か月分）</t>
+  </si>
+  <si>
+    <t>使用水量</t>
+  </si>
+  <si>
+    <t>水道料金</t>
+  </si>
+  <si>
+    <t>下水道使用料</t>
+  </si>
+  <si>
+    <t>合計(税込)</t>
+  </si>
+  <si>
+    <t>(㎥)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(円)</t>
+  </si>
+  <si>
+    <t>返金額</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンキンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村花子</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイソン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,26 +259,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -295,7 +279,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -304,7 +288,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -313,16 +297,23 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -331,16 +322,7 @@
       <b/>
       <u/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -363,45 +345,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -427,8 +384,51 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,12 +443,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,38 +501,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -548,19 +543,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,82 +553,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,15 +638,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -691,44 +668,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -778,9 +755,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -836,385 +813,409 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7C17E1-E832-4C97-B343-82FD4FBA4010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FA81C-4C07-4B62-AC5F-DFF349907A33}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="21">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="21">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="21">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="21">
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="21">
         <v>9</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="21">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="21">
         <v>11</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="21">
         <v>12</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="21">
         <v>1</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="21">
         <v>2</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="21">
         <v>301</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21">
         <v>143</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="21">
         <v>147</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="21">
         <v>147</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="21">
         <v>155</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="21">
         <v>173</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="21">
         <v>191</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="21">
         <v>217</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="21">
         <v>228</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="21">
         <v>246</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="21">
         <v>262</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="21">
         <v>279</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="21">
         <v>298</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="21">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="21">
         <v>302</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="21">
         <v>726</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="21">
         <v>730</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="21">
         <v>735</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="21">
         <v>741</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="21">
         <v>747</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="21">
         <v>752</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="21">
         <v>754</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="21">
         <v>755</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="21">
         <v>756</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="21">
         <v>759</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="21">
         <v>763</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="21">
         <v>767</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="21">
         <v>770</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
         <v>303</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21">
         <v>565</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="21">
         <v>566</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="21">
         <v>567</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="21">
         <v>568</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="21">
         <v>569</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="21">
         <v>569</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="21">
         <v>570</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="21">
         <v>570</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="21">
         <v>571</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="21">
         <v>572</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="21">
         <v>573</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="21">
         <v>574</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="21">
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="21">
         <v>305</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="21">
         <v>626</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="21">
         <v>631</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="21">
         <v>638</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="21">
         <v>645</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="21">
         <v>651</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="21">
         <v>658</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="21">
         <v>664</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="21">
         <v>670</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="21">
         <v>671</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="21">
         <v>685</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="21">
         <v>693</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="21">
         <v>701</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="21">
         <v>709</v>
       </c>
     </row>
@@ -1226,14 +1227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BA6468-5C74-4C5F-8AC4-48DBC1FBB92C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA277E01-85ED-4725-8095-EF4F69BDF16E}">
   <dimension ref="A1:D242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -1241,3357 +1242,3357 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
+        <v>0</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1512</v>
+      </c>
+      <c r="C6" s="21">
+        <v>842</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="23">
+        <v>1560</v>
+      </c>
+      <c r="C7" s="21">
+        <v>886</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B8" s="23">
+        <v>1608</v>
+      </c>
+      <c r="C8" s="21">
+        <v>930</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B9" s="23">
+        <v>1656</v>
+      </c>
+      <c r="C9" s="21">
+        <v>974</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="B10" s="23">
+        <v>1706</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1018</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="21">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1754</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1062</v>
+      </c>
+      <c r="D11" s="23">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1512</v>
-      </c>
-      <c r="C6" s="1">
-        <v>842</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1560</v>
-      </c>
-      <c r="C7" s="1">
-        <v>886</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1608</v>
-      </c>
-      <c r="C8" s="1">
-        <v>930</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1656</v>
-      </c>
-      <c r="C9" s="1">
-        <v>974</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1706</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1018</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1754</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1062</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="B12" s="23">
         <v>1802</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="23">
         <v>1108</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="23">
         <v>2910</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="23">
         <v>1852</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="23">
         <v>1152</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="23">
         <v>3004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="23">
         <v>1900</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="23">
         <v>1196</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="23">
         <v>3096</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="23">
         <v>1948</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="23">
         <v>1240</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="23">
         <v>3188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="23">
         <v>1998</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="23">
         <v>1284</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="23">
         <v>3282</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="23">
         <v>2046</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="23">
         <v>1328</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="23">
         <v>3374</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="23">
         <v>2094</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="23">
         <v>1372</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="23">
         <v>3466</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
         <v>13</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="23">
         <v>2142</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="23">
         <v>1418</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="23">
         <v>3560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="23">
         <v>2192</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="23">
         <v>1462</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="23">
         <v>3654</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="23">
         <v>2240</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="23">
         <v>1506</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="23">
         <v>3746</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="21">
         <v>16</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="23">
         <v>2288</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="23">
         <v>1550</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="23">
         <v>3838</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
         <v>17</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="23">
         <v>2338</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="23">
         <v>1594</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="23">
         <v>3932</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="21">
         <v>18</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="23">
         <v>2386</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="23">
         <v>1638</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="23">
         <v>4024</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="21">
         <v>19</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="23">
         <v>2434</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="23">
         <v>1682</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="23">
         <v>4116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="21">
         <v>20</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="23">
         <v>2484</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="23">
         <v>1728</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="23">
         <v>4212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="21">
         <v>21</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="23">
         <v>2612</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="23">
         <v>1820</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="23">
         <v>4432</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
         <v>22</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="23">
         <v>2742</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="23">
         <v>1914</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="23">
         <v>4656</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="21">
         <v>23</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="23">
         <v>2872</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="23">
         <v>2008</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="23">
         <v>4880</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="21">
         <v>24</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="23">
         <v>3002</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="23">
         <v>2102</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="23">
         <v>5104</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="21">
         <v>25</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="23">
         <v>3132</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="23">
         <v>2196</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="23">
         <v>5328</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="21">
         <v>26</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="23">
         <v>3260</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="23">
         <v>2290</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="23">
         <v>5550</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="21">
         <v>27</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="23">
         <v>3390</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="23">
         <v>2384</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="23">
         <v>5774</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="21">
         <v>28</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="23">
         <v>3520</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="23">
         <v>2478</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="23">
         <v>5998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="21">
         <v>29</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="23">
         <v>3650</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="23">
         <v>2572</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="23">
         <v>6222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="21">
         <v>30</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="23">
         <v>3780</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="23">
         <v>2666</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="23">
         <v>6446</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="21">
         <v>31</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="23">
         <v>3908</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="23">
         <v>2760</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="23">
         <v>6668</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="21">
         <v>32</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="23">
         <v>4038</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="23">
         <v>2854</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="23">
         <v>6892</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="21">
         <v>33</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="23">
         <v>4168</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="23">
         <v>2948</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="23">
         <v>7116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="21">
         <v>34</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="23">
         <v>4298</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="23">
         <v>3042</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="23">
         <v>7340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="21">
         <v>35</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="23">
         <v>4428</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="23">
         <v>3136</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="23">
         <v>7564</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="21">
         <v>36</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="23">
         <v>4556</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="23">
         <v>3230</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="23">
         <v>7786</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="1">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="21">
         <v>37</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="23">
         <v>4686</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="23">
         <v>3324</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="23">
         <v>8010</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="1">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="21">
         <v>38</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="23">
         <v>4816</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="23">
         <v>3418</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="23">
         <v>8234</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="1">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="21">
         <v>39</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="23">
         <v>4946</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="23">
         <v>3512</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="23">
         <v>8458</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="1">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="21">
         <v>40</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="23">
         <v>5076</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="23">
         <v>3606</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="23">
         <v>8682</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="1">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="21">
         <v>41</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="23">
         <v>5302</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="23">
         <v>3700</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="23">
         <v>9002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="21">
         <v>42</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="23">
         <v>5528</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="23">
         <v>3794</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="23">
         <v>9322</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="1">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="21">
         <v>43</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="23">
         <v>5756</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="23">
         <v>3888</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="23">
         <v>9644</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="1">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="21">
         <v>44</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="23">
         <v>5982</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="23">
         <v>3982</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="23">
         <v>9964</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="1">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="21">
         <v>45</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="23">
         <v>6210</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="23">
         <v>4076</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="23">
         <v>10286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="1">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="21">
         <v>46</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="23">
         <v>6436</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="23">
         <v>4170</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="23">
         <v>10606</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="1">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="21">
         <v>47</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="23">
         <v>6662</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="23">
         <v>4264</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="23">
         <v>10926</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="1">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="21">
         <v>48</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="23">
         <v>6890</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="23">
         <v>4358</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="23">
         <v>11248</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="1">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="21">
         <v>49</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="23">
         <v>7116</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="23">
         <v>4452</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="23">
         <v>11568</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="1">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="21">
         <v>50</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="23">
         <v>7344</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="23">
         <v>4546</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="23">
         <v>11890</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="1">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="21">
         <v>51</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="23">
         <v>7570</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="23">
         <v>4640</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="23">
         <v>12210</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="1">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="21">
         <v>52</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="23">
         <v>7796</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="23">
         <v>4734</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="23">
         <v>12530</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="21">
         <v>53</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="23">
         <v>8024</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="23">
         <v>4828</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="23">
         <v>12852</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="1">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="21">
         <v>54</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="23">
         <v>8250</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="23">
         <v>4922</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="23">
         <v>13172</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="1">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="21">
         <v>55</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="23">
         <v>8478</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="23">
         <v>5016</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="23">
         <v>13494</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="1">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="21">
         <v>56</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="23">
         <v>8704</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="23">
         <v>5110</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="23">
         <v>13814</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="1">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="21">
         <v>57</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="23">
         <v>8930</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="23">
         <v>5204</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="23">
         <v>14134</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="1">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="21">
         <v>58</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="23">
         <v>9158</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="23">
         <v>5298</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="23">
         <v>14456</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="1">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="21">
         <v>59</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="23">
         <v>9384</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="23">
         <v>5392</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="23">
         <v>14776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="1">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="21">
         <v>60</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="23">
         <v>9612</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="23">
         <v>5486</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="23">
         <v>15098</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="1">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="21">
         <v>61</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="23">
         <v>9908</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="23">
         <v>5624</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="23">
         <v>15532</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="1">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="21">
         <v>62</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="23">
         <v>10206</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="23">
         <v>5762</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="23">
         <v>15968</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="1">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="21">
         <v>63</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="23">
         <v>10502</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="23">
         <v>5900</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="23">
         <v>16402</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="1">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="21">
         <v>64</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="23">
         <v>10800</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="23">
         <v>6038</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="23">
         <v>16838</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="1">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="21">
         <v>65</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="23">
         <v>11096</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="23">
         <v>6176</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="23">
         <v>17272</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="1">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="21">
         <v>66</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="23">
         <v>11394</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="23">
         <v>6314</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="23">
         <v>17708</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="1">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="21">
         <v>67</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="23">
         <v>11690</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="23">
         <v>6454</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="23">
         <v>18144</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="1">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="21">
         <v>68</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="23">
         <v>11988</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="23">
         <v>6592</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="23">
         <v>18580</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="1">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="21">
         <v>69</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="23">
         <v>12284</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="23">
         <v>6730</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="23">
         <v>19014</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="1">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="21">
         <v>70</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="23">
         <v>12582</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="23">
         <v>6868</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="23">
         <v>19450</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="1">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="21">
         <v>71</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="23">
         <v>12878</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="23">
         <v>7006</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="23">
         <v>19884</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="1">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="21">
         <v>72</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="23">
         <v>13176</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="23">
         <v>7144</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="23">
         <v>20320</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="1">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="21">
         <v>73</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="23">
         <v>13472</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="23">
         <v>7282</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="23">
         <v>20754</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="1">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="21">
         <v>74</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="23">
         <v>13770</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="23">
         <v>7420</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="23">
         <v>21190</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="1">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="21">
         <v>75</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="23">
         <v>14066</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="23">
         <v>7560</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="23">
         <v>21626</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="1">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="21">
         <v>76</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="23">
         <v>14364</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="23">
         <v>7698</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="23">
         <v>22062</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="1">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="21">
         <v>77</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="23">
         <v>14660</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="23">
         <v>7836</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="23">
         <v>22496</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="1">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="21">
         <v>78</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="23">
         <v>14958</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="23">
         <v>7974</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="23">
         <v>22932</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="1">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="21">
         <v>79</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="23">
         <v>15254</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="23">
         <v>8112</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="23">
         <v>23366</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="1">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="21">
         <v>80</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="23">
         <v>15552</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="23">
         <v>8250</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="23">
         <v>23802</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="1">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="21">
         <v>81</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="23">
         <v>15848</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="23">
         <v>8388</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="23">
         <v>24236</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="1">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="21">
         <v>82</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="23">
         <v>16146</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="23">
         <v>8526</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="23">
         <v>24672</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="1">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="21">
         <v>83</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="23">
         <v>16442</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="23">
         <v>8664</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="23">
         <v>25106</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="1">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="21">
         <v>84</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="23">
         <v>16740</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="23">
         <v>8804</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="23">
         <v>25544</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="1">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="21">
         <v>85</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="23">
         <v>17036</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="23">
         <v>8942</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="23">
         <v>25978</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="1">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="21">
         <v>86</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="23">
         <v>17334</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="23">
         <v>9080</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="23">
         <v>26414</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="1">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="21">
         <v>87</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="23">
         <v>17630</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="23">
         <v>9218</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="23">
         <v>26848</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="1">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="21">
         <v>88</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="23">
         <v>17928</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="23">
         <v>9356</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="23">
         <v>27284</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="1">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="21">
         <v>89</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="23">
         <v>18224</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="23">
         <v>9494</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="23">
         <v>27718</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="1">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="21">
         <v>90</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="23">
         <v>18522</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="23">
         <v>9632</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="23">
         <v>28154</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="1">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="21">
         <v>91</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="23">
         <v>18818</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="23">
         <v>9770</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="23">
         <v>28588</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="1">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="21">
         <v>92</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="23">
         <v>19116</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="23">
         <v>9910</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="23">
         <v>29026</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="1">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="21">
         <v>93</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="23">
         <v>19412</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="23">
         <v>10048</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="23">
         <v>29460</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="1">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="21">
         <v>94</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="23">
         <v>19710</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="23">
         <v>10186</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="23">
         <v>29896</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="1">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="21">
         <v>95</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="23">
         <v>20006</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="23">
         <v>10324</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="23">
         <v>30330</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="1">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="21">
         <v>96</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="23">
         <v>20304</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="23">
         <v>10462</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="23">
         <v>30766</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="1">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="21">
         <v>97</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="23">
         <v>20600</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="23">
         <v>10600</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="23">
         <v>31200</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="1">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="21">
         <v>98</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="23">
         <v>20898</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="23">
         <v>10738</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="23">
         <v>31636</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="1">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="21">
         <v>99</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="23">
         <v>21194</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="23">
         <v>10876</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="23">
         <v>32070</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="1">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="21">
         <v>100</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="23">
         <v>21492</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="23">
         <v>11016</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="23">
         <v>32508</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="1">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="21">
         <v>101</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="23">
         <v>21788</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="23">
         <v>11160</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="23">
         <v>32948</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="1">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="21">
         <v>102</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="23">
         <v>22086</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="23">
         <v>11304</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="23">
         <v>33390</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="1">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="21">
         <v>103</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="23">
         <v>22382</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="23">
         <v>11450</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="23">
         <v>33832</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="1">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="21">
         <v>104</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="23">
         <v>22680</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="23">
         <v>11594</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="23">
         <v>34274</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="1">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="21">
         <v>105</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="23">
         <v>22976</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="23">
         <v>11738</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="23">
         <v>34714</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="1">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="21">
         <v>106</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="23">
         <v>23274</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="23">
         <v>11884</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="23">
         <v>35158</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="21">
         <v>107</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="23">
         <v>23570</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="23">
         <v>12028</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="23">
         <v>35598</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="1">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="21">
         <v>108</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="23">
         <v>23868</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="23">
         <v>12172</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="23">
         <v>36040</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="1">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="21">
         <v>109</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="23">
         <v>24164</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="23">
         <v>12318</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="23">
         <v>36482</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="1">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="21">
         <v>110</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="23">
         <v>24462</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="23">
         <v>12462</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="23">
         <v>36924</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="1">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="21">
         <v>111</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="23">
         <v>24758</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="23">
         <v>12606</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="23">
         <v>37364</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="1">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="21">
         <v>112</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="23">
         <v>25056</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="23">
         <v>12752</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="23">
         <v>37808</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="1">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="21">
         <v>113</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="23">
         <v>25352</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="23">
         <v>12896</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="23">
         <v>38248</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="1">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="21">
         <v>114</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="23">
         <v>25650</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="23">
         <v>13042</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="23">
         <v>38692</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="1">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="21">
         <v>115</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="23">
         <v>25946</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="23">
         <v>13186</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="23">
         <v>39132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="1">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="21">
         <v>116</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="23">
         <v>26244</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="23">
         <v>13330</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="23">
         <v>39574</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="1">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="21">
         <v>117</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="23">
         <v>26540</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="23">
         <v>13476</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="23">
         <v>40016</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="1">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="21">
         <v>118</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="23">
         <v>26838</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="23">
         <v>13620</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="23">
         <v>40458</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="1">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="21">
         <v>119</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="23">
         <v>27134</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="23">
         <v>13764</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="23">
         <v>40898</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="1">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="21">
         <v>120</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="23">
         <v>27432</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="23">
         <v>13910</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="23">
         <v>41342</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="1">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="21">
         <v>121</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="23">
         <v>27728</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="23">
         <v>14054</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="23">
         <v>41782</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="1">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="21">
         <v>122</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="23">
         <v>28026</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="23">
         <v>14198</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="23">
         <v>42224</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="1">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="21">
         <v>123</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="23">
         <v>28322</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="23">
         <v>14344</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="23">
         <v>42666</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="1">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="21">
         <v>124</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="23">
         <v>28620</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="23">
         <v>14488</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="23">
         <v>43108</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="1">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="21">
         <v>125</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="23">
         <v>28916</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="23">
         <v>14634</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="23">
         <v>43550</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="1">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="21">
         <v>126</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="23">
         <v>29214</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="23">
         <v>14778</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="23">
         <v>43992</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="1">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="21">
         <v>127</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="23">
         <v>29510</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="23">
         <v>14922</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="23">
         <v>44432</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="1">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="21">
         <v>128</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="23">
         <v>29808</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="23">
         <v>15068</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="23">
         <v>44876</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="1">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="21">
         <v>129</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="23">
         <v>30104</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="23">
         <v>15212</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="23">
         <v>45316</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="1">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="21">
         <v>130</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="23">
         <v>30402</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="23">
         <v>15356</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="23">
         <v>45758</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="1">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="21">
         <v>131</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="23">
         <v>30698</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="23">
         <v>15502</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="23">
         <v>46200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="1">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="21">
         <v>132</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="23">
         <v>30996</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="23">
         <v>15646</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="23">
         <v>46642</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="1">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="21">
         <v>133</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="23">
         <v>31292</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="23">
         <v>15790</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="23">
         <v>47082</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="1">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="21">
         <v>134</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="23">
         <v>31590</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="23">
         <v>15936</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="23">
         <v>47526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="1">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="21">
         <v>135</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="23">
         <v>31886</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="23">
         <v>16080</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="23">
         <v>47966</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="1">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="21">
         <v>136</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="23">
         <v>32184</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="23">
         <v>16224</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="23">
         <v>48408</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="1">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="21">
         <v>137</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="23">
         <v>32480</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="23">
         <v>16370</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="23">
         <v>48850</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="1">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="21">
         <v>138</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="23">
         <v>32778</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="23">
         <v>16514</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="23">
         <v>49292</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="1">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="21">
         <v>139</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="23">
         <v>33074</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="23">
         <v>16660</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="23">
         <v>49734</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="1">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="21">
         <v>140</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="23">
         <v>33372</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="23">
         <v>16804</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="23">
         <v>50176</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="1">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="21">
         <v>141</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="23">
         <v>33668</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="23">
         <v>16948</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="23">
         <v>50616</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="1">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="21">
         <v>142</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="23">
         <v>33966</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="23">
         <v>17094</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="23">
         <v>51060</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="1">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="21">
         <v>143</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="23">
         <v>34262</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="23">
         <v>17238</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="23">
         <v>51500</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="1">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="21">
         <v>144</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="23">
         <v>34560</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="23">
         <v>17382</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="23">
         <v>51942</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="1">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="21">
         <v>145</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="23">
         <v>34856</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="23">
         <v>17528</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="23">
         <v>52384</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="1">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="21">
         <v>146</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="23">
         <v>35154</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="23">
         <v>17672</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="23">
         <v>52826</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="1">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="21">
         <v>147</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="23">
         <v>35450</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="23">
         <v>17816</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="23">
         <v>53266</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="1">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="21">
         <v>148</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="23">
         <v>35748</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="23">
         <v>17962</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="23">
         <v>53710</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="1">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="21">
         <v>149</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="23">
         <v>36044</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="23">
         <v>18106</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="23">
         <v>54150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="1">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="21">
         <v>150</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="23">
         <v>36342</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="23">
         <v>18252</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="23">
         <v>54594</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="1">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="21">
         <v>151</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="23">
         <v>36638</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="23">
         <v>18396</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="23">
         <v>55034</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="1">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="21">
         <v>152</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="23">
         <v>36936</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="23">
         <v>18540</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="23">
         <v>55476</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="1">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="21">
         <v>153</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="23">
         <v>37232</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="23">
         <v>18686</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="23">
         <v>55918</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="1">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="21">
         <v>154</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="23">
         <v>37530</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="23">
         <v>18830</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="23">
         <v>56360</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="1">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="21">
         <v>155</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="23">
         <v>37826</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="23">
         <v>18974</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="23">
         <v>56800</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="1">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="21">
         <v>156</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="23">
         <v>38124</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="23">
         <v>19120</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="23">
         <v>57244</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="1">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="21">
         <v>157</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="23">
         <v>38420</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="23">
         <v>19264</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="23">
         <v>57684</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="1">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="21">
         <v>158</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="23">
         <v>38718</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="23">
         <v>19408</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="23">
         <v>58126</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="1">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="21">
         <v>159</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="23">
         <v>39014</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="23">
         <v>19554</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="23">
         <v>58568</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="1">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="21">
         <v>160</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="23">
         <v>39312</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="23">
         <v>19698</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="23">
         <v>59010</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="1">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="21">
         <v>161</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="23">
         <v>39608</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="23">
         <v>19842</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="23">
         <v>59450</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="1">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="21">
         <v>162</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="23">
         <v>39906</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="23">
         <v>19988</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="23">
         <v>59894</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="1">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="21">
         <v>163</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="23">
         <v>40202</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="23">
         <v>20132</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="23">
         <v>60334</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" s="1">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="21">
         <v>164</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="23">
         <v>40500</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="23">
         <v>20278</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="23">
         <v>60778</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" s="1">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="21">
         <v>165</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="23">
         <v>40796</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="23">
         <v>20422</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="23">
         <v>61218</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" s="1">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="21">
         <v>166</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="23">
         <v>41094</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="23">
         <v>20566</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="23">
         <v>61660</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" s="1">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="21">
         <v>167</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="23">
         <v>41390</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="23">
         <v>20712</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="23">
         <v>62102</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" s="1">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="21">
         <v>168</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="23">
         <v>41688</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="23">
         <v>20856</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="23">
         <v>62544</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" s="1">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="21">
         <v>169</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="23">
         <v>41984</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="23">
         <v>21000</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="23">
         <v>62984</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" s="1">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="21">
         <v>170</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="23">
         <v>42282</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="23">
         <v>21146</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="23">
         <v>63428</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" s="1">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="21">
         <v>171</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="23">
         <v>42578</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="23">
         <v>21290</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="23">
         <v>63868</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" s="1">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="21">
         <v>172</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="23">
         <v>42876</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="23">
         <v>21434</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="23">
         <v>64310</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" s="1">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="21">
         <v>173</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="23">
         <v>43172</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="23">
         <v>21580</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="23">
         <v>64752</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" s="1">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="21">
         <v>174</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="23">
         <v>43470</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="23">
         <v>21724</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="23">
         <v>65194</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" s="1">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="21">
         <v>175</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="23">
         <v>43766</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="23">
         <v>21870</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="23">
         <v>65636</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" s="1">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="21">
         <v>176</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="23">
         <v>44064</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="23">
         <v>22014</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="23">
         <v>66078</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" s="1">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="21">
         <v>177</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="23">
         <v>44360</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="23">
         <v>22158</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="23">
         <v>66518</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" s="1">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="21">
         <v>178</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="23">
         <v>44658</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="23">
         <v>22304</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="23">
         <v>66962</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" s="1">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="21">
         <v>179</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="23">
         <v>44954</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="23">
         <v>22448</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="23">
         <v>67402</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" s="1">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="21">
         <v>180</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="23">
         <v>45252</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="23">
         <v>22592</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="23">
         <v>67844</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" s="1">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="21">
         <v>181</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="23">
         <v>45548</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="23">
         <v>22738</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="23">
         <v>68286</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="1">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="21">
         <v>182</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="23">
         <v>45846</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="23">
         <v>22882</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="23">
         <v>68728</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="1">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="21">
         <v>183</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="23">
         <v>46142</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="23">
         <v>23026</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="23">
         <v>69168</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="1">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="21">
         <v>184</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="23">
         <v>46440</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="23">
         <v>23172</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="23">
         <v>69612</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="1">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="21">
         <v>185</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="23">
         <v>46736</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="23">
         <v>23316</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="23">
         <v>70052</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" s="1">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="21">
         <v>186</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="23">
         <v>47034</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="23">
         <v>23460</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="23">
         <v>70494</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" s="1">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="21">
         <v>187</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="23">
         <v>47330</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="23">
         <v>23606</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="23">
         <v>70936</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="1">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="21">
         <v>188</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="23">
         <v>47628</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="23">
         <v>23750</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="23">
         <v>71378</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" s="1">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="21">
         <v>189</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="23">
         <v>47924</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="23">
         <v>23896</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="23">
         <v>71820</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" s="1">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="21">
         <v>190</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="23">
         <v>48222</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="23">
         <v>24040</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="23">
         <v>72262</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="1">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="21">
         <v>191</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="23">
         <v>48518</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="23">
         <v>24184</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="23">
         <v>72702</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="1">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="21">
         <v>192</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="23">
         <v>48816</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="23">
         <v>24330</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="23">
         <v>73146</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="1">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="21">
         <v>193</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="23">
         <v>49112</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="23">
         <v>24474</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="23">
         <v>73586</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="1">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="21">
         <v>194</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="23">
         <v>49410</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="23">
         <v>24618</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="23">
         <v>74028</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="1">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="21">
         <v>195</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="23">
         <v>49706</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="23">
         <v>24764</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="23">
         <v>74470</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" s="1">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="21">
         <v>196</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="23">
         <v>50004</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="23">
         <v>24908</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="23">
         <v>74912</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" s="1">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="21">
         <v>197</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="23">
         <v>50300</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="23">
         <v>25052</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="23">
         <v>75352</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="1">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="21">
         <v>198</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="23">
         <v>50598</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="23">
         <v>25198</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="23">
         <v>75796</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="1">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="21">
         <v>199</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="23">
         <v>50894</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="23">
         <v>25342</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="23">
         <v>76236</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="1">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="21">
         <v>200</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="23">
         <v>51192</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="23">
         <v>25488</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="23">
         <v>76680</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" s="1">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="21">
         <v>201</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="23">
         <v>51488</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="23">
         <v>25676</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="23">
         <v>77164</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" s="1">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="21">
         <v>202</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="23">
         <v>51786</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="23">
         <v>25866</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="23">
         <v>77652</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" s="1">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="21">
         <v>203</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="23">
         <v>52082</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="23">
         <v>26054</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="23">
         <v>78136</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" s="1">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="21">
         <v>204</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="23">
         <v>52380</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="23">
         <v>26244</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="23">
         <v>78624</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" s="1">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="21">
         <v>205</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="23">
         <v>52676</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="23">
         <v>26432</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="23">
         <v>79108</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" s="1">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="21">
         <v>206</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="23">
         <v>52974</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="23">
         <v>26622</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="23">
         <v>79596</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" s="1">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="21">
         <v>207</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="23">
         <v>53270</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="23">
         <v>26810</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="23">
         <v>80080</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" s="1">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="21">
         <v>208</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="23">
         <v>53568</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="23">
         <v>27000</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="23">
         <v>80568</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" s="1">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="21">
         <v>209</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="23">
         <v>53864</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="23">
         <v>27188</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="23">
         <v>81052</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A216" s="1">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="21">
         <v>210</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="23">
         <v>54162</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="23">
         <v>27378</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="23">
         <v>81540</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" s="1">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="21">
         <v>211</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="23">
         <v>54458</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="23">
         <v>27566</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="23">
         <v>82024</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="1">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A218" s="21">
         <v>212</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="23">
         <v>54756</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="23">
         <v>27756</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="23">
         <v>82512</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="1">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A219" s="21">
         <v>213</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="23">
         <v>55052</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="23">
         <v>27944</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="23">
         <v>82996</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" s="1">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="21">
         <v>214</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="23">
         <v>55350</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="23">
         <v>28134</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="23">
         <v>83484</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" s="1">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="21">
         <v>215</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="23">
         <v>55646</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="23">
         <v>28322</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="23">
         <v>83968</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="1">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="21">
         <v>216</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="23">
         <v>55944</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="23">
         <v>28512</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="23">
         <v>84456</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="1">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="21">
         <v>217</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="23">
         <v>56240</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="23">
         <v>28700</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="23">
         <v>84940</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" s="1">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="21">
         <v>218</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="23">
         <v>56538</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="23">
         <v>28890</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="23">
         <v>85428</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" s="1">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="21">
         <v>219</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="23">
         <v>56834</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="23">
         <v>29078</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="23">
         <v>85912</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" s="1">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="21">
         <v>220</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="23">
         <v>57132</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="23">
         <v>29268</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="23">
         <v>86400</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" s="1">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="21">
         <v>230</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="23">
         <v>60102</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="23">
         <v>31158</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="23">
         <v>91260</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" s="1">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="21">
         <v>240</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="23">
         <v>63072</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="23">
         <v>33048</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="23">
         <v>96120</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" s="1">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="21">
         <v>250</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="23">
         <v>66042</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="23">
         <v>34938</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="23">
         <v>100980</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" s="1">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="21">
         <v>260</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="23">
         <v>69012</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="23">
         <v>36828</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="23">
         <v>105840</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" s="1">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="21">
         <v>270</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="23">
         <v>71982</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="23">
         <v>38718</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="23">
         <v>110700</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A232" s="1">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="21">
         <v>280</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="23">
         <v>74952</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="23">
         <v>40608</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="23">
         <v>115560</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="1">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="21">
         <v>290</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="23">
         <v>77922</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="23">
         <v>42498</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="23">
         <v>120420</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="1">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="21">
         <v>300</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="23">
         <v>80892</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="23">
         <v>44388</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="23">
         <v>125280</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" s="1">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" s="21">
         <v>350</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="23">
         <v>95742</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="23">
         <v>53838</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="23">
         <v>149580</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" s="1">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236" s="21">
         <v>400</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="23">
         <v>110592</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="23">
         <v>63288</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="23">
         <v>173880</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" s="1">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" s="21">
         <v>450</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="23">
         <v>125442</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="23">
         <v>73656</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="23">
         <v>199098</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" s="1">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" s="21">
         <v>500</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="23">
         <v>140292</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="23">
         <v>84024</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="23">
         <v>224316</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" s="2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="23">
         <v>1000</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="23">
         <v>288792</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="23">
         <v>187704</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="23">
         <v>476496</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" s="2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240" s="23">
         <v>2000</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="23">
         <v>585792</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="23">
         <v>408024</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="23">
         <v>993816</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="23">
         <v>5000</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="23">
         <v>1476792</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="23">
         <v>1104624</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="23">
         <v>2581416</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="23">
         <v>10000</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="23">
         <v>2961792</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="23">
         <v>2265624</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="23">
         <v>5227416</v>
       </c>
     </row>
@@ -4606,171 +4607,178 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05843B7C-FD95-4073-A4A2-C0533A1CF6C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="3.375" customWidth="1"/>
     <col min="4" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="9" t="s">
-        <v>20</v>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12">
         <f>SUM(E10:E15)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f>SUM(F10:F15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="22">
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="17">
         <v>42000</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="18">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="F22" s="17">
-        <f>D22-E22</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="F29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="25">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$F$22&gt;=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F$22&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{7EE386E8-7FB3-45B3-BF68-892B2E41A71E}">
+            <xm:f>NOT(ISERROR(SEARCH($E$26="返金額",E26)))</xm:f>
+            <xm:f>$E$26="返金額"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF0070C0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E26:G26</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\water_cost_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C07EC8-8F05-4816-9505-0C60399851E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F25CE5-C15A-4325-A87C-C03DDCDEF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H30年度" sheetId="6" r:id="rId1"/>
+    <sheet name="H30年度" sheetId="7" r:id="rId1"/>
     <sheet name="水道料金マスタ" sheetId="5" r:id="rId2"/>
     <sheet name="印刷テンプレート" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>号</t>
     <rPh sb="0" eb="1">
@@ -214,6 +214,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>免除額</t>
+    <rPh sb="0" eb="3">
+      <t>メンジョガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差引額</t>
+    <rPh sb="0" eb="3">
+      <t>サシヒキガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※鹿児島市水道局より、新型コロナウィルス感染症対策の一環として、6月～11月までの</t>
+    <rPh sb="1" eb="5">
+      <t>カゴシマシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>スイドウキョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カンセンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イッカン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 上水道の基本料金を免除とする通知がありました。</t>
+    <rPh sb="2" eb="5">
+      <t>ジョウスイドウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>キホンリョウキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メンジョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　 詳細は別紙をご覧ください。</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベッシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中村花子</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -259,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +398,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -350,28 +429,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -543,99 +600,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -977,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FA81C-4C07-4B62-AC5F-DFF349907A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C37E79-451D-4D07-869E-F639F36903F3}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -989,233 +1151,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10">
         <v>3</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="10">
         <v>4</v>
       </c>
-      <c r="E1" s="21">
+      <c r="E1" s="10">
         <v>5</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="10">
         <v>6</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="10">
         <v>7</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="10">
         <v>8</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="10">
         <v>9</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="10">
         <v>10</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="10">
         <v>11</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="10">
         <v>12</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="10">
         <v>1</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="10">
         <v>2</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="10">
         <v>301</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10">
         <v>143</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="10">
         <v>147</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="10">
         <v>147</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="10">
         <v>155</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="10">
         <v>173</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="10">
         <v>191</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="10">
         <v>217</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="10">
         <v>228</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="10">
         <v>246</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="10">
         <v>262</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="10">
         <v>279</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="10">
         <v>298</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="10">
         <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+      <c r="A3" s="10">
         <v>302</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10">
         <v>726</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="10">
         <v>730</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="10">
         <v>735</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="10">
         <v>741</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="10">
         <v>747</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="10">
         <v>752</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="10">
         <v>754</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="10">
         <v>755</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="10">
         <v>756</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="10">
         <v>759</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="10">
         <v>763</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="10">
         <v>767</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="10">
         <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="A4" s="10">
         <v>303</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10">
         <v>565</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="10">
         <v>566</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="10">
         <v>567</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="10">
         <v>568</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="10">
         <v>569</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="10">
         <v>569</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="10">
         <v>570</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="10">
         <v>570</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="10">
         <v>571</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="10">
         <v>572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="10">
         <v>573</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="10">
         <v>574</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="10">
         <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="10">
         <v>305</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10">
         <v>626</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="10">
         <v>631</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="10">
         <v>638</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="10">
         <v>645</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="10">
         <v>651</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="10">
         <v>658</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="10">
         <v>664</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="10">
         <v>670</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="10">
         <v>671</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="10">
         <v>685</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="10">
         <v>693</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="10">
         <v>701</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="10">
         <v>709</v>
       </c>
     </row>
@@ -1243,3356 +1405,3356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="10">
         <v>0</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="12">
         <v>1512</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="10">
         <v>842</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="12">
         <v>2354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="10">
         <v>1</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="12">
         <v>1560</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="10">
         <v>886</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="12">
         <v>2446</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="12">
         <v>1608</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="10">
         <v>930</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="12">
         <v>2538</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="12">
         <v>1656</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="10">
         <v>974</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="12">
         <v>2630</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="12">
         <v>1706</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="12">
         <v>1018</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="12">
         <v>2724</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="12">
         <v>1754</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="12">
         <v>1062</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="12">
         <v>2816</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="12">
         <v>1802</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="12">
         <v>1108</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="12">
         <v>2910</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="10">
         <v>7</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="12">
         <v>1852</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="12">
         <v>1152</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="12">
         <v>3004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="12">
         <v>1900</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="12">
         <v>1196</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="12">
         <v>3096</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="10">
         <v>9</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="12">
         <v>1948</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="12">
         <v>1240</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="12">
         <v>3188</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+      <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="12">
         <v>1998</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="12">
         <v>1284</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="12">
         <v>3282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="10">
         <v>11</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="12">
         <v>2046</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="12">
         <v>1328</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="12">
         <v>3374</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+      <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="12">
         <v>2094</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="12">
         <v>1372</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="12">
         <v>3466</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+      <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="12">
         <v>2142</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="12">
         <v>1418</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="12">
         <v>3560</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+      <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="12">
         <v>2192</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="12">
         <v>1462</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="12">
         <v>3654</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+      <c r="A21" s="10">
         <v>15</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="12">
         <v>2240</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="12">
         <v>1506</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="12">
         <v>3746</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
+      <c r="A22" s="10">
         <v>16</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="12">
         <v>2288</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="12">
         <v>1550</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="12">
         <v>3838</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="10">
         <v>17</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="12">
         <v>2338</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="12">
         <v>1594</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="12">
         <v>3932</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
+      <c r="A24" s="10">
         <v>18</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="12">
         <v>2386</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="12">
         <v>1638</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="12">
         <v>4024</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="12">
         <v>2434</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="12">
         <v>1682</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="12">
         <v>4116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="21">
+      <c r="A26" s="10">
         <v>20</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="12">
         <v>2484</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="12">
         <v>1728</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="12">
         <v>4212</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
+      <c r="A27" s="10">
         <v>21</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="12">
         <v>2612</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="12">
         <v>1820</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="12">
         <v>4432</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21">
+      <c r="A28" s="10">
         <v>22</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="12">
         <v>2742</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="12">
         <v>1914</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="12">
         <v>4656</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+      <c r="A29" s="10">
         <v>23</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="12">
         <v>2872</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="12">
         <v>2008</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="12">
         <v>4880</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21">
+      <c r="A30" s="10">
         <v>24</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="12">
         <v>3002</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="12">
         <v>2102</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="12">
         <v>5104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="10">
         <v>25</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="12">
         <v>3132</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="12">
         <v>2196</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="12">
         <v>5328</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
+      <c r="A32" s="10">
         <v>26</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="12">
         <v>3260</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="12">
         <v>2290</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="12">
         <v>5550</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+      <c r="A33" s="10">
         <v>27</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="12">
         <v>3390</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="12">
         <v>2384</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="12">
         <v>5774</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="21">
+      <c r="A34" s="10">
         <v>28</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="12">
         <v>3520</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="12">
         <v>2478</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="12">
         <v>5998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="10">
         <v>29</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="12">
         <v>3650</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="12">
         <v>2572</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="12">
         <v>6222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21">
+      <c r="A36" s="10">
         <v>30</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="12">
         <v>3780</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="12">
         <v>2666</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="12">
         <v>6446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="10">
         <v>31</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="12">
         <v>3908</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="12">
         <v>2760</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="12">
         <v>6668</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21">
+      <c r="A38" s="10">
         <v>32</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="12">
         <v>4038</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="12">
         <v>2854</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="12">
         <v>6892</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
+      <c r="A39" s="10">
         <v>33</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="12">
         <v>4168</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="12">
         <v>2948</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="12">
         <v>7116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="21">
+      <c r="A40" s="10">
         <v>34</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="12">
         <v>4298</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="12">
         <v>3042</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="12">
         <v>7340</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="21">
+      <c r="A41" s="10">
         <v>35</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="12">
         <v>4428</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="12">
         <v>3136</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="12">
         <v>7564</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21">
+      <c r="A42" s="10">
         <v>36</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="12">
         <v>4556</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="12">
         <v>3230</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="12">
         <v>7786</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21">
+      <c r="A43" s="10">
         <v>37</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="12">
         <v>4686</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="12">
         <v>3324</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="12">
         <v>8010</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21">
+      <c r="A44" s="10">
         <v>38</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="12">
         <v>4816</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="12">
         <v>3418</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="12">
         <v>8234</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21">
+      <c r="A45" s="10">
         <v>39</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="12">
         <v>4946</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="12">
         <v>3512</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="12">
         <v>8458</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21">
+      <c r="A46" s="10">
         <v>40</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="12">
         <v>5076</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="12">
         <v>3606</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="12">
         <v>8682</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
+      <c r="A47" s="10">
         <v>41</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="12">
         <v>5302</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="12">
         <v>3700</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="12">
         <v>9002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="21">
+      <c r="A48" s="10">
         <v>42</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="12">
         <v>5528</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="12">
         <v>3794</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="12">
         <v>9322</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="10">
         <v>43</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="12">
         <v>5756</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="12">
         <v>3888</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="12">
         <v>9644</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21">
+      <c r="A50" s="10">
         <v>44</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="12">
         <v>5982</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="12">
         <v>3982</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="12">
         <v>9964</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
+      <c r="A51" s="10">
         <v>45</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="12">
         <v>6210</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="12">
         <v>4076</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="12">
         <v>10286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21">
+      <c r="A52" s="10">
         <v>46</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="12">
         <v>6436</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="12">
         <v>4170</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="12">
         <v>10606</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21">
+      <c r="A53" s="10">
         <v>47</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="12">
         <v>6662</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="12">
         <v>4264</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="12">
         <v>10926</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="21">
+      <c r="A54" s="10">
         <v>48</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="12">
         <v>6890</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="12">
         <v>4358</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="12">
         <v>11248</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="21">
+      <c r="A55" s="10">
         <v>49</v>
       </c>
-      <c r="B55" s="23">
+      <c r="B55" s="12">
         <v>7116</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="12">
         <v>4452</v>
       </c>
-      <c r="D55" s="23">
+      <c r="D55" s="12">
         <v>11568</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="21">
+      <c r="A56" s="10">
         <v>50</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="12">
         <v>7344</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="12">
         <v>4546</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="12">
         <v>11890</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="21">
+      <c r="A57" s="10">
         <v>51</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="12">
         <v>7570</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="12">
         <v>4640</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="12">
         <v>12210</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="21">
+      <c r="A58" s="10">
         <v>52</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B58" s="12">
         <v>7796</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="12">
         <v>4734</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="12">
         <v>12530</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="21">
+      <c r="A59" s="10">
         <v>53</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="12">
         <v>8024</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="12">
         <v>4828</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="12">
         <v>12852</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21">
+      <c r="A60" s="10">
         <v>54</v>
       </c>
-      <c r="B60" s="23">
+      <c r="B60" s="12">
         <v>8250</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="12">
         <v>4922</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="12">
         <v>13172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="21">
+      <c r="A61" s="10">
         <v>55</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="12">
         <v>8478</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="12">
         <v>5016</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="12">
         <v>13494</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="21">
+      <c r="A62" s="10">
         <v>56</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B62" s="12">
         <v>8704</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="12">
         <v>5110</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="12">
         <v>13814</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="21">
+      <c r="A63" s="10">
         <v>57</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="12">
         <v>8930</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="12">
         <v>5204</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="12">
         <v>14134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21">
+      <c r="A64" s="10">
         <v>58</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="12">
         <v>9158</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="12">
         <v>5298</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="12">
         <v>14456</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="21">
+      <c r="A65" s="10">
         <v>59</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="12">
         <v>9384</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="12">
         <v>5392</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="12">
         <v>14776</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="21">
+      <c r="A66" s="10">
         <v>60</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="12">
         <v>9612</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="12">
         <v>5486</v>
       </c>
-      <c r="D66" s="23">
+      <c r="D66" s="12">
         <v>15098</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="21">
+      <c r="A67" s="10">
         <v>61</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="12">
         <v>9908</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="12">
         <v>5624</v>
       </c>
-      <c r="D67" s="23">
+      <c r="D67" s="12">
         <v>15532</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="21">
+      <c r="A68" s="10">
         <v>62</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="12">
         <v>10206</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="12">
         <v>5762</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="12">
         <v>15968</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="21">
+      <c r="A69" s="10">
         <v>63</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="12">
         <v>10502</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="12">
         <v>5900</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="12">
         <v>16402</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="21">
+      <c r="A70" s="10">
         <v>64</v>
       </c>
-      <c r="B70" s="23">
+      <c r="B70" s="12">
         <v>10800</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="12">
         <v>6038</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="12">
         <v>16838</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="21">
+      <c r="A71" s="10">
         <v>65</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="12">
         <v>11096</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="12">
         <v>6176</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="12">
         <v>17272</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="21">
+      <c r="A72" s="10">
         <v>66</v>
       </c>
-      <c r="B72" s="23">
+      <c r="B72" s="12">
         <v>11394</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="12">
         <v>6314</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="12">
         <v>17708</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="21">
+      <c r="A73" s="10">
         <v>67</v>
       </c>
-      <c r="B73" s="23">
+      <c r="B73" s="12">
         <v>11690</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="12">
         <v>6454</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="12">
         <v>18144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="21">
+      <c r="A74" s="10">
         <v>68</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="12">
         <v>11988</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="12">
         <v>6592</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="12">
         <v>18580</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="21">
+      <c r="A75" s="10">
         <v>69</v>
       </c>
-      <c r="B75" s="23">
+      <c r="B75" s="12">
         <v>12284</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="12">
         <v>6730</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="12">
         <v>19014</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="21">
+      <c r="A76" s="10">
         <v>70</v>
       </c>
-      <c r="B76" s="23">
+      <c r="B76" s="12">
         <v>12582</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="12">
         <v>6868</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="12">
         <v>19450</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="21">
+      <c r="A77" s="10">
         <v>71</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="12">
         <v>12878</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="12">
         <v>7006</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="12">
         <v>19884</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="21">
+      <c r="A78" s="10">
         <v>72</v>
       </c>
-      <c r="B78" s="23">
+      <c r="B78" s="12">
         <v>13176</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="12">
         <v>7144</v>
       </c>
-      <c r="D78" s="23">
+      <c r="D78" s="12">
         <v>20320</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="21">
+      <c r="A79" s="10">
         <v>73</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="12">
         <v>13472</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="12">
         <v>7282</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="12">
         <v>20754</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="21">
+      <c r="A80" s="10">
         <v>74</v>
       </c>
-      <c r="B80" s="23">
+      <c r="B80" s="12">
         <v>13770</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="12">
         <v>7420</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="12">
         <v>21190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="21">
+      <c r="A81" s="10">
         <v>75</v>
       </c>
-      <c r="B81" s="23">
+      <c r="B81" s="12">
         <v>14066</v>
       </c>
-      <c r="C81" s="23">
+      <c r="C81" s="12">
         <v>7560</v>
       </c>
-      <c r="D81" s="23">
+      <c r="D81" s="12">
         <v>21626</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="21">
+      <c r="A82" s="10">
         <v>76</v>
       </c>
-      <c r="B82" s="23">
+      <c r="B82" s="12">
         <v>14364</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="12">
         <v>7698</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="12">
         <v>22062</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="21">
+      <c r="A83" s="10">
         <v>77</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="12">
         <v>14660</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="12">
         <v>7836</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="12">
         <v>22496</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="21">
+      <c r="A84" s="10">
         <v>78</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="12">
         <v>14958</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="12">
         <v>7974</v>
       </c>
-      <c r="D84" s="23">
+      <c r="D84" s="12">
         <v>22932</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="21">
+      <c r="A85" s="10">
         <v>79</v>
       </c>
-      <c r="B85" s="23">
+      <c r="B85" s="12">
         <v>15254</v>
       </c>
-      <c r="C85" s="23">
+      <c r="C85" s="12">
         <v>8112</v>
       </c>
-      <c r="D85" s="23">
+      <c r="D85" s="12">
         <v>23366</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="21">
+      <c r="A86" s="10">
         <v>80</v>
       </c>
-      <c r="B86" s="23">
+      <c r="B86" s="12">
         <v>15552</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="12">
         <v>8250</v>
       </c>
-      <c r="D86" s="23">
+      <c r="D86" s="12">
         <v>23802</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="21">
+      <c r="A87" s="10">
         <v>81</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="12">
         <v>15848</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="12">
         <v>8388</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="12">
         <v>24236</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="21">
+      <c r="A88" s="10">
         <v>82</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="12">
         <v>16146</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="12">
         <v>8526</v>
       </c>
-      <c r="D88" s="23">
+      <c r="D88" s="12">
         <v>24672</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="21">
+      <c r="A89" s="10">
         <v>83</v>
       </c>
-      <c r="B89" s="23">
+      <c r="B89" s="12">
         <v>16442</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="12">
         <v>8664</v>
       </c>
-      <c r="D89" s="23">
+      <c r="D89" s="12">
         <v>25106</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="21">
+      <c r="A90" s="10">
         <v>84</v>
       </c>
-      <c r="B90" s="23">
+      <c r="B90" s="12">
         <v>16740</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="12">
         <v>8804</v>
       </c>
-      <c r="D90" s="23">
+      <c r="D90" s="12">
         <v>25544</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="21">
+      <c r="A91" s="10">
         <v>85</v>
       </c>
-      <c r="B91" s="23">
+      <c r="B91" s="12">
         <v>17036</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="12">
         <v>8942</v>
       </c>
-      <c r="D91" s="23">
+      <c r="D91" s="12">
         <v>25978</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="21">
+      <c r="A92" s="10">
         <v>86</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="12">
         <v>17334</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="12">
         <v>9080</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="12">
         <v>26414</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="21">
+      <c r="A93" s="10">
         <v>87</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="12">
         <v>17630</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="12">
         <v>9218</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D93" s="12">
         <v>26848</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="21">
+      <c r="A94" s="10">
         <v>88</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="12">
         <v>17928</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="12">
         <v>9356</v>
       </c>
-      <c r="D94" s="23">
+      <c r="D94" s="12">
         <v>27284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="21">
+      <c r="A95" s="10">
         <v>89</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="12">
         <v>18224</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="12">
         <v>9494</v>
       </c>
-      <c r="D95" s="23">
+      <c r="D95" s="12">
         <v>27718</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="21">
+      <c r="A96" s="10">
         <v>90</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="12">
         <v>18522</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="12">
         <v>9632</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="12">
         <v>28154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="21">
+      <c r="A97" s="10">
         <v>91</v>
       </c>
-      <c r="B97" s="23">
+      <c r="B97" s="12">
         <v>18818</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="12">
         <v>9770</v>
       </c>
-      <c r="D97" s="23">
+      <c r="D97" s="12">
         <v>28588</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="21">
+      <c r="A98" s="10">
         <v>92</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="12">
         <v>19116</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="12">
         <v>9910</v>
       </c>
-      <c r="D98" s="23">
+      <c r="D98" s="12">
         <v>29026</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="21">
+      <c r="A99" s="10">
         <v>93</v>
       </c>
-      <c r="B99" s="23">
+      <c r="B99" s="12">
         <v>19412</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="12">
         <v>10048</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="12">
         <v>29460</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="21">
+      <c r="A100" s="10">
         <v>94</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="12">
         <v>19710</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="12">
         <v>10186</v>
       </c>
-      <c r="D100" s="23">
+      <c r="D100" s="12">
         <v>29896</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="21">
+      <c r="A101" s="10">
         <v>95</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="12">
         <v>20006</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="12">
         <v>10324</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="12">
         <v>30330</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="21">
+      <c r="A102" s="10">
         <v>96</v>
       </c>
-      <c r="B102" s="23">
+      <c r="B102" s="12">
         <v>20304</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="12">
         <v>10462</v>
       </c>
-      <c r="D102" s="23">
+      <c r="D102" s="12">
         <v>30766</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="21">
+      <c r="A103" s="10">
         <v>97</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="12">
         <v>20600</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="12">
         <v>10600</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="12">
         <v>31200</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="21">
+      <c r="A104" s="10">
         <v>98</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="12">
         <v>20898</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="12">
         <v>10738</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="12">
         <v>31636</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="21">
+      <c r="A105" s="10">
         <v>99</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="12">
         <v>21194</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="12">
         <v>10876</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="12">
         <v>32070</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="21">
+      <c r="A106" s="10">
         <v>100</v>
       </c>
-      <c r="B106" s="23">
+      <c r="B106" s="12">
         <v>21492</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="12">
         <v>11016</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="12">
         <v>32508</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="21">
+      <c r="A107" s="10">
         <v>101</v>
       </c>
-      <c r="B107" s="23">
+      <c r="B107" s="12">
         <v>21788</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="12">
         <v>11160</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="12">
         <v>32948</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="21">
+      <c r="A108" s="10">
         <v>102</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="12">
         <v>22086</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="12">
         <v>11304</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="12">
         <v>33390</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="21">
+      <c r="A109" s="10">
         <v>103</v>
       </c>
-      <c r="B109" s="23">
+      <c r="B109" s="12">
         <v>22382</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="12">
         <v>11450</v>
       </c>
-      <c r="D109" s="23">
+      <c r="D109" s="12">
         <v>33832</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="21">
+      <c r="A110" s="10">
         <v>104</v>
       </c>
-      <c r="B110" s="23">
+      <c r="B110" s="12">
         <v>22680</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="12">
         <v>11594</v>
       </c>
-      <c r="D110" s="23">
+      <c r="D110" s="12">
         <v>34274</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="21">
+      <c r="A111" s="10">
         <v>105</v>
       </c>
-      <c r="B111" s="23">
+      <c r="B111" s="12">
         <v>22976</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="12">
         <v>11738</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D111" s="12">
         <v>34714</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="21">
+      <c r="A112" s="10">
         <v>106</v>
       </c>
-      <c r="B112" s="23">
+      <c r="B112" s="12">
         <v>23274</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="12">
         <v>11884</v>
       </c>
-      <c r="D112" s="23">
+      <c r="D112" s="12">
         <v>35158</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="21">
+      <c r="A113" s="10">
         <v>107</v>
       </c>
-      <c r="B113" s="23">
+      <c r="B113" s="12">
         <v>23570</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="12">
         <v>12028</v>
       </c>
-      <c r="D113" s="23">
+      <c r="D113" s="12">
         <v>35598</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="21">
+      <c r="A114" s="10">
         <v>108</v>
       </c>
-      <c r="B114" s="23">
+      <c r="B114" s="12">
         <v>23868</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="12">
         <v>12172</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D114" s="12">
         <v>36040</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="21">
+      <c r="A115" s="10">
         <v>109</v>
       </c>
-      <c r="B115" s="23">
+      <c r="B115" s="12">
         <v>24164</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="12">
         <v>12318</v>
       </c>
-      <c r="D115" s="23">
+      <c r="D115" s="12">
         <v>36482</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="21">
+      <c r="A116" s="10">
         <v>110</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="12">
         <v>24462</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="12">
         <v>12462</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="12">
         <v>36924</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="21">
+      <c r="A117" s="10">
         <v>111</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="12">
         <v>24758</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="12">
         <v>12606</v>
       </c>
-      <c r="D117" s="23">
+      <c r="D117" s="12">
         <v>37364</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="21">
+      <c r="A118" s="10">
         <v>112</v>
       </c>
-      <c r="B118" s="23">
+      <c r="B118" s="12">
         <v>25056</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="12">
         <v>12752</v>
       </c>
-      <c r="D118" s="23">
+      <c r="D118" s="12">
         <v>37808</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="21">
+      <c r="A119" s="10">
         <v>113</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B119" s="12">
         <v>25352</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="12">
         <v>12896</v>
       </c>
-      <c r="D119" s="23">
+      <c r="D119" s="12">
         <v>38248</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="21">
+      <c r="A120" s="10">
         <v>114</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B120" s="12">
         <v>25650</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="12">
         <v>13042</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="12">
         <v>38692</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="21">
+      <c r="A121" s="10">
         <v>115</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="12">
         <v>25946</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="12">
         <v>13186</v>
       </c>
-      <c r="D121" s="23">
+      <c r="D121" s="12">
         <v>39132</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="21">
+      <c r="A122" s="10">
         <v>116</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B122" s="12">
         <v>26244</v>
       </c>
-      <c r="C122" s="23">
+      <c r="C122" s="12">
         <v>13330</v>
       </c>
-      <c r="D122" s="23">
+      <c r="D122" s="12">
         <v>39574</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="21">
+      <c r="A123" s="10">
         <v>117</v>
       </c>
-      <c r="B123" s="23">
+      <c r="B123" s="12">
         <v>26540</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="12">
         <v>13476</v>
       </c>
-      <c r="D123" s="23">
+      <c r="D123" s="12">
         <v>40016</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="21">
+      <c r="A124" s="10">
         <v>118</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B124" s="12">
         <v>26838</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="12">
         <v>13620</v>
       </c>
-      <c r="D124" s="23">
+      <c r="D124" s="12">
         <v>40458</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="21">
+      <c r="A125" s="10">
         <v>119</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" s="12">
         <v>27134</v>
       </c>
-      <c r="C125" s="23">
+      <c r="C125" s="12">
         <v>13764</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D125" s="12">
         <v>40898</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="21">
+      <c r="A126" s="10">
         <v>120</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="12">
         <v>27432</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="12">
         <v>13910</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="12">
         <v>41342</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="21">
+      <c r="A127" s="10">
         <v>121</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B127" s="12">
         <v>27728</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="12">
         <v>14054</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="12">
         <v>41782</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="21">
+      <c r="A128" s="10">
         <v>122</v>
       </c>
-      <c r="B128" s="23">
+      <c r="B128" s="12">
         <v>28026</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="12">
         <v>14198</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D128" s="12">
         <v>42224</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="21">
+      <c r="A129" s="10">
         <v>123</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" s="12">
         <v>28322</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="12">
         <v>14344</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="12">
         <v>42666</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="21">
+      <c r="A130" s="10">
         <v>124</v>
       </c>
-      <c r="B130" s="23">
+      <c r="B130" s="12">
         <v>28620</v>
       </c>
-      <c r="C130" s="23">
+      <c r="C130" s="12">
         <v>14488</v>
       </c>
-      <c r="D130" s="23">
+      <c r="D130" s="12">
         <v>43108</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="21">
+      <c r="A131" s="10">
         <v>125</v>
       </c>
-      <c r="B131" s="23">
+      <c r="B131" s="12">
         <v>28916</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="12">
         <v>14634</v>
       </c>
-      <c r="D131" s="23">
+      <c r="D131" s="12">
         <v>43550</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="21">
+      <c r="A132" s="10">
         <v>126</v>
       </c>
-      <c r="B132" s="23">
+      <c r="B132" s="12">
         <v>29214</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C132" s="12">
         <v>14778</v>
       </c>
-      <c r="D132" s="23">
+      <c r="D132" s="12">
         <v>43992</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="21">
+      <c r="A133" s="10">
         <v>127</v>
       </c>
-      <c r="B133" s="23">
+      <c r="B133" s="12">
         <v>29510</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C133" s="12">
         <v>14922</v>
       </c>
-      <c r="D133" s="23">
+      <c r="D133" s="12">
         <v>44432</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="21">
+      <c r="A134" s="10">
         <v>128</v>
       </c>
-      <c r="B134" s="23">
+      <c r="B134" s="12">
         <v>29808</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="12">
         <v>15068</v>
       </c>
-      <c r="D134" s="23">
+      <c r="D134" s="12">
         <v>44876</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="21">
+      <c r="A135" s="10">
         <v>129</v>
       </c>
-      <c r="B135" s="23">
+      <c r="B135" s="12">
         <v>30104</v>
       </c>
-      <c r="C135" s="23">
+      <c r="C135" s="12">
         <v>15212</v>
       </c>
-      <c r="D135" s="23">
+      <c r="D135" s="12">
         <v>45316</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="21">
+      <c r="A136" s="10">
         <v>130</v>
       </c>
-      <c r="B136" s="23">
+      <c r="B136" s="12">
         <v>30402</v>
       </c>
-      <c r="C136" s="23">
+      <c r="C136" s="12">
         <v>15356</v>
       </c>
-      <c r="D136" s="23">
+      <c r="D136" s="12">
         <v>45758</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="21">
+      <c r="A137" s="10">
         <v>131</v>
       </c>
-      <c r="B137" s="23">
+      <c r="B137" s="12">
         <v>30698</v>
       </c>
-      <c r="C137" s="23">
+      <c r="C137" s="12">
         <v>15502</v>
       </c>
-      <c r="D137" s="23">
+      <c r="D137" s="12">
         <v>46200</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="21">
+      <c r="A138" s="10">
         <v>132</v>
       </c>
-      <c r="B138" s="23">
+      <c r="B138" s="12">
         <v>30996</v>
       </c>
-      <c r="C138" s="23">
+      <c r="C138" s="12">
         <v>15646</v>
       </c>
-      <c r="D138" s="23">
+      <c r="D138" s="12">
         <v>46642</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="21">
+      <c r="A139" s="10">
         <v>133</v>
       </c>
-      <c r="B139" s="23">
+      <c r="B139" s="12">
         <v>31292</v>
       </c>
-      <c r="C139" s="23">
+      <c r="C139" s="12">
         <v>15790</v>
       </c>
-      <c r="D139" s="23">
+      <c r="D139" s="12">
         <v>47082</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="21">
+      <c r="A140" s="10">
         <v>134</v>
       </c>
-      <c r="B140" s="23">
+      <c r="B140" s="12">
         <v>31590</v>
       </c>
-      <c r="C140" s="23">
+      <c r="C140" s="12">
         <v>15936</v>
       </c>
-      <c r="D140" s="23">
+      <c r="D140" s="12">
         <v>47526</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="21">
+      <c r="A141" s="10">
         <v>135</v>
       </c>
-      <c r="B141" s="23">
+      <c r="B141" s="12">
         <v>31886</v>
       </c>
-      <c r="C141" s="23">
+      <c r="C141" s="12">
         <v>16080</v>
       </c>
-      <c r="D141" s="23">
+      <c r="D141" s="12">
         <v>47966</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="21">
+      <c r="A142" s="10">
         <v>136</v>
       </c>
-      <c r="B142" s="23">
+      <c r="B142" s="12">
         <v>32184</v>
       </c>
-      <c r="C142" s="23">
+      <c r="C142" s="12">
         <v>16224</v>
       </c>
-      <c r="D142" s="23">
+      <c r="D142" s="12">
         <v>48408</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="21">
+      <c r="A143" s="10">
         <v>137</v>
       </c>
-      <c r="B143" s="23">
+      <c r="B143" s="12">
         <v>32480</v>
       </c>
-      <c r="C143" s="23">
+      <c r="C143" s="12">
         <v>16370</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="12">
         <v>48850</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="21">
+      <c r="A144" s="10">
         <v>138</v>
       </c>
-      <c r="B144" s="23">
+      <c r="B144" s="12">
         <v>32778</v>
       </c>
-      <c r="C144" s="23">
+      <c r="C144" s="12">
         <v>16514</v>
       </c>
-      <c r="D144" s="23">
+      <c r="D144" s="12">
         <v>49292</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="21">
+      <c r="A145" s="10">
         <v>139</v>
       </c>
-      <c r="B145" s="23">
+      <c r="B145" s="12">
         <v>33074</v>
       </c>
-      <c r="C145" s="23">
+      <c r="C145" s="12">
         <v>16660</v>
       </c>
-      <c r="D145" s="23">
+      <c r="D145" s="12">
         <v>49734</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="21">
+      <c r="A146" s="10">
         <v>140</v>
       </c>
-      <c r="B146" s="23">
+      <c r="B146" s="12">
         <v>33372</v>
       </c>
-      <c r="C146" s="23">
+      <c r="C146" s="12">
         <v>16804</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D146" s="12">
         <v>50176</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="21">
+      <c r="A147" s="10">
         <v>141</v>
       </c>
-      <c r="B147" s="23">
+      <c r="B147" s="12">
         <v>33668</v>
       </c>
-      <c r="C147" s="23">
+      <c r="C147" s="12">
         <v>16948</v>
       </c>
-      <c r="D147" s="23">
+      <c r="D147" s="12">
         <v>50616</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="21">
+      <c r="A148" s="10">
         <v>142</v>
       </c>
-      <c r="B148" s="23">
+      <c r="B148" s="12">
         <v>33966</v>
       </c>
-      <c r="C148" s="23">
+      <c r="C148" s="12">
         <v>17094</v>
       </c>
-      <c r="D148" s="23">
+      <c r="D148" s="12">
         <v>51060</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="21">
+      <c r="A149" s="10">
         <v>143</v>
       </c>
-      <c r="B149" s="23">
+      <c r="B149" s="12">
         <v>34262</v>
       </c>
-      <c r="C149" s="23">
+      <c r="C149" s="12">
         <v>17238</v>
       </c>
-      <c r="D149" s="23">
+      <c r="D149" s="12">
         <v>51500</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="21">
+      <c r="A150" s="10">
         <v>144</v>
       </c>
-      <c r="B150" s="23">
+      <c r="B150" s="12">
         <v>34560</v>
       </c>
-      <c r="C150" s="23">
+      <c r="C150" s="12">
         <v>17382</v>
       </c>
-      <c r="D150" s="23">
+      <c r="D150" s="12">
         <v>51942</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="21">
+      <c r="A151" s="10">
         <v>145</v>
       </c>
-      <c r="B151" s="23">
+      <c r="B151" s="12">
         <v>34856</v>
       </c>
-      <c r="C151" s="23">
+      <c r="C151" s="12">
         <v>17528</v>
       </c>
-      <c r="D151" s="23">
+      <c r="D151" s="12">
         <v>52384</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="21">
+      <c r="A152" s="10">
         <v>146</v>
       </c>
-      <c r="B152" s="23">
+      <c r="B152" s="12">
         <v>35154</v>
       </c>
-      <c r="C152" s="23">
+      <c r="C152" s="12">
         <v>17672</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="12">
         <v>52826</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="21">
+      <c r="A153" s="10">
         <v>147</v>
       </c>
-      <c r="B153" s="23">
+      <c r="B153" s="12">
         <v>35450</v>
       </c>
-      <c r="C153" s="23">
+      <c r="C153" s="12">
         <v>17816</v>
       </c>
-      <c r="D153" s="23">
+      <c r="D153" s="12">
         <v>53266</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="21">
+      <c r="A154" s="10">
         <v>148</v>
       </c>
-      <c r="B154" s="23">
+      <c r="B154" s="12">
         <v>35748</v>
       </c>
-      <c r="C154" s="23">
+      <c r="C154" s="12">
         <v>17962</v>
       </c>
-      <c r="D154" s="23">
+      <c r="D154" s="12">
         <v>53710</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="21">
+      <c r="A155" s="10">
         <v>149</v>
       </c>
-      <c r="B155" s="23">
+      <c r="B155" s="12">
         <v>36044</v>
       </c>
-      <c r="C155" s="23">
+      <c r="C155" s="12">
         <v>18106</v>
       </c>
-      <c r="D155" s="23">
+      <c r="D155" s="12">
         <v>54150</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="21">
+      <c r="A156" s="10">
         <v>150</v>
       </c>
-      <c r="B156" s="23">
+      <c r="B156" s="12">
         <v>36342</v>
       </c>
-      <c r="C156" s="23">
+      <c r="C156" s="12">
         <v>18252</v>
       </c>
-      <c r="D156" s="23">
+      <c r="D156" s="12">
         <v>54594</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="21">
+      <c r="A157" s="10">
         <v>151</v>
       </c>
-      <c r="B157" s="23">
+      <c r="B157" s="12">
         <v>36638</v>
       </c>
-      <c r="C157" s="23">
+      <c r="C157" s="12">
         <v>18396</v>
       </c>
-      <c r="D157" s="23">
+      <c r="D157" s="12">
         <v>55034</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="21">
+      <c r="A158" s="10">
         <v>152</v>
       </c>
-      <c r="B158" s="23">
+      <c r="B158" s="12">
         <v>36936</v>
       </c>
-      <c r="C158" s="23">
+      <c r="C158" s="12">
         <v>18540</v>
       </c>
-      <c r="D158" s="23">
+      <c r="D158" s="12">
         <v>55476</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="21">
+      <c r="A159" s="10">
         <v>153</v>
       </c>
-      <c r="B159" s="23">
+      <c r="B159" s="12">
         <v>37232</v>
       </c>
-      <c r="C159" s="23">
+      <c r="C159" s="12">
         <v>18686</v>
       </c>
-      <c r="D159" s="23">
+      <c r="D159" s="12">
         <v>55918</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="21">
+      <c r="A160" s="10">
         <v>154</v>
       </c>
-      <c r="B160" s="23">
+      <c r="B160" s="12">
         <v>37530</v>
       </c>
-      <c r="C160" s="23">
+      <c r="C160" s="12">
         <v>18830</v>
       </c>
-      <c r="D160" s="23">
+      <c r="D160" s="12">
         <v>56360</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="21">
+      <c r="A161" s="10">
         <v>155</v>
       </c>
-      <c r="B161" s="23">
+      <c r="B161" s="12">
         <v>37826</v>
       </c>
-      <c r="C161" s="23">
+      <c r="C161" s="12">
         <v>18974</v>
       </c>
-      <c r="D161" s="23">
+      <c r="D161" s="12">
         <v>56800</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="21">
+      <c r="A162" s="10">
         <v>156</v>
       </c>
-      <c r="B162" s="23">
+      <c r="B162" s="12">
         <v>38124</v>
       </c>
-      <c r="C162" s="23">
+      <c r="C162" s="12">
         <v>19120</v>
       </c>
-      <c r="D162" s="23">
+      <c r="D162" s="12">
         <v>57244</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="21">
+      <c r="A163" s="10">
         <v>157</v>
       </c>
-      <c r="B163" s="23">
+      <c r="B163" s="12">
         <v>38420</v>
       </c>
-      <c r="C163" s="23">
+      <c r="C163" s="12">
         <v>19264</v>
       </c>
-      <c r="D163" s="23">
+      <c r="D163" s="12">
         <v>57684</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="21">
+      <c r="A164" s="10">
         <v>158</v>
       </c>
-      <c r="B164" s="23">
+      <c r="B164" s="12">
         <v>38718</v>
       </c>
-      <c r="C164" s="23">
+      <c r="C164" s="12">
         <v>19408</v>
       </c>
-      <c r="D164" s="23">
+      <c r="D164" s="12">
         <v>58126</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="21">
+      <c r="A165" s="10">
         <v>159</v>
       </c>
-      <c r="B165" s="23">
+      <c r="B165" s="12">
         <v>39014</v>
       </c>
-      <c r="C165" s="23">
+      <c r="C165" s="12">
         <v>19554</v>
       </c>
-      <c r="D165" s="23">
+      <c r="D165" s="12">
         <v>58568</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="21">
+      <c r="A166" s="10">
         <v>160</v>
       </c>
-      <c r="B166" s="23">
+      <c r="B166" s="12">
         <v>39312</v>
       </c>
-      <c r="C166" s="23">
+      <c r="C166" s="12">
         <v>19698</v>
       </c>
-      <c r="D166" s="23">
+      <c r="D166" s="12">
         <v>59010</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="21">
+      <c r="A167" s="10">
         <v>161</v>
       </c>
-      <c r="B167" s="23">
+      <c r="B167" s="12">
         <v>39608</v>
       </c>
-      <c r="C167" s="23">
+      <c r="C167" s="12">
         <v>19842</v>
       </c>
-      <c r="D167" s="23">
+      <c r="D167" s="12">
         <v>59450</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="21">
+      <c r="A168" s="10">
         <v>162</v>
       </c>
-      <c r="B168" s="23">
+      <c r="B168" s="12">
         <v>39906</v>
       </c>
-      <c r="C168" s="23">
+      <c r="C168" s="12">
         <v>19988</v>
       </c>
-      <c r="D168" s="23">
+      <c r="D168" s="12">
         <v>59894</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="21">
+      <c r="A169" s="10">
         <v>163</v>
       </c>
-      <c r="B169" s="23">
+      <c r="B169" s="12">
         <v>40202</v>
       </c>
-      <c r="C169" s="23">
+      <c r="C169" s="12">
         <v>20132</v>
       </c>
-      <c r="D169" s="23">
+      <c r="D169" s="12">
         <v>60334</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="21">
+      <c r="A170" s="10">
         <v>164</v>
       </c>
-      <c r="B170" s="23">
+      <c r="B170" s="12">
         <v>40500</v>
       </c>
-      <c r="C170" s="23">
+      <c r="C170" s="12">
         <v>20278</v>
       </c>
-      <c r="D170" s="23">
+      <c r="D170" s="12">
         <v>60778</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="21">
+      <c r="A171" s="10">
         <v>165</v>
       </c>
-      <c r="B171" s="23">
+      <c r="B171" s="12">
         <v>40796</v>
       </c>
-      <c r="C171" s="23">
+      <c r="C171" s="12">
         <v>20422</v>
       </c>
-      <c r="D171" s="23">
+      <c r="D171" s="12">
         <v>61218</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="21">
+      <c r="A172" s="10">
         <v>166</v>
       </c>
-      <c r="B172" s="23">
+      <c r="B172" s="12">
         <v>41094</v>
       </c>
-      <c r="C172" s="23">
+      <c r="C172" s="12">
         <v>20566</v>
       </c>
-      <c r="D172" s="23">
+      <c r="D172" s="12">
         <v>61660</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="21">
+      <c r="A173" s="10">
         <v>167</v>
       </c>
-      <c r="B173" s="23">
+      <c r="B173" s="12">
         <v>41390</v>
       </c>
-      <c r="C173" s="23">
+      <c r="C173" s="12">
         <v>20712</v>
       </c>
-      <c r="D173" s="23">
+      <c r="D173" s="12">
         <v>62102</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="21">
+      <c r="A174" s="10">
         <v>168</v>
       </c>
-      <c r="B174" s="23">
+      <c r="B174" s="12">
         <v>41688</v>
       </c>
-      <c r="C174" s="23">
+      <c r="C174" s="12">
         <v>20856</v>
       </c>
-      <c r="D174" s="23">
+      <c r="D174" s="12">
         <v>62544</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="21">
+      <c r="A175" s="10">
         <v>169</v>
       </c>
-      <c r="B175" s="23">
+      <c r="B175" s="12">
         <v>41984</v>
       </c>
-      <c r="C175" s="23">
+      <c r="C175" s="12">
         <v>21000</v>
       </c>
-      <c r="D175" s="23">
+      <c r="D175" s="12">
         <v>62984</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="21">
+      <c r="A176" s="10">
         <v>170</v>
       </c>
-      <c r="B176" s="23">
+      <c r="B176" s="12">
         <v>42282</v>
       </c>
-      <c r="C176" s="23">
+      <c r="C176" s="12">
         <v>21146</v>
       </c>
-      <c r="D176" s="23">
+      <c r="D176" s="12">
         <v>63428</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="21">
+      <c r="A177" s="10">
         <v>171</v>
       </c>
-      <c r="B177" s="23">
+      <c r="B177" s="12">
         <v>42578</v>
       </c>
-      <c r="C177" s="23">
+      <c r="C177" s="12">
         <v>21290</v>
       </c>
-      <c r="D177" s="23">
+      <c r="D177" s="12">
         <v>63868</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="21">
+      <c r="A178" s="10">
         <v>172</v>
       </c>
-      <c r="B178" s="23">
+      <c r="B178" s="12">
         <v>42876</v>
       </c>
-      <c r="C178" s="23">
+      <c r="C178" s="12">
         <v>21434</v>
       </c>
-      <c r="D178" s="23">
+      <c r="D178" s="12">
         <v>64310</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="21">
+      <c r="A179" s="10">
         <v>173</v>
       </c>
-      <c r="B179" s="23">
+      <c r="B179" s="12">
         <v>43172</v>
       </c>
-      <c r="C179" s="23">
+      <c r="C179" s="12">
         <v>21580</v>
       </c>
-      <c r="D179" s="23">
+      <c r="D179" s="12">
         <v>64752</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="21">
+      <c r="A180" s="10">
         <v>174</v>
       </c>
-      <c r="B180" s="23">
+      <c r="B180" s="12">
         <v>43470</v>
       </c>
-      <c r="C180" s="23">
+      <c r="C180" s="12">
         <v>21724</v>
       </c>
-      <c r="D180" s="23">
+      <c r="D180" s="12">
         <v>65194</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="21">
+      <c r="A181" s="10">
         <v>175</v>
       </c>
-      <c r="B181" s="23">
+      <c r="B181" s="12">
         <v>43766</v>
       </c>
-      <c r="C181" s="23">
+      <c r="C181" s="12">
         <v>21870</v>
       </c>
-      <c r="D181" s="23">
+      <c r="D181" s="12">
         <v>65636</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="21">
+      <c r="A182" s="10">
         <v>176</v>
       </c>
-      <c r="B182" s="23">
+      <c r="B182" s="12">
         <v>44064</v>
       </c>
-      <c r="C182" s="23">
+      <c r="C182" s="12">
         <v>22014</v>
       </c>
-      <c r="D182" s="23">
+      <c r="D182" s="12">
         <v>66078</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="21">
+      <c r="A183" s="10">
         <v>177</v>
       </c>
-      <c r="B183" s="23">
+      <c r="B183" s="12">
         <v>44360</v>
       </c>
-      <c r="C183" s="23">
+      <c r="C183" s="12">
         <v>22158</v>
       </c>
-      <c r="D183" s="23">
+      <c r="D183" s="12">
         <v>66518</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="21">
+      <c r="A184" s="10">
         <v>178</v>
       </c>
-      <c r="B184" s="23">
+      <c r="B184" s="12">
         <v>44658</v>
       </c>
-      <c r="C184" s="23">
+      <c r="C184" s="12">
         <v>22304</v>
       </c>
-      <c r="D184" s="23">
+      <c r="D184" s="12">
         <v>66962</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="21">
+      <c r="A185" s="10">
         <v>179</v>
       </c>
-      <c r="B185" s="23">
+      <c r="B185" s="12">
         <v>44954</v>
       </c>
-      <c r="C185" s="23">
+      <c r="C185" s="12">
         <v>22448</v>
       </c>
-      <c r="D185" s="23">
+      <c r="D185" s="12">
         <v>67402</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="21">
+      <c r="A186" s="10">
         <v>180</v>
       </c>
-      <c r="B186" s="23">
+      <c r="B186" s="12">
         <v>45252</v>
       </c>
-      <c r="C186" s="23">
+      <c r="C186" s="12">
         <v>22592</v>
       </c>
-      <c r="D186" s="23">
+      <c r="D186" s="12">
         <v>67844</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="21">
+      <c r="A187" s="10">
         <v>181</v>
       </c>
-      <c r="B187" s="23">
+      <c r="B187" s="12">
         <v>45548</v>
       </c>
-      <c r="C187" s="23">
+      <c r="C187" s="12">
         <v>22738</v>
       </c>
-      <c r="D187" s="23">
+      <c r="D187" s="12">
         <v>68286</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="21">
+      <c r="A188" s="10">
         <v>182</v>
       </c>
-      <c r="B188" s="23">
+      <c r="B188" s="12">
         <v>45846</v>
       </c>
-      <c r="C188" s="23">
+      <c r="C188" s="12">
         <v>22882</v>
       </c>
-      <c r="D188" s="23">
+      <c r="D188" s="12">
         <v>68728</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="21">
+      <c r="A189" s="10">
         <v>183</v>
       </c>
-      <c r="B189" s="23">
+      <c r="B189" s="12">
         <v>46142</v>
       </c>
-      <c r="C189" s="23">
+      <c r="C189" s="12">
         <v>23026</v>
       </c>
-      <c r="D189" s="23">
+      <c r="D189" s="12">
         <v>69168</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="21">
+      <c r="A190" s="10">
         <v>184</v>
       </c>
-      <c r="B190" s="23">
+      <c r="B190" s="12">
         <v>46440</v>
       </c>
-      <c r="C190" s="23">
+      <c r="C190" s="12">
         <v>23172</v>
       </c>
-      <c r="D190" s="23">
+      <c r="D190" s="12">
         <v>69612</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="21">
+      <c r="A191" s="10">
         <v>185</v>
       </c>
-      <c r="B191" s="23">
+      <c r="B191" s="12">
         <v>46736</v>
       </c>
-      <c r="C191" s="23">
+      <c r="C191" s="12">
         <v>23316</v>
       </c>
-      <c r="D191" s="23">
+      <c r="D191" s="12">
         <v>70052</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="21">
+      <c r="A192" s="10">
         <v>186</v>
       </c>
-      <c r="B192" s="23">
+      <c r="B192" s="12">
         <v>47034</v>
       </c>
-      <c r="C192" s="23">
+      <c r="C192" s="12">
         <v>23460</v>
       </c>
-      <c r="D192" s="23">
+      <c r="D192" s="12">
         <v>70494</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="21">
+      <c r="A193" s="10">
         <v>187</v>
       </c>
-      <c r="B193" s="23">
+      <c r="B193" s="12">
         <v>47330</v>
       </c>
-      <c r="C193" s="23">
+      <c r="C193" s="12">
         <v>23606</v>
       </c>
-      <c r="D193" s="23">
+      <c r="D193" s="12">
         <v>70936</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="21">
+      <c r="A194" s="10">
         <v>188</v>
       </c>
-      <c r="B194" s="23">
+      <c r="B194" s="12">
         <v>47628</v>
       </c>
-      <c r="C194" s="23">
+      <c r="C194" s="12">
         <v>23750</v>
       </c>
-      <c r="D194" s="23">
+      <c r="D194" s="12">
         <v>71378</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="21">
+      <c r="A195" s="10">
         <v>189</v>
       </c>
-      <c r="B195" s="23">
+      <c r="B195" s="12">
         <v>47924</v>
       </c>
-      <c r="C195" s="23">
+      <c r="C195" s="12">
         <v>23896</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="12">
         <v>71820</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="21">
+      <c r="A196" s="10">
         <v>190</v>
       </c>
-      <c r="B196" s="23">
+      <c r="B196" s="12">
         <v>48222</v>
       </c>
-      <c r="C196" s="23">
+      <c r="C196" s="12">
         <v>24040</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="12">
         <v>72262</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="21">
+      <c r="A197" s="10">
         <v>191</v>
       </c>
-      <c r="B197" s="23">
+      <c r="B197" s="12">
         <v>48518</v>
       </c>
-      <c r="C197" s="23">
+      <c r="C197" s="12">
         <v>24184</v>
       </c>
-      <c r="D197" s="23">
+      <c r="D197" s="12">
         <v>72702</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="21">
+      <c r="A198" s="10">
         <v>192</v>
       </c>
-      <c r="B198" s="23">
+      <c r="B198" s="12">
         <v>48816</v>
       </c>
-      <c r="C198" s="23">
+      <c r="C198" s="12">
         <v>24330</v>
       </c>
-      <c r="D198" s="23">
+      <c r="D198" s="12">
         <v>73146</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="21">
+      <c r="A199" s="10">
         <v>193</v>
       </c>
-      <c r="B199" s="23">
+      <c r="B199" s="12">
         <v>49112</v>
       </c>
-      <c r="C199" s="23">
+      <c r="C199" s="12">
         <v>24474</v>
       </c>
-      <c r="D199" s="23">
+      <c r="D199" s="12">
         <v>73586</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="21">
+      <c r="A200" s="10">
         <v>194</v>
       </c>
-      <c r="B200" s="23">
+      <c r="B200" s="12">
         <v>49410</v>
       </c>
-      <c r="C200" s="23">
+      <c r="C200" s="12">
         <v>24618</v>
       </c>
-      <c r="D200" s="23">
+      <c r="D200" s="12">
         <v>74028</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="21">
+      <c r="A201" s="10">
         <v>195</v>
       </c>
-      <c r="B201" s="23">
+      <c r="B201" s="12">
         <v>49706</v>
       </c>
-      <c r="C201" s="23">
+      <c r="C201" s="12">
         <v>24764</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="12">
         <v>74470</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="21">
+      <c r="A202" s="10">
         <v>196</v>
       </c>
-      <c r="B202" s="23">
+      <c r="B202" s="12">
         <v>50004</v>
       </c>
-      <c r="C202" s="23">
+      <c r="C202" s="12">
         <v>24908</v>
       </c>
-      <c r="D202" s="23">
+      <c r="D202" s="12">
         <v>74912</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="21">
+      <c r="A203" s="10">
         <v>197</v>
       </c>
-      <c r="B203" s="23">
+      <c r="B203" s="12">
         <v>50300</v>
       </c>
-      <c r="C203" s="23">
+      <c r="C203" s="12">
         <v>25052</v>
       </c>
-      <c r="D203" s="23">
+      <c r="D203" s="12">
         <v>75352</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="21">
+      <c r="A204" s="10">
         <v>198</v>
       </c>
-      <c r="B204" s="23">
+      <c r="B204" s="12">
         <v>50598</v>
       </c>
-      <c r="C204" s="23">
+      <c r="C204" s="12">
         <v>25198</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="12">
         <v>75796</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="21">
+      <c r="A205" s="10">
         <v>199</v>
       </c>
-      <c r="B205" s="23">
+      <c r="B205" s="12">
         <v>50894</v>
       </c>
-      <c r="C205" s="23">
+      <c r="C205" s="12">
         <v>25342</v>
       </c>
-      <c r="D205" s="23">
+      <c r="D205" s="12">
         <v>76236</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="21">
+      <c r="A206" s="10">
         <v>200</v>
       </c>
-      <c r="B206" s="23">
+      <c r="B206" s="12">
         <v>51192</v>
       </c>
-      <c r="C206" s="23">
+      <c r="C206" s="12">
         <v>25488</v>
       </c>
-      <c r="D206" s="23">
+      <c r="D206" s="12">
         <v>76680</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="21">
+      <c r="A207" s="10">
         <v>201</v>
       </c>
-      <c r="B207" s="23">
+      <c r="B207" s="12">
         <v>51488</v>
       </c>
-      <c r="C207" s="23">
+      <c r="C207" s="12">
         <v>25676</v>
       </c>
-      <c r="D207" s="23">
+      <c r="D207" s="12">
         <v>77164</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="21">
+      <c r="A208" s="10">
         <v>202</v>
       </c>
-      <c r="B208" s="23">
+      <c r="B208" s="12">
         <v>51786</v>
       </c>
-      <c r="C208" s="23">
+      <c r="C208" s="12">
         <v>25866</v>
       </c>
-      <c r="D208" s="23">
+      <c r="D208" s="12">
         <v>77652</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="21">
+      <c r="A209" s="10">
         <v>203</v>
       </c>
-      <c r="B209" s="23">
+      <c r="B209" s="12">
         <v>52082</v>
       </c>
-      <c r="C209" s="23">
+      <c r="C209" s="12">
         <v>26054</v>
       </c>
-      <c r="D209" s="23">
+      <c r="D209" s="12">
         <v>78136</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="21">
+      <c r="A210" s="10">
         <v>204</v>
       </c>
-      <c r="B210" s="23">
+      <c r="B210" s="12">
         <v>52380</v>
       </c>
-      <c r="C210" s="23">
+      <c r="C210" s="12">
         <v>26244</v>
       </c>
-      <c r="D210" s="23">
+      <c r="D210" s="12">
         <v>78624</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="21">
+      <c r="A211" s="10">
         <v>205</v>
       </c>
-      <c r="B211" s="23">
+      <c r="B211" s="12">
         <v>52676</v>
       </c>
-      <c r="C211" s="23">
+      <c r="C211" s="12">
         <v>26432</v>
       </c>
-      <c r="D211" s="23">
+      <c r="D211" s="12">
         <v>79108</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="21">
+      <c r="A212" s="10">
         <v>206</v>
       </c>
-      <c r="B212" s="23">
+      <c r="B212" s="12">
         <v>52974</v>
       </c>
-      <c r="C212" s="23">
+      <c r="C212" s="12">
         <v>26622</v>
       </c>
-      <c r="D212" s="23">
+      <c r="D212" s="12">
         <v>79596</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="21">
+      <c r="A213" s="10">
         <v>207</v>
       </c>
-      <c r="B213" s="23">
+      <c r="B213" s="12">
         <v>53270</v>
       </c>
-      <c r="C213" s="23">
+      <c r="C213" s="12">
         <v>26810</v>
       </c>
-      <c r="D213" s="23">
+      <c r="D213" s="12">
         <v>80080</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="21">
+      <c r="A214" s="10">
         <v>208</v>
       </c>
-      <c r="B214" s="23">
+      <c r="B214" s="12">
         <v>53568</v>
       </c>
-      <c r="C214" s="23">
+      <c r="C214" s="12">
         <v>27000</v>
       </c>
-      <c r="D214" s="23">
+      <c r="D214" s="12">
         <v>80568</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="21">
+      <c r="A215" s="10">
         <v>209</v>
       </c>
-      <c r="B215" s="23">
+      <c r="B215" s="12">
         <v>53864</v>
       </c>
-      <c r="C215" s="23">
+      <c r="C215" s="12">
         <v>27188</v>
       </c>
-      <c r="D215" s="23">
+      <c r="D215" s="12">
         <v>81052</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="21">
+      <c r="A216" s="10">
         <v>210</v>
       </c>
-      <c r="B216" s="23">
+      <c r="B216" s="12">
         <v>54162</v>
       </c>
-      <c r="C216" s="23">
+      <c r="C216" s="12">
         <v>27378</v>
       </c>
-      <c r="D216" s="23">
+      <c r="D216" s="12">
         <v>81540</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="21">
+      <c r="A217" s="10">
         <v>211</v>
       </c>
-      <c r="B217" s="23">
+      <c r="B217" s="12">
         <v>54458</v>
       </c>
-      <c r="C217" s="23">
+      <c r="C217" s="12">
         <v>27566</v>
       </c>
-      <c r="D217" s="23">
+      <c r="D217" s="12">
         <v>82024</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="21">
+      <c r="A218" s="10">
         <v>212</v>
       </c>
-      <c r="B218" s="23">
+      <c r="B218" s="12">
         <v>54756</v>
       </c>
-      <c r="C218" s="23">
+      <c r="C218" s="12">
         <v>27756</v>
       </c>
-      <c r="D218" s="23">
+      <c r="D218" s="12">
         <v>82512</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="21">
+      <c r="A219" s="10">
         <v>213</v>
       </c>
-      <c r="B219" s="23">
+      <c r="B219" s="12">
         <v>55052</v>
       </c>
-      <c r="C219" s="23">
+      <c r="C219" s="12">
         <v>27944</v>
       </c>
-      <c r="D219" s="23">
+      <c r="D219" s="12">
         <v>82996</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220" s="21">
+      <c r="A220" s="10">
         <v>214</v>
       </c>
-      <c r="B220" s="23">
+      <c r="B220" s="12">
         <v>55350</v>
       </c>
-      <c r="C220" s="23">
+      <c r="C220" s="12">
         <v>28134</v>
       </c>
-      <c r="D220" s="23">
+      <c r="D220" s="12">
         <v>83484</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="21">
+      <c r="A221" s="10">
         <v>215</v>
       </c>
-      <c r="B221" s="23">
+      <c r="B221" s="12">
         <v>55646</v>
       </c>
-      <c r="C221" s="23">
+      <c r="C221" s="12">
         <v>28322</v>
       </c>
-      <c r="D221" s="23">
+      <c r="D221" s="12">
         <v>83968</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="21">
+      <c r="A222" s="10">
         <v>216</v>
       </c>
-      <c r="B222" s="23">
+      <c r="B222" s="12">
         <v>55944</v>
       </c>
-      <c r="C222" s="23">
+      <c r="C222" s="12">
         <v>28512</v>
       </c>
-      <c r="D222" s="23">
+      <c r="D222" s="12">
         <v>84456</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="21">
+      <c r="A223" s="10">
         <v>217</v>
       </c>
-      <c r="B223" s="23">
+      <c r="B223" s="12">
         <v>56240</v>
       </c>
-      <c r="C223" s="23">
+      <c r="C223" s="12">
         <v>28700</v>
       </c>
-      <c r="D223" s="23">
+      <c r="D223" s="12">
         <v>84940</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="21">
+      <c r="A224" s="10">
         <v>218</v>
       </c>
-      <c r="B224" s="23">
+      <c r="B224" s="12">
         <v>56538</v>
       </c>
-      <c r="C224" s="23">
+      <c r="C224" s="12">
         <v>28890</v>
       </c>
-      <c r="D224" s="23">
+      <c r="D224" s="12">
         <v>85428</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225" s="21">
+      <c r="A225" s="10">
         <v>219</v>
       </c>
-      <c r="B225" s="23">
+      <c r="B225" s="12">
         <v>56834</v>
       </c>
-      <c r="C225" s="23">
+      <c r="C225" s="12">
         <v>29078</v>
       </c>
-      <c r="D225" s="23">
+      <c r="D225" s="12">
         <v>85912</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="21">
+      <c r="A226" s="10">
         <v>220</v>
       </c>
-      <c r="B226" s="23">
+      <c r="B226" s="12">
         <v>57132</v>
       </c>
-      <c r="C226" s="23">
+      <c r="C226" s="12">
         <v>29268</v>
       </c>
-      <c r="D226" s="23">
+      <c r="D226" s="12">
         <v>86400</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="21">
+      <c r="A227" s="10">
         <v>230</v>
       </c>
-      <c r="B227" s="23">
+      <c r="B227" s="12">
         <v>60102</v>
       </c>
-      <c r="C227" s="23">
+      <c r="C227" s="12">
         <v>31158</v>
       </c>
-      <c r="D227" s="23">
+      <c r="D227" s="12">
         <v>91260</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="21">
+      <c r="A228" s="10">
         <v>240</v>
       </c>
-      <c r="B228" s="23">
+      <c r="B228" s="12">
         <v>63072</v>
       </c>
-      <c r="C228" s="23">
+      <c r="C228" s="12">
         <v>33048</v>
       </c>
-      <c r="D228" s="23">
+      <c r="D228" s="12">
         <v>96120</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229" s="21">
+      <c r="A229" s="10">
         <v>250</v>
       </c>
-      <c r="B229" s="23">
+      <c r="B229" s="12">
         <v>66042</v>
       </c>
-      <c r="C229" s="23">
+      <c r="C229" s="12">
         <v>34938</v>
       </c>
-      <c r="D229" s="23">
+      <c r="D229" s="12">
         <v>100980</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230" s="21">
+      <c r="A230" s="10">
         <v>260</v>
       </c>
-      <c r="B230" s="23">
+      <c r="B230" s="12">
         <v>69012</v>
       </c>
-      <c r="C230" s="23">
+      <c r="C230" s="12">
         <v>36828</v>
       </c>
-      <c r="D230" s="23">
+      <c r="D230" s="12">
         <v>105840</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231" s="21">
+      <c r="A231" s="10">
         <v>270</v>
       </c>
-      <c r="B231" s="23">
+      <c r="B231" s="12">
         <v>71982</v>
       </c>
-      <c r="C231" s="23">
+      <c r="C231" s="12">
         <v>38718</v>
       </c>
-      <c r="D231" s="23">
+      <c r="D231" s="12">
         <v>110700</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="21">
+      <c r="A232" s="10">
         <v>280</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232" s="12">
         <v>74952</v>
       </c>
-      <c r="C232" s="23">
+      <c r="C232" s="12">
         <v>40608</v>
       </c>
-      <c r="D232" s="23">
+      <c r="D232" s="12">
         <v>115560</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="21">
+      <c r="A233" s="10">
         <v>290</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233" s="12">
         <v>77922</v>
       </c>
-      <c r="C233" s="23">
+      <c r="C233" s="12">
         <v>42498</v>
       </c>
-      <c r="D233" s="23">
+      <c r="D233" s="12">
         <v>120420</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A234" s="21">
+      <c r="A234" s="10">
         <v>300</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234" s="12">
         <v>80892</v>
       </c>
-      <c r="C234" s="23">
+      <c r="C234" s="12">
         <v>44388</v>
       </c>
-      <c r="D234" s="23">
+      <c r="D234" s="12">
         <v>125280</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A235" s="21">
+      <c r="A235" s="10">
         <v>350</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235" s="12">
         <v>95742</v>
       </c>
-      <c r="C235" s="23">
+      <c r="C235" s="12">
         <v>53838</v>
       </c>
-      <c r="D235" s="23">
+      <c r="D235" s="12">
         <v>149580</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A236" s="21">
+      <c r="A236" s="10">
         <v>400</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236" s="12">
         <v>110592</v>
       </c>
-      <c r="C236" s="23">
+      <c r="C236" s="12">
         <v>63288</v>
       </c>
-      <c r="D236" s="23">
+      <c r="D236" s="12">
         <v>173880</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="21">
+      <c r="A237" s="10">
         <v>450</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237" s="12">
         <v>125442</v>
       </c>
-      <c r="C237" s="23">
+      <c r="C237" s="12">
         <v>73656</v>
       </c>
-      <c r="D237" s="23">
+      <c r="D237" s="12">
         <v>199098</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="21">
+      <c r="A238" s="10">
         <v>500</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238" s="12">
         <v>140292</v>
       </c>
-      <c r="C238" s="23">
+      <c r="C238" s="12">
         <v>84024</v>
       </c>
-      <c r="D238" s="23">
+      <c r="D238" s="12">
         <v>224316</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="23">
+      <c r="A239" s="12">
         <v>1000</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239" s="12">
         <v>288792</v>
       </c>
-      <c r="C239" s="23">
+      <c r="C239" s="12">
         <v>187704</v>
       </c>
-      <c r="D239" s="23">
+      <c r="D239" s="12">
         <v>476496</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240" s="23">
+      <c r="A240" s="12">
         <v>2000</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240" s="12">
         <v>585792</v>
       </c>
-      <c r="C240" s="23">
+      <c r="C240" s="12">
         <v>408024</v>
       </c>
-      <c r="D240" s="23">
+      <c r="D240" s="12">
         <v>993816</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="23">
+      <c r="A241" s="12">
         <v>5000</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241" s="12">
         <v>1476792</v>
       </c>
-      <c r="C241" s="23">
+      <c r="C241" s="12">
         <v>1104624</v>
       </c>
-      <c r="D241" s="23">
+      <c r="D241" s="12">
         <v>2581416</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="23">
+      <c r="A242" s="12">
         <v>10000</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242" s="12">
         <v>2961792</v>
       </c>
-      <c r="C242" s="23">
+      <c r="C242" s="12">
         <v>2265624</v>
       </c>
-      <c r="D242" s="23">
+      <c r="D242" s="12">
         <v>5227416</v>
       </c>
     </row>
@@ -4608,157 +4770,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G33"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
-    <col min="4" max="6" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="1"/>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22">
+        <v>1019</v>
+      </c>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22">
+        <v>1540</v>
+      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22">
+        <v>514</v>
+      </c>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="12">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17">
+        <f>SUM(D10:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
         <f>SUM(E10:E15)</f>
+        <v>3073</v>
+      </c>
+      <c r="F16" s="27">
+        <f>(D16-E16)</f>
+        <v>-3073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="28">
+        <v>42000</v>
+      </c>
+      <c r="D22" s="29">
+        <f>F16</f>
+        <v>-3073</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="31">
+        <f>E22</f>
         <v>0</v>
       </c>
-      <c r="F16" s="16">
-        <f>SUM(F10:F15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="17">
-        <v>42000</v>
-      </c>
-      <c r="E22" s="18">
-        <f>F16</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="25">
-        <f>F22</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="2" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4767,15 +4984,15 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{7EE386E8-7FB3-45B3-BF68-892B2E41A71E}">
-            <xm:f>NOT(ISERROR(SEARCH($E$26="返金額",E26)))</xm:f>
-            <xm:f>$E$26="返金額"</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($D$26="返金額",D26)))</xm:f>
+            <xm:f>$D$26="返金額"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF0070C0"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E26:G26</xm:sqref>
+          <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/water_fee_table.xlsx
+++ b/water_fee_table.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a_my_\Documents\water_cost_calculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F25CE5-C15A-4325-A87C-C03DDCDEF3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C07EC8-8F05-4816-9505-0C60399851E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="H30年度" sheetId="7" r:id="rId1"/>
+    <sheet name="H30年度" sheetId="6" r:id="rId1"/>
     <sheet name="水道料金マスタ" sheetId="5" r:id="rId2"/>
     <sheet name="印刷テンプレート" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>号</t>
     <rPh sb="0" eb="1">
@@ -214,77 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>免除額</t>
-    <rPh sb="0" eb="3">
-      <t>メンジョガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>差引額</t>
-    <rPh sb="0" eb="3">
-      <t>サシヒキガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※鹿児島市水道局より、新型コロナウィルス感染症対策の一環として、6月～11月までの</t>
-    <rPh sb="1" eb="5">
-      <t>カゴシマシ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>スイドウキョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シンガタ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>カンセンショウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イッカン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　 上水道の基本料金を免除とする通知がありました。</t>
-    <rPh sb="2" eb="5">
-      <t>ジョウスイドウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>キホンリョウキン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>メンジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　 詳細は別紙をご覧ください。</t>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中村花子</t>
     <rPh sb="0" eb="2">
       <t>ナカムラ</t>
@@ -330,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,14 +327,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -429,6 +350,28 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -600,204 +543,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1139,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C37E79-451D-4D07-869E-F639F36903F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FA81C-4C07-4B62-AC5F-DFF349907A33}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -1151,233 +989,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21">
         <v>3</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="21">
         <v>5</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="21">
         <v>6</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="21">
         <v>7</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="21">
         <v>8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="21">
         <v>9</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="21">
         <v>10</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="21">
         <v>11</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="21">
         <v>12</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="21">
         <v>1</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="21">
         <v>2</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="21">
         <v>301</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21">
         <v>143</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="21">
         <v>147</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="21">
         <v>147</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="21">
         <v>155</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="21">
         <v>173</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="21">
         <v>191</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="21">
         <v>217</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="21">
         <v>228</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="21">
         <v>246</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="21">
         <v>262</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="21">
         <v>279</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="21">
         <v>298</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="21">
         <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="21">
         <v>302</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="21">
         <v>726</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="21">
         <v>730</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="21">
         <v>735</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="21">
         <v>741</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="21">
         <v>747</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="21">
         <v>752</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="21">
         <v>754</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="21">
         <v>755</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="21">
         <v>756</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="21">
         <v>759</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="21">
         <v>763</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="21">
         <v>767</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="21">
         <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="21">
         <v>303</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="21">
         <v>565</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="21">
         <v>566</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="21">
         <v>567</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="21">
         <v>568</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="21">
         <v>569</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="21">
         <v>569</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="21">
         <v>570</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="21">
         <v>570</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="21">
         <v>571</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="21">
         <v>572</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="21">
         <v>573</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="21">
         <v>574</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="21">
         <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="21">
         <v>305</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="21">
         <v>626</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="21">
         <v>631</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="21">
         <v>638</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="21">
         <v>645</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="21">
         <v>651</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="21">
         <v>658</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="21">
         <v>664</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="21">
         <v>670</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="21">
         <v>671</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="21">
         <v>685</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="21">
         <v>693</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="21">
         <v>701</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="21">
         <v>709</v>
       </c>
     </row>
@@ -1405,3356 +1243,3356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="21">
         <v>0</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="23">
         <v>1512</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="21">
         <v>842</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="23">
         <v>2354</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="23">
         <v>1560</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="21">
         <v>886</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="23">
         <v>2446</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="23">
         <v>1608</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="21">
         <v>930</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="23">
         <v>2538</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="23">
         <v>1656</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="21">
         <v>974</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="23">
         <v>2630</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="23">
         <v>1706</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="23">
         <v>1018</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="23">
         <v>2724</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="21">
         <v>5</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="23">
         <v>1754</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="23">
         <v>1062</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="23">
         <v>2816</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="21">
         <v>6</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="23">
         <v>1802</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="23">
         <v>1108</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="23">
         <v>2910</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="21">
         <v>7</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="23">
         <v>1852</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="23">
         <v>1152</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="23">
         <v>3004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="21">
         <v>8</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="23">
         <v>1900</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="23">
         <v>1196</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="23">
         <v>3096</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="21">
         <v>9</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="23">
         <v>1948</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="23">
         <v>1240</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="23">
         <v>3188</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="21">
         <v>10</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="23">
         <v>1998</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="23">
         <v>1284</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="23">
         <v>3282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="21">
         <v>11</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="23">
         <v>2046</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="23">
         <v>1328</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="23">
         <v>3374</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="A18" s="21">
         <v>12</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="23">
         <v>2094</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="23">
         <v>1372</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="23">
         <v>3466</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="21">
         <v>13</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="23">
         <v>2142</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="23">
         <v>1418</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="23">
         <v>3560</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="23">
         <v>2192</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="23">
         <v>1462</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="23">
         <v>3654</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="23">
         <v>2240</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="23">
         <v>1506</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="23">
         <v>3746</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="21">
         <v>16</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="23">
         <v>2288</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="23">
         <v>1550</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="23">
         <v>3838</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="A23" s="21">
         <v>17</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="23">
         <v>2338</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="23">
         <v>1594</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="23">
         <v>3932</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="A24" s="21">
         <v>18</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="23">
         <v>2386</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="23">
         <v>1638</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="23">
         <v>4024</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="21">
         <v>19</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="23">
         <v>2434</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="23">
         <v>1682</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="23">
         <v>4116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+      <c r="A26" s="21">
         <v>20</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="23">
         <v>2484</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="23">
         <v>1728</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="23">
         <v>4212</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+      <c r="A27" s="21">
         <v>21</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="23">
         <v>2612</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="23">
         <v>1820</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="23">
         <v>4432</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="21">
         <v>22</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="23">
         <v>2742</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="23">
         <v>1914</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="23">
         <v>4656</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="21">
         <v>23</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="23">
         <v>2872</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="23">
         <v>2008</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="23">
         <v>4880</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="21">
         <v>24</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="23">
         <v>3002</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="23">
         <v>2102</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="23">
         <v>5104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="21">
         <v>25</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="23">
         <v>3132</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="23">
         <v>2196</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="23">
         <v>5328</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="21">
         <v>26</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="23">
         <v>3260</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="23">
         <v>2290</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="23">
         <v>5550</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="21">
         <v>27</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="23">
         <v>3390</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="23">
         <v>2384</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="23">
         <v>5774</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="21">
         <v>28</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="23">
         <v>3520</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="23">
         <v>2478</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="23">
         <v>5998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
+      <c r="A35" s="21">
         <v>29</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="23">
         <v>3650</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="23">
         <v>2572</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="23">
         <v>6222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10">
+      <c r="A36" s="21">
         <v>30</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="23">
         <v>3780</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="23">
         <v>2666</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="23">
         <v>6446</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="10">
+      <c r="A37" s="21">
         <v>31</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="23">
         <v>3908</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="23">
         <v>2760</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="23">
         <v>6668</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="10">
+      <c r="A38" s="21">
         <v>32</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="23">
         <v>4038</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="23">
         <v>2854</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="23">
         <v>6892</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="10">
+      <c r="A39" s="21">
         <v>33</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="23">
         <v>4168</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="23">
         <v>2948</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="23">
         <v>7116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="10">
+      <c r="A40" s="21">
         <v>34</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="23">
         <v>4298</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="23">
         <v>3042</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="23">
         <v>7340</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="10">
+      <c r="A41" s="21">
         <v>35</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="23">
         <v>4428</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="23">
         <v>3136</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="23">
         <v>7564</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="10">
+      <c r="A42" s="21">
         <v>36</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="23">
         <v>4556</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="23">
         <v>3230</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="23">
         <v>7786</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="10">
+      <c r="A43" s="21">
         <v>37</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="23">
         <v>4686</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="23">
         <v>3324</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="23">
         <v>8010</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="10">
+      <c r="A44" s="21">
         <v>38</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="23">
         <v>4816</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="23">
         <v>3418</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="23">
         <v>8234</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="10">
+      <c r="A45" s="21">
         <v>39</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="23">
         <v>4946</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="23">
         <v>3512</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="23">
         <v>8458</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="10">
+      <c r="A46" s="21">
         <v>40</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="23">
         <v>5076</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="23">
         <v>3606</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="23">
         <v>8682</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="10">
+      <c r="A47" s="21">
         <v>41</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="23">
         <v>5302</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="23">
         <v>3700</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="23">
         <v>9002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="10">
+      <c r="A48" s="21">
         <v>42</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="23">
         <v>5528</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="23">
         <v>3794</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="23">
         <v>9322</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="10">
+      <c r="A49" s="21">
         <v>43</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="23">
         <v>5756</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="23">
         <v>3888</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="23">
         <v>9644</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="10">
+      <c r="A50" s="21">
         <v>44</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="23">
         <v>5982</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="23">
         <v>3982</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="23">
         <v>9964</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="10">
+      <c r="A51" s="21">
         <v>45</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="23">
         <v>6210</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="23">
         <v>4076</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="23">
         <v>10286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="10">
+      <c r="A52" s="21">
         <v>46</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="23">
         <v>6436</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="23">
         <v>4170</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="23">
         <v>10606</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="10">
+      <c r="A53" s="21">
         <v>47</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="23">
         <v>6662</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="23">
         <v>4264</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="23">
         <v>10926</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="10">
+      <c r="A54" s="21">
         <v>48</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="23">
         <v>6890</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="23">
         <v>4358</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="23">
         <v>11248</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="10">
+      <c r="A55" s="21">
         <v>49</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="23">
         <v>7116</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="23">
         <v>4452</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="23">
         <v>11568</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="10">
+      <c r="A56" s="21">
         <v>50</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="23">
         <v>7344</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="23">
         <v>4546</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="23">
         <v>11890</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="10">
+      <c r="A57" s="21">
         <v>51</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="23">
         <v>7570</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="23">
         <v>4640</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="23">
         <v>12210</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="10">
+      <c r="A58" s="21">
         <v>52</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="23">
         <v>7796</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="23">
         <v>4734</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="23">
         <v>12530</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="10">
+      <c r="A59" s="21">
         <v>53</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="23">
         <v>8024</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="23">
         <v>4828</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="23">
         <v>12852</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="10">
+      <c r="A60" s="21">
         <v>54</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="23">
         <v>8250</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="23">
         <v>4922</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="23">
         <v>13172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="10">
+      <c r="A61" s="21">
         <v>55</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="23">
         <v>8478</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="23">
         <v>5016</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="23">
         <v>13494</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="10">
+      <c r="A62" s="21">
         <v>56</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="23">
         <v>8704</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="23">
         <v>5110</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="23">
         <v>13814</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="10">
+      <c r="A63" s="21">
         <v>57</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="23">
         <v>8930</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="23">
         <v>5204</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="23">
         <v>14134</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="10">
+      <c r="A64" s="21">
         <v>58</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="23">
         <v>9158</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="23">
         <v>5298</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="23">
         <v>14456</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="10">
+      <c r="A65" s="21">
         <v>59</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="23">
         <v>9384</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="23">
         <v>5392</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="23">
         <v>14776</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="10">
+      <c r="A66" s="21">
         <v>60</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="23">
         <v>9612</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="23">
         <v>5486</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="23">
         <v>15098</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="10">
+      <c r="A67" s="21">
         <v>61</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="23">
         <v>9908</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="23">
         <v>5624</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="23">
         <v>15532</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="10">
+      <c r="A68" s="21">
         <v>62</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="23">
         <v>10206</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="23">
         <v>5762</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="23">
         <v>15968</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="10">
+      <c r="A69" s="21">
         <v>63</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="23">
         <v>10502</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="23">
         <v>5900</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="23">
         <v>16402</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="10">
+      <c r="A70" s="21">
         <v>64</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="23">
         <v>10800</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="23">
         <v>6038</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="23">
         <v>16838</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="10">
+      <c r="A71" s="21">
         <v>65</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="23">
         <v>11096</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="23">
         <v>6176</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="23">
         <v>17272</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="10">
+      <c r="A72" s="21">
         <v>66</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="23">
         <v>11394</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="23">
         <v>6314</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="23">
         <v>17708</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="10">
+      <c r="A73" s="21">
         <v>67</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="23">
         <v>11690</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="23">
         <v>6454</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="23">
         <v>18144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="10">
+      <c r="A74" s="21">
         <v>68</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="23">
         <v>11988</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="23">
         <v>6592</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="23">
         <v>18580</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="10">
+      <c r="A75" s="21">
         <v>69</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="23">
         <v>12284</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="23">
         <v>6730</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="23">
         <v>19014</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="10">
+      <c r="A76" s="21">
         <v>70</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="23">
         <v>12582</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="23">
         <v>6868</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="23">
         <v>19450</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="10">
+      <c r="A77" s="21">
         <v>71</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="23">
         <v>12878</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="23">
         <v>7006</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="23">
         <v>19884</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="10">
+      <c r="A78" s="21">
         <v>72</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="23">
         <v>13176</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="23">
         <v>7144</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="23">
         <v>20320</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="10">
+      <c r="A79" s="21">
         <v>73</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="23">
         <v>13472</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="23">
         <v>7282</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="23">
         <v>20754</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="10">
+      <c r="A80" s="21">
         <v>74</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="23">
         <v>13770</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="23">
         <v>7420</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="23">
         <v>21190</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="10">
+      <c r="A81" s="21">
         <v>75</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="23">
         <v>14066</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="23">
         <v>7560</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="23">
         <v>21626</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="10">
+      <c r="A82" s="21">
         <v>76</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="23">
         <v>14364</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="23">
         <v>7698</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="23">
         <v>22062</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="10">
+      <c r="A83" s="21">
         <v>77</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="23">
         <v>14660</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="23">
         <v>7836</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="23">
         <v>22496</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="10">
+      <c r="A84" s="21">
         <v>78</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="23">
         <v>14958</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="23">
         <v>7974</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="23">
         <v>22932</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="10">
+      <c r="A85" s="21">
         <v>79</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="23">
         <v>15254</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="23">
         <v>8112</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="23">
         <v>23366</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="10">
+      <c r="A86" s="21">
         <v>80</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="23">
         <v>15552</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="23">
         <v>8250</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="23">
         <v>23802</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="10">
+      <c r="A87" s="21">
         <v>81</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="23">
         <v>15848</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="23">
         <v>8388</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="23">
         <v>24236</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="10">
+      <c r="A88" s="21">
         <v>82</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="23">
         <v>16146</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="23">
         <v>8526</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="23">
         <v>24672</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="10">
+      <c r="A89" s="21">
         <v>83</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="23">
         <v>16442</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="23">
         <v>8664</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="23">
         <v>25106</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="10">
+      <c r="A90" s="21">
         <v>84</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="23">
         <v>16740</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="23">
         <v>8804</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="23">
         <v>25544</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="10">
+      <c r="A91" s="21">
         <v>85</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="23">
         <v>17036</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="23">
         <v>8942</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="23">
         <v>25978</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="10">
+      <c r="A92" s="21">
         <v>86</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="23">
         <v>17334</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="23">
         <v>9080</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="23">
         <v>26414</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="10">
+      <c r="A93" s="21">
         <v>87</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="23">
         <v>17630</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="23">
         <v>9218</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="23">
         <v>26848</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="10">
+      <c r="A94" s="21">
         <v>88</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="23">
         <v>17928</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="23">
         <v>9356</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="23">
         <v>27284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="10">
+      <c r="A95" s="21">
         <v>89</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="23">
         <v>18224</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="23">
         <v>9494</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="23">
         <v>27718</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="10">
+      <c r="A96" s="21">
         <v>90</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="23">
         <v>18522</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="23">
         <v>9632</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="23">
         <v>28154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="10">
+      <c r="A97" s="21">
         <v>91</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="23">
         <v>18818</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="23">
         <v>9770</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="23">
         <v>28588</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="10">
+      <c r="A98" s="21">
         <v>92</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="23">
         <v>19116</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="23">
         <v>9910</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="23">
         <v>29026</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="10">
+      <c r="A99" s="21">
         <v>93</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="23">
         <v>19412</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="23">
         <v>10048</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="23">
         <v>29460</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="10">
+      <c r="A100" s="21">
         <v>94</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="23">
         <v>19710</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="23">
         <v>10186</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="23">
         <v>29896</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="10">
+      <c r="A101" s="21">
         <v>95</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="23">
         <v>20006</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="23">
         <v>10324</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="23">
         <v>30330</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="10">
+      <c r="A102" s="21">
         <v>96</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="23">
         <v>20304</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="23">
         <v>10462</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="23">
         <v>30766</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="10">
+      <c r="A103" s="21">
         <v>97</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="23">
         <v>20600</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="23">
         <v>10600</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="23">
         <v>31200</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="10">
+      <c r="A104" s="21">
         <v>98</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="23">
         <v>20898</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="23">
         <v>10738</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="23">
         <v>31636</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="10">
+      <c r="A105" s="21">
         <v>99</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="23">
         <v>21194</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="23">
         <v>10876</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="23">
         <v>32070</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="10">
+      <c r="A106" s="21">
         <v>100</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="23">
         <v>21492</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="23">
         <v>11016</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="23">
         <v>32508</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="10">
+      <c r="A107" s="21">
         <v>101</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="23">
         <v>21788</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="23">
         <v>11160</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="23">
         <v>32948</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="10">
+      <c r="A108" s="21">
         <v>102</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="23">
         <v>22086</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="23">
         <v>11304</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="23">
         <v>33390</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="10">
+      <c r="A109" s="21">
         <v>103</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="23">
         <v>22382</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="23">
         <v>11450</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="23">
         <v>33832</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="10">
+      <c r="A110" s="21">
         <v>104</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="23">
         <v>22680</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="23">
         <v>11594</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="23">
         <v>34274</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="10">
+      <c r="A111" s="21">
         <v>105</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="23">
         <v>22976</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="23">
         <v>11738</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="23">
         <v>34714</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="10">
+      <c r="A112" s="21">
         <v>106</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="23">
         <v>23274</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="23">
         <v>11884</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="23">
         <v>35158</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="10">
+      <c r="A113" s="21">
         <v>107</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="23">
         <v>23570</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="23">
         <v>12028</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="23">
         <v>35598</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="10">
+      <c r="A114" s="21">
         <v>108</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="23">
         <v>23868</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="23">
         <v>12172</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="23">
         <v>36040</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="10">
+      <c r="A115" s="21">
         <v>109</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="23">
         <v>24164</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="23">
         <v>12318</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="23">
         <v>36482</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="10">
+      <c r="A116" s="21">
         <v>110</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="23">
         <v>24462</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="23">
         <v>12462</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="23">
         <v>36924</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="10">
+      <c r="A117" s="21">
         <v>111</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="23">
         <v>24758</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="23">
         <v>12606</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="23">
         <v>37364</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="10">
+      <c r="A118" s="21">
         <v>112</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="23">
         <v>25056</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="23">
         <v>12752</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="23">
         <v>37808</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="10">
+      <c r="A119" s="21">
         <v>113</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="23">
         <v>25352</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="23">
         <v>12896</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="23">
         <v>38248</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="10">
+      <c r="A120" s="21">
         <v>114</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="23">
         <v>25650</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="23">
         <v>13042</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="23">
         <v>38692</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="10">
+      <c r="A121" s="21">
         <v>115</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="23">
         <v>25946</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="23">
         <v>13186</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="23">
         <v>39132</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="10">
+      <c r="A122" s="21">
         <v>116</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="23">
         <v>26244</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="23">
         <v>13330</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="23">
         <v>39574</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="10">
+      <c r="A123" s="21">
         <v>117</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="23">
         <v>26540</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="23">
         <v>13476</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="23">
         <v>40016</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="10">
+      <c r="A124" s="21">
         <v>118</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="23">
         <v>26838</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="23">
         <v>13620</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="23">
         <v>40458</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="10">
+      <c r="A125" s="21">
         <v>119</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="23">
         <v>27134</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="23">
         <v>13764</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="23">
         <v>40898</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="10">
+      <c r="A126" s="21">
         <v>120</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="23">
         <v>27432</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="23">
         <v>13910</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="23">
         <v>41342</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="10">
+      <c r="A127" s="21">
         <v>121</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="23">
         <v>27728</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="23">
         <v>14054</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="23">
         <v>41782</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="10">
+      <c r="A128" s="21">
         <v>122</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="23">
         <v>28026</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="23">
         <v>14198</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="23">
         <v>42224</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="10">
+      <c r="A129" s="21">
         <v>123</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="23">
         <v>28322</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="23">
         <v>14344</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="23">
         <v>42666</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="10">
+      <c r="A130" s="21">
         <v>124</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="23">
         <v>28620</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="23">
         <v>14488</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="23">
         <v>43108</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="10">
+      <c r="A131" s="21">
         <v>125</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="23">
         <v>28916</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="23">
         <v>14634</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="23">
         <v>43550</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="10">
+      <c r="A132" s="21">
         <v>126</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="23">
         <v>29214</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="23">
         <v>14778</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="23">
         <v>43992</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="10">
+      <c r="A133" s="21">
         <v>127</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="23">
         <v>29510</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="23">
         <v>14922</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="23">
         <v>44432</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="10">
+      <c r="A134" s="21">
         <v>128</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="23">
         <v>29808</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="23">
         <v>15068</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="23">
         <v>44876</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="10">
+      <c r="A135" s="21">
         <v>129</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="23">
         <v>30104</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="23">
         <v>15212</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="23">
         <v>45316</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="10">
+      <c r="A136" s="21">
         <v>130</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="23">
         <v>30402</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="23">
         <v>15356</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="23">
         <v>45758</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="10">
+      <c r="A137" s="21">
         <v>131</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="23">
         <v>30698</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="23">
         <v>15502</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="23">
         <v>46200</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="10">
+      <c r="A138" s="21">
         <v>132</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="23">
         <v>30996</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="23">
         <v>15646</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="23">
         <v>46642</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="10">
+      <c r="A139" s="21">
         <v>133</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="23">
         <v>31292</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="23">
         <v>15790</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="23">
         <v>47082</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="10">
+      <c r="A140" s="21">
         <v>134</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="23">
         <v>31590</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="23">
         <v>15936</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="23">
         <v>47526</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="10">
+      <c r="A141" s="21">
         <v>135</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="23">
         <v>31886</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="23">
         <v>16080</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="23">
         <v>47966</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="10">
+      <c r="A142" s="21">
         <v>136</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="23">
         <v>32184</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="23">
         <v>16224</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="23">
         <v>48408</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="10">
+      <c r="A143" s="21">
         <v>137</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="23">
         <v>32480</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="23">
         <v>16370</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="23">
         <v>48850</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="10">
+      <c r="A144" s="21">
         <v>138</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="23">
         <v>32778</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="23">
         <v>16514</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="23">
         <v>49292</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="10">
+      <c r="A145" s="21">
         <v>139</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="23">
         <v>33074</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="23">
         <v>16660</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="23">
         <v>49734</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="10">
+      <c r="A146" s="21">
         <v>140</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="23">
         <v>33372</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="23">
         <v>16804</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="23">
         <v>50176</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="10">
+      <c r="A147" s="21">
         <v>141</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="23">
         <v>33668</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="23">
         <v>16948</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="23">
         <v>50616</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="10">
+      <c r="A148" s="21">
         <v>142</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="23">
         <v>33966</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="23">
         <v>17094</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="23">
         <v>51060</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="10">
+      <c r="A149" s="21">
         <v>143</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="23">
         <v>34262</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="23">
         <v>17238</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="23">
         <v>51500</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="10">
+      <c r="A150" s="21">
         <v>144</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="23">
         <v>34560</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="23">
         <v>17382</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="23">
         <v>51942</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="10">
+      <c r="A151" s="21">
         <v>145</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="23">
         <v>34856</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="23">
         <v>17528</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="23">
         <v>52384</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="10">
+      <c r="A152" s="21">
         <v>146</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="23">
         <v>35154</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="23">
         <v>17672</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="23">
         <v>52826</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="10">
+      <c r="A153" s="21">
         <v>147</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="23">
         <v>35450</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="23">
         <v>17816</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="23">
         <v>53266</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="10">
+      <c r="A154" s="21">
         <v>148</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="23">
         <v>35748</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="23">
         <v>17962</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="23">
         <v>53710</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="10">
+      <c r="A155" s="21">
         <v>149</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="23">
         <v>36044</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="23">
         <v>18106</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="23">
         <v>54150</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="10">
+      <c r="A156" s="21">
         <v>150</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="23">
         <v>36342</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="23">
         <v>18252</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="23">
         <v>54594</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="10">
+      <c r="A157" s="21">
         <v>151</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="23">
         <v>36638</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="23">
         <v>18396</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="23">
         <v>55034</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="10">
+      <c r="A158" s="21">
         <v>152</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="23">
         <v>36936</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="23">
         <v>18540</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D158" s="23">
         <v>55476</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="10">
+      <c r="A159" s="21">
         <v>153</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="23">
         <v>37232</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="23">
         <v>18686</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="23">
         <v>55918</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="10">
+      <c r="A160" s="21">
         <v>154</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="23">
         <v>37530</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="23">
         <v>18830</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="23">
         <v>56360</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="10">
+      <c r="A161" s="21">
         <v>155</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="23">
         <v>37826</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="23">
         <v>18974</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="23">
         <v>56800</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="10">
+      <c r="A162" s="21">
         <v>156</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="23">
         <v>38124</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="23">
         <v>19120</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="23">
         <v>57244</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="10">
+      <c r="A163" s="21">
         <v>157</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="23">
         <v>38420</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="23">
         <v>19264</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="23">
         <v>57684</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="10">
+      <c r="A164" s="21">
         <v>158</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="23">
         <v>38718</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="23">
         <v>19408</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="23">
         <v>58126</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="10">
+      <c r="A165" s="21">
         <v>159</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="23">
         <v>39014</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="23">
         <v>19554</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="23">
         <v>58568</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="10">
+      <c r="A166" s="21">
         <v>160</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="23">
         <v>39312</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="23">
         <v>19698</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="23">
         <v>59010</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="10">
+      <c r="A167" s="21">
         <v>161</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="23">
         <v>39608</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="23">
         <v>19842</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="23">
         <v>59450</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="10">
+      <c r="A168" s="21">
         <v>162</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="23">
         <v>39906</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="23">
         <v>19988</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="23">
         <v>59894</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="10">
+      <c r="A169" s="21">
         <v>163</v>
       </c>
-      <c r="B169" s="12">
+      <c r="B169" s="23">
         <v>40202</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="23">
         <v>20132</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="23">
         <v>60334</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="10">
+      <c r="A170" s="21">
         <v>164</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B170" s="23">
         <v>40500</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="23">
         <v>20278</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="23">
         <v>60778</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="10">
+      <c r="A171" s="21">
         <v>165</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="23">
         <v>40796</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="23">
         <v>20422</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="23">
         <v>61218</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="10">
+      <c r="A172" s="21">
         <v>166</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="23">
         <v>41094</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="23">
         <v>20566</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="23">
         <v>61660</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="10">
+      <c r="A173" s="21">
         <v>167</v>
       </c>
-      <c r="B173" s="12">
+      <c r="B173" s="23">
         <v>41390</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="23">
         <v>20712</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="23">
         <v>62102</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="10">
+      <c r="A174" s="21">
         <v>168</v>
       </c>
-      <c r="B174" s="12">
+      <c r="B174" s="23">
         <v>41688</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="23">
         <v>20856</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="23">
         <v>62544</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="10">
+      <c r="A175" s="21">
         <v>169</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B175" s="23">
         <v>41984</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="23">
         <v>21000</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="23">
         <v>62984</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="10">
+      <c r="A176" s="21">
         <v>170</v>
       </c>
-      <c r="B176" s="12">
+      <c r="B176" s="23">
         <v>42282</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="23">
         <v>21146</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="23">
         <v>63428</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="10">
+      <c r="A177" s="21">
         <v>171</v>
       </c>
-      <c r="B177" s="12">
+      <c r="B177" s="23">
         <v>42578</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="23">
         <v>21290</v>
       </c>
-      <c r="D177" s="12">
+      <c r="D177" s="23">
         <v>63868</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="10">
+      <c r="A178" s="21">
         <v>172</v>
       </c>
-      <c r="B178" s="12">
+      <c r="B178" s="23">
         <v>42876</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="23">
         <v>21434</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="23">
         <v>64310</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="10">
+      <c r="A179" s="21">
         <v>173</v>
       </c>
-      <c r="B179" s="12">
+      <c r="B179" s="23">
         <v>43172</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="23">
         <v>21580</v>
       </c>
-      <c r="D179" s="12">
+      <c r="D179" s="23">
         <v>64752</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="10">
+      <c r="A180" s="21">
         <v>174</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B180" s="23">
         <v>43470</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="23">
         <v>21724</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="23">
         <v>65194</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="10">
+      <c r="A181" s="21">
         <v>175</v>
       </c>
-      <c r="B181" s="12">
+      <c r="B181" s="23">
         <v>43766</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="23">
         <v>21870</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="23">
         <v>65636</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="10">
+      <c r="A182" s="21">
         <v>176</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="23">
         <v>44064</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="23">
         <v>22014</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="23">
         <v>66078</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="10">
+      <c r="A183" s="21">
         <v>177</v>
       </c>
-      <c r="B183" s="12">
+      <c r="B183" s="23">
         <v>44360</v>
       </c>
-      <c r="C183" s="12">
+      <c r="C183" s="23">
         <v>22158</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="23">
         <v>66518</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="10">
+      <c r="A184" s="21">
         <v>178</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B184" s="23">
         <v>44658</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="23">
         <v>22304</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="23">
         <v>66962</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="10">
+      <c r="A185" s="21">
         <v>179</v>
       </c>
-      <c r="B185" s="12">
+      <c r="B185" s="23">
         <v>44954</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="23">
         <v>22448</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="23">
         <v>67402</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="10">
+      <c r="A186" s="21">
         <v>180</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="23">
         <v>45252</v>
       </c>
-      <c r="C186" s="12">
+      <c r="C186" s="23">
         <v>22592</v>
       </c>
-      <c r="D186" s="12">
+      <c r="D186" s="23">
         <v>67844</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="10">
+      <c r="A187" s="21">
         <v>181</v>
       </c>
-      <c r="B187" s="12">
+      <c r="B187" s="23">
         <v>45548</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="23">
         <v>22738</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="23">
         <v>68286</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="10">
+      <c r="A188" s="21">
         <v>182</v>
       </c>
-      <c r="B188" s="12">
+      <c r="B188" s="23">
         <v>45846</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="23">
         <v>22882</v>
       </c>
-      <c r="D188" s="12">
+      <c r="D188" s="23">
         <v>68728</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="10">
+      <c r="A189" s="21">
         <v>183</v>
       </c>
-      <c r="B189" s="12">
+      <c r="B189" s="23">
         <v>46142</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C189" s="23">
         <v>23026</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="23">
         <v>69168</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="10">
+      <c r="A190" s="21">
         <v>184</v>
       </c>
-      <c r="B190" s="12">
+      <c r="B190" s="23">
         <v>46440</v>
       </c>
-      <c r="C190" s="12">
+      <c r="C190" s="23">
         <v>23172</v>
       </c>
-      <c r="D190" s="12">
+      <c r="D190" s="23">
         <v>69612</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="10">
+      <c r="A191" s="21">
         <v>185</v>
       </c>
-      <c r="B191" s="12">
+      <c r="B191" s="23">
         <v>46736</v>
       </c>
-      <c r="C191" s="12">
+      <c r="C191" s="23">
         <v>23316</v>
       </c>
-      <c r="D191" s="12">
+      <c r="D191" s="23">
         <v>70052</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="10">
+      <c r="A192" s="21">
         <v>186</v>
       </c>
-      <c r="B192" s="12">
+      <c r="B192" s="23">
         <v>47034</v>
       </c>
-      <c r="C192" s="12">
+      <c r="C192" s="23">
         <v>23460</v>
       </c>
-      <c r="D192" s="12">
+      <c r="D192" s="23">
         <v>70494</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="10">
+      <c r="A193" s="21">
         <v>187</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="23">
         <v>47330</v>
       </c>
-      <c r="C193" s="12">
+      <c r="C193" s="23">
         <v>23606</v>
       </c>
-      <c r="D193" s="12">
+      <c r="D193" s="23">
         <v>70936</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="10">
+      <c r="A194" s="21">
         <v>188</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B194" s="23">
         <v>47628</v>
       </c>
-      <c r="C194" s="12">
+      <c r="C194" s="23">
         <v>23750</v>
       </c>
-      <c r="D194" s="12">
+      <c r="D194" s="23">
         <v>71378</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="10">
+      <c r="A195" s="21">
         <v>189</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B195" s="23">
         <v>47924</v>
       </c>
-      <c r="C195" s="12">
+      <c r="C195" s="23">
         <v>23896</v>
       </c>
-      <c r="D195" s="12">
+      <c r="D195" s="23">
         <v>71820</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="10">
+      <c r="A196" s="21">
         <v>190</v>
       </c>
-      <c r="B196" s="12">
+      <c r="B196" s="23">
         <v>48222</v>
       </c>
-      <c r="C196" s="12">
+      <c r="C196" s="23">
         <v>24040</v>
       </c>
-      <c r="D196" s="12">
+      <c r="D196" s="23">
         <v>72262</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="10">
+      <c r="A197" s="21">
         <v>191</v>
       </c>
-      <c r="B197" s="12">
+      <c r="B197" s="23">
         <v>48518</v>
       </c>
-      <c r="C197" s="12">
+      <c r="C197" s="23">
         <v>24184</v>
       </c>
-      <c r="D197" s="12">
+      <c r="D197" s="23">
         <v>72702</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="10">
+      <c r="A198" s="21">
         <v>192</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B198" s="23">
         <v>48816</v>
       </c>
-      <c r="C198" s="12">
+      <c r="C198" s="23">
         <v>24330</v>
       </c>
-      <c r="D198" s="12">
+      <c r="D198" s="23">
         <v>73146</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="10">
+      <c r="A199" s="21">
         <v>193</v>
       </c>
-      <c r="B199" s="12">
+      <c r="B199" s="23">
         <v>49112</v>
       </c>
-      <c r="C199" s="12">
+      <c r="C199" s="23">
         <v>24474</v>
       </c>
-      <c r="D199" s="12">
+      <c r="D199" s="23">
         <v>73586</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="10">
+      <c r="A200" s="21">
         <v>194</v>
       </c>
-      <c r="B200" s="12">
+      <c r="B200" s="23">
         <v>49410</v>
       </c>
-      <c r="C200" s="12">
+      <c r="C200" s="23">
         <v>24618</v>
       </c>
-      <c r="D200" s="12">
+      <c r="D200" s="23">
         <v>74028</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="10">
+      <c r="A201" s="21">
         <v>195</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B201" s="23">
         <v>49706</v>
       </c>
-      <c r="C201" s="12">
+      <c r="C201" s="23">
         <v>24764</v>
       </c>
-      <c r="D201" s="12">
+      <c r="D201" s="23">
         <v>74470</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="10">
+      <c r="A202" s="21">
         <v>196</v>
       </c>
-      <c r="B202" s="12">
+      <c r="B202" s="23">
         <v>50004</v>
       </c>
-      <c r="C202" s="12">
+      <c r="C202" s="23">
         <v>24908</v>
       </c>
-      <c r="D202" s="12">
+      <c r="D202" s="23">
         <v>74912</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="10">
+      <c r="A203" s="21">
         <v>197</v>
       </c>
-      <c r="B203" s="12">
+      <c r="B203" s="23">
         <v>50300</v>
       </c>
-      <c r="C203" s="12">
+      <c r="C203" s="23">
         <v>25052</v>
       </c>
-      <c r="D203" s="12">
+      <c r="D203" s="23">
         <v>75352</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="10">
+      <c r="A204" s="21">
         <v>198</v>
       </c>
-      <c r="B204" s="12">
+      <c r="B204" s="23">
         <v>50598</v>
       </c>
-      <c r="C204" s="12">
+      <c r="C204" s="23">
         <v>25198</v>
       </c>
-      <c r="D204" s="12">
+      <c r="D204" s="23">
         <v>75796</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="10">
+      <c r="A205" s="21">
         <v>199</v>
       </c>
-      <c r="B205" s="12">
+      <c r="B205" s="23">
         <v>50894</v>
       </c>
-      <c r="C205" s="12">
+      <c r="C205" s="23">
         <v>25342</v>
       </c>
-      <c r="D205" s="12">
+      <c r="D205" s="23">
         <v>76236</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="10">
+      <c r="A206" s="21">
         <v>200</v>
       </c>
-      <c r="B206" s="12">
+      <c r="B206" s="23">
         <v>51192</v>
       </c>
-      <c r="C206" s="12">
+      <c r="C206" s="23">
         <v>25488</v>
       </c>
-      <c r="D206" s="12">
+      <c r="D206" s="23">
         <v>76680</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="10">
+      <c r="A207" s="21">
         <v>201</v>
       </c>
-      <c r="B207" s="12">
+      <c r="B207" s="23">
         <v>51488</v>
       </c>
-      <c r="C207" s="12">
+      <c r="C207" s="23">
         <v>25676</v>
       </c>
-      <c r="D207" s="12">
+      <c r="D207" s="23">
         <v>77164</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="10">
+      <c r="A208" s="21">
         <v>202</v>
       </c>
-      <c r="B208" s="12">
+      <c r="B208" s="23">
         <v>51786</v>
       </c>
-      <c r="C208" s="12">
+      <c r="C208" s="23">
         <v>25866</v>
       </c>
-      <c r="D208" s="12">
+      <c r="D208" s="23">
         <v>77652</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="10">
+      <c r="A209" s="21">
         <v>203</v>
       </c>
-      <c r="B209" s="12">
+      <c r="B209" s="23">
         <v>52082</v>
       </c>
-      <c r="C209" s="12">
+      <c r="C209" s="23">
         <v>26054</v>
       </c>
-      <c r="D209" s="12">
+      <c r="D209" s="23">
         <v>78136</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="10">
+      <c r="A210" s="21">
         <v>204</v>
       </c>
-      <c r="B210" s="12">
+      <c r="B210" s="23">
         <v>52380</v>
       </c>
-      <c r="C210" s="12">
+      <c r="C210" s="23">
         <v>26244</v>
       </c>
-      <c r="D210" s="12">
+      <c r="D210" s="23">
         <v>78624</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="10">
+      <c r="A211" s="21">
         <v>205</v>
       </c>
-      <c r="B211" s="12">
+      <c r="B211" s="23">
         <v>52676</v>
       </c>
-      <c r="C211" s="12">
+      <c r="C211" s="23">
         <v>26432</v>
       </c>
-      <c r="D211" s="12">
+      <c r="D211" s="23">
         <v>79108</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="10">
+      <c r="A212" s="21">
         <v>206</v>
       </c>
-      <c r="B212" s="12">
+      <c r="B212" s="23">
         <v>52974</v>
       </c>
-      <c r="C212" s="12">
+      <c r="C212" s="23">
         <v>26622</v>
       </c>
-      <c r="D212" s="12">
+      <c r="D212" s="23">
         <v>79596</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="10">
+      <c r="A213" s="21">
         <v>207</v>
       </c>
-      <c r="B213" s="12">
+      <c r="B213" s="23">
         <v>53270</v>
       </c>
-      <c r="C213" s="12">
+      <c r="C213" s="23">
         <v>26810</v>
       </c>
-      <c r="D213" s="12">
+      <c r="D213" s="23">
         <v>80080</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="10">
+      <c r="A214" s="21">
         <v>208</v>
       </c>
-      <c r="B214" s="12">
+      <c r="B214" s="23">
         <v>53568</v>
       </c>
-      <c r="C214" s="12">
+      <c r="C214" s="23">
         <v>27000</v>
       </c>
-      <c r="D214" s="12">
+      <c r="D214" s="23">
         <v>80568</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="10">
+      <c r="A215" s="21">
         <v>209</v>
       </c>
-      <c r="B215" s="12">
+      <c r="B215" s="23">
         <v>53864</v>
       </c>
-      <c r="C215" s="12">
+      <c r="C215" s="23">
         <v>27188</v>
       </c>
-      <c r="D215" s="12">
+      <c r="D215" s="23">
         <v>81052</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="10">
+      <c r="A216" s="21">
         <v>210</v>
       </c>
-      <c r="B216" s="12">
+      <c r="B216" s="23">
         <v>54162</v>
       </c>
-      <c r="C216" s="12">
+      <c r="C216" s="23">
         <v>27378</v>
       </c>
-      <c r="D216" s="12">
+      <c r="D216" s="23">
         <v>81540</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="10">
+      <c r="A217" s="21">
         <v>211</v>
       </c>
-      <c r="B217" s="12">
+      <c r="B217" s="23">
         <v>54458</v>
       </c>
-      <c r="C217" s="12">
+      <c r="C217" s="23">
         <v>27566</v>
       </c>
-      <c r="D217" s="12">
+      <c r="D217" s="23">
         <v>82024</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="10">
+      <c r="A218" s="21">
         <v>212</v>
       </c>
-      <c r="B218" s="12">
+      <c r="B218" s="23">
         <v>54756</v>
       </c>
-      <c r="C218" s="12">
+      <c r="C218" s="23">
         <v>27756</v>
       </c>
-      <c r="D218" s="12">
+      <c r="D218" s="23">
         <v>82512</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A219" s="10">
+      <c r="A219" s="21">
         <v>213</v>
       </c>
-      <c r="B219" s="12">
+      <c r="B219" s="23">
         <v>55052</v>
       </c>
-      <c r="C219" s="12">
+      <c r="C219" s="23">
         <v>27944</v>
       </c>
-      <c r="D219" s="12">
+      <c r="D219" s="23">
         <v>82996</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220" s="10">
+      <c r="A220" s="21">
         <v>214</v>
       </c>
-      <c r="B220" s="12">
+      <c r="B220" s="23">
         <v>55350</v>
       </c>
-      <c r="C220" s="12">
+      <c r="C220" s="23">
         <v>28134</v>
       </c>
-      <c r="D220" s="12">
+      <c r="D220" s="23">
         <v>83484</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="10">
+      <c r="A221" s="21">
         <v>215</v>
       </c>
-      <c r="B221" s="12">
+      <c r="B221" s="23">
         <v>55646</v>
       </c>
-      <c r="C221" s="12">
+      <c r="C221" s="23">
         <v>28322</v>
       </c>
-      <c r="D221" s="12">
+      <c r="D221" s="23">
         <v>83968</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="10">
+      <c r="A222" s="21">
         <v>216</v>
       </c>
-      <c r="B222" s="12">
+      <c r="B222" s="23">
         <v>55944</v>
       </c>
-      <c r="C222" s="12">
+      <c r="C222" s="23">
         <v>28512</v>
       </c>
-      <c r="D222" s="12">
+      <c r="D222" s="23">
         <v>84456</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="10">
+      <c r="A223" s="21">
         <v>217</v>
       </c>
-      <c r="B223" s="12">
+      <c r="B223" s="23">
         <v>56240</v>
       </c>
-      <c r="C223" s="12">
+      <c r="C223" s="23">
         <v>28700</v>
       </c>
-      <c r="D223" s="12">
+      <c r="D223" s="23">
         <v>84940</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="10">
+      <c r="A224" s="21">
         <v>218</v>
       </c>
-      <c r="B224" s="12">
+      <c r="B224" s="23">
         <v>56538</v>
       </c>
-      <c r="C224" s="12">
+      <c r="C224" s="23">
         <v>28890</v>
       </c>
-      <c r="D224" s="12">
+      <c r="D224" s="23">
         <v>85428</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225" s="10">
+      <c r="A225" s="21">
         <v>219</v>
       </c>
-      <c r="B225" s="12">
+      <c r="B225" s="23">
         <v>56834</v>
       </c>
-      <c r="C225" s="12">
+      <c r="C225" s="23">
         <v>29078</v>
       </c>
-      <c r="D225" s="12">
+      <c r="D225" s="23">
         <v>85912</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="10">
+      <c r="A226" s="21">
         <v>220</v>
       </c>
-      <c r="B226" s="12">
+      <c r="B226" s="23">
         <v>57132</v>
       </c>
-      <c r="C226" s="12">
+      <c r="C226" s="23">
         <v>29268</v>
       </c>
-      <c r="D226" s="12">
+      <c r="D226" s="23">
         <v>86400</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="10">
+      <c r="A227" s="21">
         <v>230</v>
       </c>
-      <c r="B227" s="12">
+      <c r="B227" s="23">
         <v>60102</v>
       </c>
-      <c r="C227" s="12">
+      <c r="C227" s="23">
         <v>31158</v>
       </c>
-      <c r="D227" s="12">
+      <c r="D227" s="23">
         <v>91260</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="10">
+      <c r="A228" s="21">
         <v>240</v>
       </c>
-      <c r="B228" s="12">
+      <c r="B228" s="23">
         <v>63072</v>
       </c>
-      <c r="C228" s="12">
+      <c r="C228" s="23">
         <v>33048</v>
       </c>
-      <c r="D228" s="12">
+      <c r="D228" s="23">
         <v>96120</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229" s="10">
+      <c r="A229" s="21">
         <v>250</v>
       </c>
-      <c r="B229" s="12">
+      <c r="B229" s="23">
         <v>66042</v>
       </c>
-      <c r="C229" s="12">
+      <c r="C229" s="23">
         <v>34938</v>
       </c>
-      <c r="D229" s="12">
+      <c r="D229" s="23">
         <v>100980</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230" s="10">
+      <c r="A230" s="21">
         <v>260</v>
       </c>
-      <c r="B230" s="12">
+      <c r="B230" s="23">
         <v>69012</v>
       </c>
-      <c r="C230" s="12">
+      <c r="C230" s="23">
         <v>36828</v>
       </c>
-      <c r="D230" s="12">
+      <c r="D230" s="23">
         <v>105840</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231" s="10">
+      <c r="A231" s="21">
         <v>270</v>
       </c>
-      <c r="B231" s="12">
+      <c r="B231" s="23">
         <v>71982</v>
       </c>
-      <c r="C231" s="12">
+      <c r="C231" s="23">
         <v>38718</v>
       </c>
-      <c r="D231" s="12">
+      <c r="D231" s="23">
         <v>110700</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="10">
+      <c r="A232" s="21">
         <v>280</v>
       </c>
-      <c r="B232" s="12">
+      <c r="B232" s="23">
         <v>74952</v>
       </c>
-      <c r="C232" s="12">
+      <c r="C232" s="23">
         <v>40608</v>
       </c>
-      <c r="D232" s="12">
+      <c r="D232" s="23">
         <v>115560</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="10">
+      <c r="A233" s="21">
         <v>290</v>
       </c>
-      <c r="B233" s="12">
+      <c r="B233" s="23">
         <v>77922</v>
       </c>
-      <c r="C233" s="12">
+      <c r="C233" s="23">
         <v>42498</v>
       </c>
-      <c r="D233" s="12">
+      <c r="D233" s="23">
         <v>120420</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A234" s="10">
+      <c r="A234" s="21">
         <v>300</v>
       </c>
-      <c r="B234" s="12">
+      <c r="B234" s="23">
         <v>80892</v>
       </c>
-      <c r="C234" s="12">
+      <c r="C234" s="23">
         <v>44388</v>
       </c>
-      <c r="D234" s="12">
+      <c r="D234" s="23">
         <v>125280</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A235" s="10">
+      <c r="A235" s="21">
         <v>350</v>
       </c>
-      <c r="B235" s="12">
+      <c r="B235" s="23">
         <v>95742</v>
       </c>
-      <c r="C235" s="12">
+      <c r="C235" s="23">
         <v>53838</v>
       </c>
-      <c r="D235" s="12">
+      <c r="D235" s="23">
         <v>149580</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A236" s="10">
+      <c r="A236" s="21">
         <v>400</v>
       </c>
-      <c r="B236" s="12">
+      <c r="B236" s="23">
         <v>110592</v>
       </c>
-      <c r="C236" s="12">
+      <c r="C236" s="23">
         <v>63288</v>
       </c>
-      <c r="D236" s="12">
+      <c r="D236" s="23">
         <v>173880</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="10">
+      <c r="A237" s="21">
         <v>450</v>
       </c>
-      <c r="B237" s="12">
+      <c r="B237" s="23">
         <v>125442</v>
       </c>
-      <c r="C237" s="12">
+      <c r="C237" s="23">
         <v>73656</v>
       </c>
-      <c r="D237" s="12">
+      <c r="D237" s="23">
         <v>199098</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="10">
+      <c r="A238" s="21">
         <v>500</v>
       </c>
-      <c r="B238" s="12">
+      <c r="B238" s="23">
         <v>140292</v>
       </c>
-      <c r="C238" s="12">
+      <c r="C238" s="23">
         <v>84024</v>
       </c>
-      <c r="D238" s="12">
+      <c r="D238" s="23">
         <v>224316</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="12">
+      <c r="A239" s="23">
         <v>1000</v>
       </c>
-      <c r="B239" s="12">
+      <c r="B239" s="23">
         <v>288792</v>
       </c>
-      <c r="C239" s="12">
+      <c r="C239" s="23">
         <v>187704</v>
       </c>
-      <c r="D239" s="12">
+      <c r="D239" s="23">
         <v>476496</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240" s="12">
+      <c r="A240" s="23">
         <v>2000</v>
       </c>
-      <c r="B240" s="12">
+      <c r="B240" s="23">
         <v>585792</v>
       </c>
-      <c r="C240" s="12">
+      <c r="C240" s="23">
         <v>408024</v>
       </c>
-      <c r="D240" s="12">
+      <c r="D240" s="23">
         <v>993816</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="12">
+      <c r="A241" s="23">
         <v>5000</v>
       </c>
-      <c r="B241" s="12">
+      <c r="B241" s="23">
         <v>1476792</v>
       </c>
-      <c r="C241" s="12">
+      <c r="C241" s="23">
         <v>1104624</v>
       </c>
-      <c r="D241" s="12">
+      <c r="D241" s="23">
         <v>2581416</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="12">
+      <c r="A242" s="23">
         <v>10000</v>
       </c>
-      <c r="B242" s="12">
+      <c r="B242" s="23">
         <v>2961792</v>
       </c>
-      <c r="C242" s="12">
+      <c r="C242" s="23">
         <v>2265624</v>
       </c>
-      <c r="D242" s="12">
+      <c r="D242" s="23">
         <v>5227416</v>
       </c>
     </row>
@@ -4770,212 +4608,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20">
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12">
+        <f>SUM(E10:E15)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22">
-        <v>1019</v>
-      </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22">
-        <v>1540</v>
-      </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22">
-        <v>514</v>
-      </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22">
+      <c r="F16" s="16">
+        <f>SUM(F10:F15)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="25">
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="17">
+        <v>42000</v>
+      </c>
+      <c r="E22" s="18">
+        <f>F16</f>
         <v>0</v>
       </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17">
-        <f>SUM(D10:D15)</f>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="25">
+        <f>F22</f>
         <v>0</v>
       </c>
-      <c r="E16" s="17">
-        <f>SUM(E10:E15)</f>
-        <v>3073</v>
-      </c>
-      <c r="F16" s="27">
-        <f>(D16-E16)</f>
-        <v>-3073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="28">
-        <v>42000</v>
-      </c>
-      <c r="D22" s="29">
-        <f>F16</f>
-        <v>-3073</v>
-      </c>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="31">
-        <f>E22</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="33" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:D5"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4984,15 +4767,15 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{7EE386E8-7FB3-45B3-BF68-892B2E41A71E}">
-            <xm:f>NOT(ISERROR(SEARCH($D$26="返金額",D26)))</xm:f>
-            <xm:f>$D$26="返金額"</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH($E$26="返金額",E26)))</xm:f>
+            <xm:f>$E$26="返金額"</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF0070C0"/>
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D26:F26</xm:sqref>
+          <xm:sqref>E26:G26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
